--- a/inputs/0 - Expansão/0 - Monitoramento Form 1, 2 e 3.xlsx
+++ b/inputs/0 - Expansão/0 - Monitoramento Form 1, 2 e 3.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29010"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="1419" documentId="11_7F4755BF84DCCE43E268565A8931F45BFA75341E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABCC4E4C-3FFA-4F46-A7E6-8BC071DBC3C6}"/>
+  <xr:revisionPtr revIDLastSave="1427" documentId="11_7F4755BF84DCCE43E268565A8931F45BFA75341E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{082ECBCF-983F-44F6-BF36-A366AAF52E75}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="223">
   <si>
     <t>Formulário</t>
   </si>
@@ -615,15 +615,15 @@
     <t>Removido o 76</t>
   </si>
   <si>
+    <t>05/06/2025</t>
+  </si>
+  <si>
+    <t>Ajustar listagem de equipementos existentes</t>
+  </si>
+  <si>
     <t>Duplicado</t>
   </si>
   <si>
-    <t>05/06/2025</t>
-  </si>
-  <si>
-    <t>Ajustar listagem de equipementos existentes</t>
-  </si>
-  <si>
     <t>06/05/2025</t>
   </si>
   <si>
@@ -637,6 +637,12 @@
   </si>
   <si>
     <t>Remover ID163</t>
+  </si>
+  <si>
+    <t>excluir ID 156, ID204  manter ID205</t>
+  </si>
+  <si>
+    <t>Remover ID156 e ID 204</t>
   </si>
   <si>
     <t>Fernanda Naiara Voinarski</t>
@@ -2983,11 +2989,11 @@
       </c>
       <c r="B3" s="9">
         <f>COUNTIF(Tabela13[Situação],"Enviado")</f>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C3" s="11">
         <f>B3/SUM($B3,$D3,$F3)</f>
-        <v>0.96296296296296291</v>
+        <v>0.96363636363636362</v>
       </c>
       <c r="D3" s="9">
         <f>COUNTIF(Tabela13[Situação],"")+COUNTIF(Tabela13[Situação],"Atrasado")</f>
@@ -3003,11 +3009,11 @@
       </c>
       <c r="G3" s="11">
         <f>F3/SUM($B3,$D3,$F3)</f>
-        <v>3.7037037037037035E-2</v>
+        <v>3.6363636363636362E-2</v>
       </c>
       <c r="H3" s="10">
         <f t="shared" ref="H3:H5" si="0">SUM(B3,D3,F3)</f>
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75">
@@ -3049,11 +3055,11 @@
       </c>
       <c r="B5" s="10">
         <f>SUM(B2:B4)</f>
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C5" s="11">
         <f>B5/SUM($B5,$D5,$F5)</f>
-        <v>0.96363636363636362</v>
+        <v>0.96385542168674698</v>
       </c>
       <c r="D5" s="10">
         <f>SUM(D2:D4)</f>
@@ -3069,11 +3075,11 @@
       </c>
       <c r="G5" s="11">
         <f>F5/SUM($B5,$D5,$F5)</f>
-        <v>3.6363636363636362E-2</v>
+        <v>3.614457831325301E-2</v>
       </c>
       <c r="H5" s="10">
         <f t="shared" si="0"/>
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -3085,7 +3091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A38" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="H13" workbookViewId="0">
       <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
@@ -4878,8 +4884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F53CABED-B458-4A21-8986-65D0CBE5BB71}">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5985,10 +5991,10 @@
         <v>119</v>
       </c>
       <c r="E37" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>194</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>26</v>
@@ -6081,7 +6087,7 @@
         <v>26</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="13" t="s">
@@ -6103,7 +6109,7 @@
         <v>130</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>196</v>
@@ -6540,16 +6546,20 @@
         <v>166</v>
       </c>
       <c r="E56" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="F56" s="2" t="s">
-        <v>194</v>
-      </c>
       <c r="G56" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H56" s="7"/>
-      <c r="I56" s="1"/>
+      <c r="H56" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>202</v>
+      </c>
       <c r="J56" s="13" t="s">
         <v>38</v>
       </c>
@@ -6566,7 +6576,7 @@
         <v>22</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>24</v>
@@ -6607,16 +6617,16 @@
         <v>26</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="J58" s="13" t="s">
         <v>26</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -6679,8 +6689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598A44A9-DD54-46F2-AC66-F4A29C2E67B7}">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView showGridLines="0" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6756,16 +6766,16 @@
         <v>26</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J2" s="13" t="s">
         <v>26</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="28.5">
@@ -6791,7 +6801,7 @@
         <v>26</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="13" t="s">
@@ -7019,7 +7029,7 @@
         <v>24</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>26</v>
@@ -7048,7 +7058,7 @@
         <v>24</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>26</v>
@@ -7077,7 +7087,7 @@
         <v>24</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>26</v>
@@ -7106,7 +7116,7 @@
         <v>24</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>26</v>
@@ -7190,7 +7200,7 @@
         <v>73</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>89</v>
@@ -7199,16 +7209,16 @@
         <v>26</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="J17" s="13" t="s">
         <v>26</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -7340,7 +7350,7 @@
         <v>24</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>26</v>
@@ -7369,7 +7379,7 @@
         <v>24</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>26</v>
@@ -7398,7 +7408,7 @@
         <v>24</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>26</v>
@@ -7714,7 +7724,7 @@
         <v>115</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>196</v>
@@ -7724,7 +7734,7 @@
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="J35" s="13" t="s">
         <v>29</v>
@@ -8071,7 +8081,7 @@
         <v>26</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="I47" s="1"/>
       <c r="J47" s="13" t="s">
@@ -8096,7 +8106,7 @@
         <v>24</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>26</v>
@@ -8292,7 +8302,7 @@
         <v>162</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>163</v>
@@ -8302,7 +8312,7 @@
       </c>
       <c r="H55" s="7"/>
       <c r="I55" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="J55" s="13" t="s">
         <v>29</v>
@@ -8349,7 +8359,7 @@
         <v>22</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>24</v>
@@ -8361,16 +8371,16 @@
         <v>26</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="J57" s="13" t="s">
         <v>26</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="58" spans="1:11">

--- a/inputs/0 - Expansão/0 - Monitoramento Form 1, 2 e 3.xlsx
+++ b/inputs/0 - Expansão/0 - Monitoramento Form 1, 2 e 3.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29016"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="20" documentId="11_A7E050DD8831405A0F1FDE9DA8BAD81696448A8E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD022C16-1457-4281-87FB-E961C50C1BCD}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="11_A7E050DD8831405A0F1FDE9DA8BAD81696448A8E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26697C34-F57F-48C3-8788-5CCBBEC25BFE}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="249">
   <si>
     <t>Formulário</t>
   </si>
@@ -128,7 +128,7 @@
     <t>Remover ID 139 ID 142 ID 148</t>
   </si>
   <si>
-    <t>Em Análise</t>
+    <t>Deletados 139, 142 e 148</t>
   </si>
   <si>
     <t>Amaporã</t>
@@ -383,6 +383,9 @@
     <t>Remover ID69</t>
   </si>
   <si>
+    <t>Deletado 69</t>
+  </si>
+  <si>
     <t>Mandaguari</t>
   </si>
   <si>
@@ -494,6 +497,9 @@
     <t>Remover ID79</t>
   </si>
   <si>
+    <t>Deletado 79</t>
+  </si>
+  <si>
     <t>Salgado Filho</t>
   </si>
   <si>
@@ -518,6 +524,9 @@
     <t>Remover ID63</t>
   </si>
   <si>
+    <t>Deletado 63</t>
+  </si>
+  <si>
     <t>Santa Mariana</t>
   </si>
   <si>
@@ -551,6 +560,9 @@
     <t>Remover ID 134</t>
   </si>
   <si>
+    <t>Deletado 134</t>
+  </si>
+  <si>
     <t>São João Do Ivaí</t>
   </si>
   <si>
@@ -584,6 +596,9 @@
     <t>Remover ID65</t>
   </si>
   <si>
+    <t>Deletado o 65</t>
+  </si>
+  <si>
     <t>01/04/2025, 08/04/2025</t>
   </si>
   <si>
@@ -593,6 +608,9 @@
     <t>Remover ID167</t>
   </si>
   <si>
+    <t>Deletado 167</t>
+  </si>
+  <si>
     <t>Remover  ID78 /  ID77 (Manter o ID87)</t>
   </si>
   <si>
@@ -629,6 +647,9 @@
     <t>ID: 150</t>
   </si>
   <si>
+    <t>Deletado 150</t>
+  </si>
+  <si>
     <t>Excluir ID93 e manter ID101</t>
   </si>
   <si>
@@ -665,6 +686,9 @@
     <t>Remover ID 153</t>
   </si>
   <si>
+    <t>Deletado 153</t>
+  </si>
+  <si>
     <t>03/04/2025</t>
   </si>
   <si>
@@ -677,6 +701,9 @@
     <t>Remover ID163</t>
   </si>
   <si>
+    <t>Deletado 163</t>
+  </si>
+  <si>
     <t>27/03/2025, 05/06/2025, 05/06/2025</t>
   </si>
   <si>
@@ -686,6 +713,9 @@
     <t>Remover ID156 e ID 204</t>
   </si>
   <si>
+    <t>Deletados 156 e 204</t>
+  </si>
+  <si>
     <t>Fernanda Naiara Voinarski</t>
   </si>
   <si>
@@ -731,6 +761,9 @@
     <t>Deletar ID172</t>
   </si>
   <si>
+    <t>Deletado 172</t>
+  </si>
+  <si>
     <t>10/02/2025, 05/06/2025</t>
   </si>
   <si>
@@ -741,6 +774,9 @@
   </si>
   <si>
     <t>Remover ID136</t>
+  </si>
+  <si>
+    <t>Deletado 136</t>
   </si>
   <si>
     <t>Formulário Duplicado (manter ID113)</t>
@@ -994,7 +1030,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="49">
+  <dxfs count="48">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1219,14 +1255,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FF66FF66"/>
           <bgColor rgb="FF66FF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF6666"/>
-          <bgColor rgb="FFFF6666"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1937,8 +1965,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView topLeftCell="H46" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J58" sqref="J58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2020,9 +2049,11 @@
         <v>28</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
@@ -2937,22 +2968,24 @@
         <v>113</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K33" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>32</v>
@@ -2975,13 +3008,13 @@
         <v>44</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>32</v>
@@ -3004,13 +3037,13 @@
         <v>55</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>32</v>
@@ -3033,13 +3066,13 @@
         <v>55</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>32</v>
@@ -3062,19 +3095,19 @@
         <v>52</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>26</v>
@@ -3091,25 +3124,25 @@
         <v>79</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>26</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3" t="s">
@@ -3122,19 +3155,19 @@
         <v>20</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>26</v>
@@ -3151,13 +3184,13 @@
         <v>35</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>32</v>
@@ -3180,13 +3213,13 @@
         <v>79</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>32</v>
@@ -3209,13 +3242,13 @@
         <v>44</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>32</v>
@@ -3238,13 +3271,13 @@
         <v>79</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>32</v>
@@ -3267,13 +3300,13 @@
         <v>52</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>32</v>
@@ -3296,19 +3329,19 @@
         <v>62</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>26</v>
@@ -3325,19 +3358,19 @@
         <v>62</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>65</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>26</v>
@@ -3354,52 +3387,54 @@
         <v>62</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>26</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K48" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="8" t="s">
         <v>44</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>26</v>
@@ -3416,46 +3451,48 @@
         <v>79</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>26</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K50" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="9" t="s">
         <v>52</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>32</v>
@@ -3478,13 +3515,13 @@
         <v>20</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>32</v>
@@ -3507,13 +3544,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>32</v>
@@ -3536,7 +3573,7 @@
         <v>79</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>22</v>
@@ -3561,50 +3598,52 @@
         <v>20</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>26</v>
       </c>
       <c r="H55" s="3"/>
       <c r="I55" s="3" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K55" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G56" s="5" t="s">
         <v>26</v>
@@ -3621,19 +3660,19 @@
         <v>62</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>26</v>
@@ -3650,69 +3689,71 @@
         <v>62</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G58" s="5" t="s">
         <v>26</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K58" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>185</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="G2:G58">
-    <cfRule type="cellIs" dxfId="48" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J58">
-    <cfRule type="cellIs" dxfId="46" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="5" stopIfTrue="1" operator="equal">
       <formula>"Em Análise"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="5" stopIfTrue="1" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E58">
-    <cfRule type="cellIs" dxfId="43" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="6" stopIfTrue="1" operator="equal">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="7" stopIfTrue="1" operator="equal">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="8" stopIfTrue="1" operator="equal">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="9" stopIfTrue="1" operator="equal">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="10" stopIfTrue="1" operator="equal">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3732,8 +3773,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3803,21 +3845,23 @@
         <v>24</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
@@ -3900,16 +3944,16 @@
         <v>26</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>26</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -3929,7 +3973,7 @@
         <v>32</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>26</v>
@@ -3987,7 +4031,7 @@
         <v>32</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>26</v>
@@ -4132,7 +4176,7 @@
         <v>32</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>26</v>
@@ -4161,7 +4205,7 @@
         <v>32</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>26</v>
@@ -4283,7 +4327,7 @@
         <v>26</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3" t="s">
@@ -4362,7 +4406,7 @@
         <v>24</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>26</v>
@@ -4391,7 +4435,7 @@
         <v>24</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>26</v>
@@ -4420,7 +4464,7 @@
         <v>32</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>26</v>
@@ -4449,7 +4493,7 @@
         <v>32</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>26</v>
@@ -4478,21 +4522,23 @@
         <v>24</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>26</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K25" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="9" t="s">
@@ -4511,7 +4557,7 @@
         <v>32</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>26</v>
@@ -4575,16 +4621,16 @@
         <v>26</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>26</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -4691,7 +4737,7 @@
         <v>32</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>26</v>
@@ -4737,13 +4783,13 @@
         <v>35</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>32</v>
@@ -4755,16 +4801,16 @@
         <v>26</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="J34" s="3" t="s">
         <v>26</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -4772,13 +4818,13 @@
         <v>44</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>32</v>
@@ -4801,19 +4847,19 @@
         <v>55</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>26</v>
@@ -4830,13 +4876,13 @@
         <v>55</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>32</v>
@@ -4859,19 +4905,19 @@
         <v>52</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>26</v>
@@ -4888,13 +4934,13 @@
         <v>79</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>32</v>
@@ -4917,25 +4963,25 @@
         <v>20</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>26</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="I40" s="3"/>
       <c r="J40" s="3" t="s">
@@ -4948,46 +4994,48 @@
         <v>35</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>26</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K41" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="12" t="s">
         <v>79</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>32</v>
@@ -5010,13 +5058,13 @@
         <v>44</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>32</v>
@@ -5039,13 +5087,13 @@
         <v>79</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>32</v>
@@ -5068,13 +5116,13 @@
         <v>52</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>32</v>
@@ -5097,19 +5145,19 @@
         <v>62</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>26</v>
@@ -5126,19 +5174,19 @@
         <v>62</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>65</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>26</v>
@@ -5155,13 +5203,13 @@
         <v>62</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>32</v>
@@ -5184,13 +5232,13 @@
         <v>44</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>32</v>
@@ -5213,19 +5261,19 @@
         <v>79</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>26</v>
@@ -5242,13 +5290,13 @@
         <v>52</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>32</v>
@@ -5271,19 +5319,19 @@
         <v>20</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="G52" s="14" t="s">
         <v>39</v>
@@ -5300,13 +5348,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>32</v>
@@ -5329,7 +5377,7 @@
         <v>79</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>22</v>
@@ -5354,83 +5402,87 @@
         <v>20</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>26</v>
       </c>
       <c r="H55" s="3"/>
       <c r="I55" s="3" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K55" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="G56" s="5" t="s">
         <v>26</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K56" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="11" t="s">
         <v>62</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>26</v>
@@ -5447,13 +5499,13 @@
         <v>62</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>32</v>
@@ -5465,62 +5517,59 @@
         <v>26</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>26</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G58" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <conditionalFormatting sqref="G2:G58">
-    <cfRule type="cellIs" dxfId="38" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="16" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="18" stopIfTrue="1" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J24 J26:J40 J42:J54 J57:J58">
-    <cfRule type="cellIs" dxfId="36" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="19" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="19" stopIfTrue="1" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E58">
-    <cfRule type="cellIs" dxfId="34" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="20" stopIfTrue="1" operator="equal">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="21" stopIfTrue="1" operator="equal">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="22" stopIfTrue="1" operator="equal">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="23" stopIfTrue="1" operator="equal">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="24" stopIfTrue="1" operator="equal">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2">
-    <cfRule type="cellIs" dxfId="29" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="13" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="14" stopIfTrue="1" operator="equal">
       <formula>"Em Análise"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="-1" stopIfTrue="1" operator="equal">
-      <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25">
@@ -5584,7 +5633,8 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <pane xSplit="3" topLeftCell="H41" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5653,22 +5703,22 @@
         <v>32</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>26</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>26</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -5694,7 +5744,7 @@
         <v>26</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3" t="s">
@@ -5719,7 +5769,7 @@
         <v>32</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>26</v>
@@ -5893,7 +5943,7 @@
         <v>32</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>26</v>
@@ -5922,7 +5972,7 @@
         <v>32</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>26</v>
@@ -5980,7 +6030,7 @@
         <v>32</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>26</v>
@@ -6009,7 +6059,7 @@
         <v>32</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>26</v>
@@ -6067,7 +6117,7 @@
         <v>32</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>26</v>
@@ -6102,16 +6152,16 @@
         <v>26</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>26</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -6214,7 +6264,7 @@
         <v>24</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>26</v>
@@ -6243,7 +6293,7 @@
         <v>32</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>26</v>
@@ -6272,7 +6322,7 @@
         <v>32</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>26</v>
@@ -6301,7 +6351,7 @@
         <v>32</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>26</v>
@@ -6417,7 +6467,7 @@
         <v>32</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>26</v>
@@ -6562,7 +6612,7 @@
         <v>32</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>26</v>
@@ -6579,13 +6629,13 @@
         <v>35</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>32</v>
@@ -6608,44 +6658,46 @@
         <v>44</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>26</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K35" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="10" t="s">
         <v>55</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>32</v>
@@ -6668,19 +6720,19 @@
         <v>55</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>26</v>
@@ -6697,13 +6749,13 @@
         <v>52</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>32</v>
@@ -6726,13 +6778,13 @@
         <v>79</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>32</v>
@@ -6755,19 +6807,19 @@
         <v>20</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>26</v>
@@ -6784,13 +6836,13 @@
         <v>35</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>32</v>
@@ -6813,13 +6865,13 @@
         <v>79</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>32</v>
@@ -6842,13 +6894,13 @@
         <v>44</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>32</v>
@@ -6871,13 +6923,13 @@
         <v>79</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>32</v>
@@ -6900,13 +6952,13 @@
         <v>52</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>32</v>
@@ -6929,19 +6981,19 @@
         <v>62</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>26</v>
@@ -6958,13 +7010,13 @@
         <v>62</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>65</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>32</v>
@@ -6974,7 +7026,7 @@
         <v>26</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3" t="s">
@@ -6987,19 +7039,19 @@
         <v>62</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>26</v>
@@ -7016,19 +7068,19 @@
         <v>44</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>26</v>
@@ -7045,13 +7097,13 @@
         <v>79</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>32</v>
@@ -7074,13 +7126,13 @@
         <v>52</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>32</v>
@@ -7103,19 +7155,19 @@
         <v>20</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>26</v>
@@ -7132,13 +7184,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>32</v>
@@ -7161,7 +7213,7 @@
         <v>79</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>22</v>
@@ -7186,44 +7238,46 @@
         <v>20</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>26</v>
       </c>
       <c r="H55" s="3"/>
       <c r="I55" s="3" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K55" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>32</v>
@@ -7246,13 +7300,13 @@
         <v>62</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>32</v>
@@ -7264,16 +7318,16 @@
         <v>26</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>26</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -7281,13 +7335,13 @@
         <v>62</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>32</v>

--- a/inputs/0 - Expansão/0 - Monitoramento Form 1, 2 e 3.xlsx
+++ b/inputs/0 - Expansão/0 - Monitoramento Form 1, 2 e 3.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29103"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_A9456F67761E0C0A08E87AD36C0BC4046F1AEAF5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF24A7CE-8C7C-4062-97D1-14C309171D2B}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_A8456F6742E60D71E4586B8C546AD07E9F9C5BD4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B906A47C-3E42-46F0-A463-9E07413814DD}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="243">
   <si>
     <t>Formulário</t>
   </si>
@@ -281,6 +281,12 @@
     <t>Coronel Vivida</t>
   </si>
   <si>
+    <t>Tássia Castelli</t>
+  </si>
+  <si>
+    <t>Atrasado</t>
+  </si>
+  <si>
     <t>Cruzeiro Do Sul</t>
   </si>
   <si>
@@ -383,7 +389,7 @@
     <t>Mandaguari</t>
   </si>
   <si>
-    <t>Rayra Emanuelly da Costa</t>
+    <t>Leticia Framesche</t>
   </si>
   <si>
     <t>Marmeleiro</t>
@@ -431,7 +437,7 @@
     <t>Paraíso Do Norte</t>
   </si>
   <si>
-    <t>Gabriela Magdalena Sartorelli da Silva Margonar</t>
+    <t>Gabriela Sartorelli Margonar</t>
   </si>
   <si>
     <t>11/02/2025</t>
@@ -563,7 +569,7 @@
     <t>São João Do Triunfo</t>
   </si>
   <si>
-    <t>Liandra Sartor da Silva</t>
+    <t>Fernanda Naiara Voinarski</t>
   </si>
   <si>
     <t>12/02/2025</t>
@@ -690,9 +696,6 @@
   </si>
   <si>
     <t>Deletados 156 e 204</t>
-  </si>
-  <si>
-    <t>Fernanda Naiara Voinarski</t>
   </si>
   <si>
     <t xml:space="preserve"> Formulário duplicado (Manterv ID107)</t>
@@ -1673,19 +1676,19 @@
       </c>
       <c r="D2" s="16">
         <f ca="1">COUNTIF(INDIRECT("'Form 1 - Município'!E2:E100"),"Atrasado")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="17">
         <f ca="1">D2/SUM($B2,$D2,$F2)</f>
-        <v>0</v>
+        <v>1.7857142857142856E-2</v>
       </c>
       <c r="F2" s="16">
         <f ca="1">COUNTIF(INDIRECT("'Form 1 - Município'!E2:E100"),"Sem Técnico")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" s="17">
         <f ca="1">F2/SUM($B2,$D2,$F2)</f>
-        <v>3.5714285714285712E-2</v>
+        <v>1.7857142857142856E-2</v>
       </c>
       <c r="H2" s="18">
         <f ca="1">SUM(B2,D2,F2)</f>
@@ -1739,19 +1742,19 @@
       </c>
       <c r="D4" s="16">
         <f ca="1">COUNTIF(INDIRECT("'Form 3 - Empreendimento'!E2:E100"),"Atrasado")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="17">
         <f ca="1">D4/SUM($B4,$D4,$F4)</f>
-        <v>0</v>
+        <v>1.8518518518518517E-2</v>
       </c>
       <c r="F4" s="16">
         <f ca="1">COUNTIF(INDIRECT("'Form 3 - Empreendimento'!E2:E100"),"Sem Técnico")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" s="17">
         <f ca="1">F4/SUM($B4,$D4,$F4)</f>
-        <v>3.7037037037037035E-2</v>
+        <v>1.8518518518518517E-2</v>
       </c>
       <c r="H4" s="18">
         <f ca="1">SUM(B4,D4,F4)</f>
@@ -1772,19 +1775,19 @@
       </c>
       <c r="D5" s="18">
         <f ca="1">SUM(D2:D4)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5" s="17">
         <f ca="1">D5/SUM($B5,$D5,$F5)</f>
-        <v>0</v>
+        <v>1.2269938650306749E-2</v>
       </c>
       <c r="F5" s="18">
         <f ca="1">SUM(F2:F4)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G5" s="17">
         <f ca="1">F5/SUM($B5,$D5,$F5)</f>
-        <v>3.6809815950920248E-2</v>
+        <v>2.4539877300613498E-2</v>
       </c>
       <c r="H5" s="18">
         <f ca="1">SUM(B5,D5,F5)</f>
@@ -1800,9 +1803,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2379,9 +2382,11 @@
       <c r="C19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="4"/>
+      <c r="D19" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="E19" s="13" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="14" t="s">
@@ -2399,13 +2404,13 @@
         <v>20</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>24</v>
@@ -2428,19 +2433,19 @@
         <v>43</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>26</v>
@@ -2463,13 +2468,13 @@
         <v>22</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>26</v>
@@ -2492,13 +2497,13 @@
         <v>64</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>26</v>
@@ -2521,13 +2526,13 @@
         <v>65</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>26</v>
@@ -2544,19 +2549,19 @@
         <v>78</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>26</v>
@@ -2573,13 +2578,13 @@
         <v>51</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>24</v>
@@ -2602,19 +2607,19 @@
         <v>51</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>26</v>
@@ -2631,19 +2636,19 @@
         <v>51</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>26</v>
@@ -2660,13 +2665,13 @@
         <v>34</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>24</v>
@@ -2678,7 +2683,7 @@
         <v>26</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4" t="s">
@@ -2691,13 +2696,13 @@
         <v>34</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>24</v>
@@ -2720,19 +2725,19 @@
         <v>61</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>26</v>
@@ -2749,13 +2754,13 @@
         <v>78</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>24</v>
@@ -2778,13 +2783,13 @@
         <v>34</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>24</v>
@@ -2796,16 +2801,16 @@
         <v>26</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="J33" s="4" t="s">
         <v>26</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2813,19 +2818,19 @@
         <v>34</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>26</v>
@@ -2842,19 +2847,19 @@
         <v>43</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>26</v>
@@ -2871,13 +2876,13 @@
         <v>54</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>24</v>
@@ -2900,13 +2905,13 @@
         <v>54</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>24</v>
@@ -2929,19 +2934,19 @@
         <v>51</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>26</v>
@@ -2958,25 +2963,25 @@
         <v>78</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>26</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="4" t="s">
@@ -2989,19 +2994,19 @@
         <v>20</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>26</v>
@@ -3018,19 +3023,19 @@
         <v>34</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>26</v>
@@ -3047,13 +3052,13 @@
         <v>78</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>24</v>
@@ -3076,19 +3081,19 @@
         <v>43</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>26</v>
@@ -3105,19 +3110,19 @@
         <v>78</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>26</v>
@@ -3134,13 +3139,13 @@
         <v>51</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>24</v>
@@ -3163,19 +3168,19 @@
         <v>61</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>26</v>
@@ -3192,19 +3197,19 @@
         <v>61</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>26</v>
@@ -3221,13 +3226,13 @@
         <v>61</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>24</v>
@@ -3239,16 +3244,16 @@
         <v>26</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="J48" s="4" t="s">
         <v>26</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -3256,19 +3261,19 @@
         <v>43</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>26</v>
@@ -3285,13 +3290,13 @@
         <v>78</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>24</v>
@@ -3303,16 +3308,16 @@
         <v>26</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="J50" s="4" t="s">
         <v>26</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -3320,13 +3325,13 @@
         <v>51</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>24</v>
@@ -3349,19 +3354,19 @@
         <v>20</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>26</v>
@@ -3378,13 +3383,13 @@
         <v>51</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>24</v>
@@ -3407,7 +3412,7 @@
         <v>78</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>22</v>
@@ -3432,32 +3437,32 @@
         <v>20</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>26</v>
       </c>
       <c r="H55" s="4"/>
       <c r="I55" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="J55" s="4" t="s">
         <v>26</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3465,19 +3470,19 @@
         <v>34</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G56" s="6" t="s">
         <v>26</v>
@@ -3494,19 +3499,19 @@
         <v>61</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G57" s="6" t="s">
         <v>26</v>
@@ -3523,13 +3528,13 @@
         <v>61</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>24</v>
@@ -3541,16 +3546,16 @@
         <v>26</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J58" s="4" t="s">
         <v>26</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3612,7 +3617,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3620,7 +3625,7 @@
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="52" customWidth="1"/>
+    <col min="4" max="4" width="45" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="39" customWidth="1"/>
     <col min="7" max="7" width="27" customWidth="1"/>
@@ -3675,29 +3680,30 @@
       <c r="C2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>23</v>
+      <c r="D2" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B2&amp;C2, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B2&amp;C2, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Marcia do Nascimento</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>38</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>26</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -3710,8 +3716,9 @@
       <c r="C3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>31</v>
+      <c r="D3" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B3&amp;C3, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B3&amp;C3, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Marcia Regina Willers</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>24</v>
@@ -3739,8 +3746,9 @@
       <c r="C4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>36</v>
+      <c r="D4" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B4&amp;C4, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B4&amp;C4, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Amanda Tayara Ribeiro da Silva</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>24</v>
@@ -3768,8 +3776,9 @@
       <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>40</v>
+      <c r="D5" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B5&amp;C5, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B5&amp;C5, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Vagner Perseti Alves</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>24</v>
@@ -3781,16 +3790,16 @@
         <v>26</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>26</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -3803,14 +3812,15 @@
       <c r="C6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>45</v>
+      <c r="D6" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B6&amp;C6, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B6&amp;C6, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Tania Grespan</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>26</v>
@@ -3832,8 +3842,9 @@
       <c r="C7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>47</v>
+      <c r="D7" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B7&amp;C7, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B7&amp;C7, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Daniele de Souza Lima Mei</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>24</v>
@@ -3861,14 +3872,15 @@
       <c r="C8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>53</v>
+      <c r="D8" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B8&amp;C8, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B8&amp;C8, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v xml:space="preserve">Eunice Fernandes Gonzaga </v>
       </c>
       <c r="E8" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>26</v>
@@ -3890,8 +3902,9 @@
       <c r="C9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>56</v>
+      <c r="D9" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B9&amp;C9, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B9&amp;C9, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Elder Arantes</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>24</v>
@@ -3919,14 +3932,15 @@
       <c r="C10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>63</v>
+      <c r="D10" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B10&amp;C10, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B10&amp;C10, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Hayana dos Santos Jaines</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>26</v>
@@ -3948,8 +3962,9 @@
       <c r="C11" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>63</v>
+      <c r="D11" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B11&amp;C11, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B11&amp;C11, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Hayana dos Santos Jaines</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>24</v>
@@ -3977,8 +3992,9 @@
       <c r="C12" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>63</v>
+      <c r="D12" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B12&amp;C12, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B12&amp;C12, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Hayana dos Santos Jaines</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>24</v>
@@ -4006,14 +4022,15 @@
       <c r="C13" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>63</v>
+      <c r="D13" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B13&amp;C13, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B13&amp;C13, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Hayana dos Santos Jaines</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>26</v>
@@ -4035,14 +4052,15 @@
       <c r="C14" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>63</v>
+      <c r="D14" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B14&amp;C14, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B14&amp;C14, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Hayana dos Santos Jaines</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>26</v>
@@ -4064,8 +4082,9 @@
       <c r="C15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>69</v>
+      <c r="D15" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B15&amp;C15, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B15&amp;C15, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Evellyn Renata Bereza Bueno</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>24</v>
@@ -4093,8 +4112,9 @@
       <c r="C16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>71</v>
+      <c r="D16" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B16&amp;C16, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B16&amp;C16, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Anandra da Silva</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>24</v>
@@ -4122,14 +4142,15 @@
       <c r="C17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>73</v>
+      <c r="D17" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B17&amp;C17, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B17&amp;C17, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Carlos Jorge de Oliveira Fernandes Moreira </v>
       </c>
       <c r="E17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>26</v>
@@ -4151,8 +4172,9 @@
       <c r="C18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>76</v>
+      <c r="D18" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B18&amp;C18, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B18&amp;C18, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Jéssica da Silva Bortolozzo</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>24</v>
@@ -4164,7 +4186,7 @@
         <v>26</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4" t="s">
@@ -4182,7 +4204,10 @@
       <c r="C19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="4"/>
+      <c r="D19" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B19&amp;C19, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B19&amp;C19, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Tássia Castelli</v>
+      </c>
       <c r="E19" s="13" t="s">
         <v>4</v>
       </c>
@@ -4202,13 +4227,14 @@
         <v>20</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>81</v>
+      <c r="D20" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B20&amp;C20, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B20&amp;C20, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Bianca Monteiro</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>24</v>
@@ -4231,19 +4257,20 @@
         <v>43</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>83</v>
+      <c r="D21" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B21&amp;C21, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B21&amp;C21, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Augusto Cesar Nunes</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>26</v>
@@ -4265,14 +4292,15 @@
       <c r="C22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>85</v>
+      <c r="D22" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B22&amp;C22, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B22&amp;C22, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Amanda Cristina Beal Acosta</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>26</v>
@@ -4294,14 +4322,15 @@
       <c r="C23" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>85</v>
+      <c r="D23" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B23&amp;C23, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B23&amp;C23, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Amanda Cristina Beal Acosta</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>26</v>
@@ -4323,14 +4352,15 @@
       <c r="C24" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>85</v>
+      <c r="D24" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B24&amp;C24, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B24&amp;C24, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Amanda Cristina Beal Acosta</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>26</v>
@@ -4347,13 +4377,14 @@
         <v>78</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>88</v>
+      <c r="D25" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B25&amp;C25, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B25&amp;C25, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Marcos Alexandre Cordeiro Esmocoviski</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>24</v>
@@ -4365,16 +4396,16 @@
         <v>26</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="J25" s="4" t="s">
         <v>26</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -4382,19 +4413,20 @@
         <v>51</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>91</v>
+      <c r="D26" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B26&amp;C26, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B26&amp;C26, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Rodrigo Lima</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>26</v>
@@ -4411,19 +4443,20 @@
         <v>51</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>93</v>
+      <c r="D27" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B27&amp;C27, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B27&amp;C27, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Savana Lemes Rodrigues</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>26</v>
@@ -4440,13 +4473,14 @@
         <v>51</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>96</v>
+      <c r="D28" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B28&amp;C28, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B28&amp;C28, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Letícia Diniz</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>24</v>
@@ -4458,16 +4492,16 @@
         <v>26</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="J28" s="4" t="s">
         <v>26</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -4475,13 +4509,14 @@
         <v>34</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>99</v>
+      <c r="D29" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B29&amp;C29, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B29&amp;C29, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Tais Muller</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>24</v>
@@ -4504,13 +4539,14 @@
         <v>34</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>102</v>
+      <c r="D30" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B30&amp;C30, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B30&amp;C30, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Eusebio Lima Deltrejo</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>24</v>
@@ -4533,13 +4569,14 @@
         <v>61</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>104</v>
+      <c r="D31" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B31&amp;C31, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B31&amp;C31, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Isadora Bussmann Barsotti</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>24</v>
@@ -4562,19 +4599,20 @@
         <v>78</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>107</v>
+      <c r="D32" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B32&amp;C32, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B32&amp;C32, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Osair Wrublak</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>26</v>
@@ -4591,13 +4629,14 @@
         <v>34</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>109</v>
+      <c r="D33" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B33&amp;C33, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B33&amp;C33, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Gislaine Souza Rosa</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>24</v>
@@ -4620,13 +4659,14 @@
         <v>34</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>114</v>
+      <c r="D34" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B34&amp;C34, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B34&amp;C34, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Leticia Framesche</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>24</v>
@@ -4638,16 +4678,16 @@
         <v>26</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J34" s="4" t="s">
         <v>26</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -4655,19 +4695,20 @@
         <v>43</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>116</v>
+      <c r="D35" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B35&amp;C35, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B35&amp;C35, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Suzana Gotardo de Meira</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>26</v>
@@ -4684,19 +4725,20 @@
         <v>54</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>118</v>
+      <c r="D36" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B36&amp;C36, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B36&amp;C36, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Mariangela Lurdes de Borba</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>26</v>
@@ -4713,13 +4755,14 @@
         <v>54</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>120</v>
+      <c r="D37" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B37&amp;C37, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B37&amp;C37, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Patricia Teixeira dos Santos</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>24</v>
@@ -4742,19 +4785,20 @@
         <v>51</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>122</v>
+      <c r="D38" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B38&amp;C38, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B38&amp;C38, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Anderson Batista Siqueira</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>26</v>
@@ -4771,13 +4815,14 @@
         <v>78</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>125</v>
+      <c r="D39" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B39&amp;C39, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B39&amp;C39, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Aramis Vinicius de Paula Oliveira</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>24</v>
@@ -4800,25 +4845,26 @@
         <v>20</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>130</v>
+      <c r="D40" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B40&amp;C40, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B40&amp;C40, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Gabriela Sartorelli Margonar</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>26</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="4" t="s">
@@ -4831,34 +4877,35 @@
         <v>34</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>133</v>
+      <c r="D41" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B41&amp;C41, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B41&amp;C41, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Gustavo Henrique de Andrade</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>26</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="J41" s="4" t="s">
         <v>26</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -4866,13 +4913,14 @@
         <v>78</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="4" t="s">
-        <v>135</v>
+      <c r="D42" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B42&amp;C42, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B42&amp;C42, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Ricardo Pyc</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>24</v>
@@ -4895,13 +4943,14 @@
         <v>43</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D43" s="4" t="s">
-        <v>137</v>
+      <c r="D43" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B43&amp;C43, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B43&amp;C43, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Camila Maytana Flores da Silva</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>24</v>
@@ -4924,19 +4973,20 @@
         <v>78</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="4" t="s">
-        <v>139</v>
+      <c r="D44" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B44&amp;C44, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B44&amp;C44, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Claudiana Andria</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>26</v>
@@ -4953,13 +5003,14 @@
         <v>51</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>141</v>
+      <c r="D45" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B45&amp;C45, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B45&amp;C45, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Daiana Aparecida Dias</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>24</v>
@@ -4982,19 +5033,20 @@
         <v>61</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D46" s="4" t="s">
-        <v>143</v>
+      <c r="D46" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B46&amp;C46, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B46&amp;C46, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>João Henrique Assunção de Sousa</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>26</v>
@@ -5011,19 +5063,20 @@
         <v>61</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D47" s="4" t="s">
-        <v>143</v>
+      <c r="D47" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B47&amp;C47, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B47&amp;C47, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>João Henrique Assunção de Sousa</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>26</v>
@@ -5040,13 +5093,14 @@
         <v>61</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="4" t="s">
-        <v>146</v>
+      <c r="D48" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B48&amp;C48, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B48&amp;C48, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Jean Eriksen de Miranda</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>24</v>
@@ -5069,13 +5123,14 @@
         <v>43</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D49" s="4" t="s">
-        <v>151</v>
+      <c r="D49" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B49&amp;C49, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B49&amp;C49, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Ana Paula Cigolini</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>24</v>
@@ -5098,19 +5153,20 @@
         <v>78</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D50" s="4" t="s">
-        <v>154</v>
+      <c r="D50" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B50&amp;C50, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B50&amp;C50, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Vilmar Ribeiro</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>26</v>
@@ -5127,13 +5183,14 @@
         <v>51</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D51" s="4" t="s">
-        <v>159</v>
+      <c r="D51" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B51&amp;C51, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B51&amp;C51, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Ana Carolina Bertolaccini</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>24</v>
@@ -5156,19 +5213,20 @@
         <v>20</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D52" s="4" t="s">
-        <v>161</v>
+      <c r="D52" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B52&amp;C52, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B52&amp;C52, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Maristela da Silva de Oliveira Melo</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G52" s="14" t="s">
         <v>38</v>
@@ -5185,13 +5243,14 @@
         <v>51</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D53" s="4" t="s">
-        <v>163</v>
+      <c r="D53" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B53&amp;C53, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B53&amp;C53, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Yuri Luiz de Oliveira</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>24</v>
@@ -5214,12 +5273,15 @@
         <v>78</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D54" s="4"/>
+      <c r="D54" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B54&amp;C54, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B54&amp;C54, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
+      </c>
       <c r="E54" s="13" t="s">
         <v>4</v>
       </c>
@@ -5239,32 +5301,33 @@
         <v>20</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D55" s="4" t="s">
-        <v>166</v>
+      <c r="D55" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B55&amp;C55, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B55&amp;C55, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Eliane Stefani Dantas Dias</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>26</v>
       </c>
       <c r="H55" s="4"/>
       <c r="I55" s="4" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="J55" s="4" t="s">
         <v>26</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -5272,34 +5335,35 @@
         <v>34</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D56" s="4" t="s">
-        <v>171</v>
+      <c r="D56" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B56&amp;C56, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B56&amp;C56, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Diego Batista</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G56" s="6" t="s">
         <v>26</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="J56" s="4" t="s">
         <v>26</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -5307,19 +5371,20 @@
         <v>61</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D57" s="4" t="s">
-        <v>217</v>
+      <c r="D57" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B57&amp;C57, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B57&amp;C57, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Fernanda Naiara Voinarski</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G57" s="6" t="s">
         <v>26</v>
@@ -5336,13 +5401,14 @@
         <v>61</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D58" s="4" t="s">
-        <v>177</v>
+      <c r="D58" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B58&amp;C58, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B58&amp;C58, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Pablo Bruno Rosa Oliveira</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>24</v>
@@ -5354,16 +5420,16 @@
         <v>26</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J58" s="4" t="s">
         <v>26</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -5423,9 +5489,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D31" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E37" sqref="E37"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5433,7 +5499,7 @@
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="52" customWidth="1"/>
+    <col min="4" max="4" width="45" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="7" width="27" customWidth="1"/>
     <col min="8" max="8" width="107" customWidth="1"/>
@@ -5487,29 +5553,30 @@
       <c r="C2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>23</v>
+      <c r="D2" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B2&amp;C2, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B2&amp;C2, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Marcia do Nascimento</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>26</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>26</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -5522,8 +5589,9 @@
       <c r="C3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>31</v>
+      <c r="D3" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B3&amp;C3, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B3&amp;C3, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Marcia Regina Willers</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>24</v>
@@ -5535,7 +5603,7 @@
         <v>26</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4" t="s">
@@ -5553,14 +5621,15 @@
       <c r="C4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>36</v>
+      <c r="D4" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B4&amp;C4, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B4&amp;C4, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Amanda Tayara Ribeiro da Silva</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>26</v>
@@ -5582,8 +5651,9 @@
       <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>40</v>
+      <c r="D5" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B5&amp;C5, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B5&amp;C5, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Vagner Perseti Alves</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>24</v>
@@ -5611,8 +5681,9 @@
       <c r="C6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>45</v>
+      <c r="D6" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B6&amp;C6, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B6&amp;C6, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Tania Grespan</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>24</v>
@@ -5640,14 +5711,15 @@
       <c r="C7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>47</v>
+      <c r="D7" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B7&amp;C7, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B7&amp;C7, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Daniele de Souza Lima Mei</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>26</v>
@@ -5669,8 +5741,9 @@
       <c r="C8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>53</v>
+      <c r="D8" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B8&amp;C8, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B8&amp;C8, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v xml:space="preserve">Eunice Fernandes Gonzaga </v>
       </c>
       <c r="E8" s="5" t="s">
         <v>24</v>
@@ -5698,8 +5771,9 @@
       <c r="C9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>56</v>
+      <c r="D9" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B9&amp;C9, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B9&amp;C9, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Elder Arantes</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>24</v>
@@ -5727,14 +5801,15 @@
       <c r="C10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>63</v>
+      <c r="D10" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B10&amp;C10, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B10&amp;C10, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Hayana dos Santos Jaines</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>26</v>
@@ -5756,14 +5831,15 @@
       <c r="C11" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>63</v>
+      <c r="D11" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B11&amp;C11, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B11&amp;C11, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Hayana dos Santos Jaines</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>26</v>
@@ -5785,8 +5861,9 @@
       <c r="C12" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>63</v>
+      <c r="D12" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B12&amp;C12, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B12&amp;C12, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Hayana dos Santos Jaines</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>24</v>
@@ -5814,14 +5891,15 @@
       <c r="C13" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>63</v>
+      <c r="D13" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B13&amp;C13, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B13&amp;C13, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Hayana dos Santos Jaines</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>26</v>
@@ -5843,14 +5921,15 @@
       <c r="C14" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>63</v>
+      <c r="D14" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B14&amp;C14, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B14&amp;C14, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Hayana dos Santos Jaines</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>26</v>
@@ -5872,8 +5951,9 @@
       <c r="C15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>69</v>
+      <c r="D15" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B15&amp;C15, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B15&amp;C15, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Evellyn Renata Bereza Bueno</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>24</v>
@@ -5901,14 +5981,15 @@
       <c r="C16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>71</v>
+      <c r="D16" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B16&amp;C16, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B16&amp;C16, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Anandra da Silva</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>26</v>
@@ -5930,29 +6011,30 @@
       <c r="C17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>73</v>
+      <c r="D17" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B17&amp;C17, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B17&amp;C17, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Carlos Jorge de Oliveira Fernandes Moreira </v>
       </c>
       <c r="E17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>26</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J17" s="4" t="s">
         <v>26</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -5965,8 +6047,9 @@
       <c r="C18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>76</v>
+      <c r="D18" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B18&amp;C18, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B18&amp;C18, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Jéssica da Silva Bortolozzo</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>24</v>
@@ -5994,9 +6077,12 @@
       <c r="C19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="4"/>
+      <c r="D19" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B19&amp;C19, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B19&amp;C19, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Tássia Castelli</v>
+      </c>
       <c r="E19" s="13" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="14" t="s">
@@ -6014,13 +6100,14 @@
         <v>20</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>81</v>
+      <c r="D20" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B20&amp;C20, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B20&amp;C20, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Bianca Monteiro</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>24</v>
@@ -6043,19 +6130,20 @@
         <v>43</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>83</v>
+      <c r="D21" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B21&amp;C21, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B21&amp;C21, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Augusto Cesar Nunes</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>26</v>
@@ -6077,14 +6165,15 @@
       <c r="C22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>85</v>
+      <c r="D22" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B22&amp;C22, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B22&amp;C22, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Amanda Cristina Beal Acosta</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>26</v>
@@ -6106,14 +6195,15 @@
       <c r="C23" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>85</v>
+      <c r="D23" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B23&amp;C23, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B23&amp;C23, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Amanda Cristina Beal Acosta</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>26</v>
@@ -6135,14 +6225,15 @@
       <c r="C24" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>85</v>
+      <c r="D24" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B24&amp;C24, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B24&amp;C24, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Amanda Cristina Beal Acosta</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>26</v>
@@ -6159,19 +6250,20 @@
         <v>78</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>88</v>
+      <c r="D25" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B25&amp;C25, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B25&amp;C25, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Marcos Alexandre Cordeiro Esmocoviski</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>26</v>
@@ -6188,13 +6280,14 @@
         <v>51</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>91</v>
+      <c r="D26" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B26&amp;C26, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B26&amp;C26, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Rodrigo Lima</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>24</v>
@@ -6217,19 +6310,20 @@
         <v>51</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>93</v>
+      <c r="D27" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B27&amp;C27, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B27&amp;C27, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Savana Lemes Rodrigues</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>26</v>
@@ -6246,19 +6340,20 @@
         <v>51</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>96</v>
+      <c r="D28" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B28&amp;C28, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B28&amp;C28, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Letícia Diniz</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>26</v>
@@ -6275,13 +6370,14 @@
         <v>34</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>99</v>
+      <c r="D29" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B29&amp;C29, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B29&amp;C29, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Tais Muller</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>24</v>
@@ -6304,13 +6400,14 @@
         <v>34</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>102</v>
+      <c r="D30" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B30&amp;C30, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B30&amp;C30, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Eusebio Lima Deltrejo</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>24</v>
@@ -6333,13 +6430,14 @@
         <v>61</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>104</v>
+      <c r="D31" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B31&amp;C31, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B31&amp;C31, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Isadora Bussmann Barsotti</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>24</v>
@@ -6362,13 +6460,14 @@
         <v>78</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>107</v>
+      <c r="D32" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B32&amp;C32, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B32&amp;C32, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Osair Wrublak</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>24</v>
@@ -6391,19 +6490,20 @@
         <v>34</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>109</v>
+      <c r="D33" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B33&amp;C33, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B33&amp;C33, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Gislaine Souza Rosa</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>26</v>
@@ -6420,19 +6520,20 @@
         <v>34</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>114</v>
+      <c r="D34" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B34&amp;C34, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B34&amp;C34, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Leticia Framesche</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>26</v>
@@ -6449,32 +6550,33 @@
         <v>43</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>116</v>
+      <c r="D35" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B35&amp;C35, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B35&amp;C35, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Suzana Gotardo de Meira</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>26</v>
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J35" s="4" t="s">
         <v>26</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -6482,13 +6584,14 @@
         <v>54</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>118</v>
+      <c r="D36" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B36&amp;C36, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B36&amp;C36, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Mariangela Lurdes de Borba</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>24</v>
@@ -6511,29 +6614,30 @@
         <v>54</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>126</v>
+      <c r="D37" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B37&amp;C37, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B37&amp;C37, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Patricia Teixeira dos Santos</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>128</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>26</v>
       </c>
       <c r="H37" s="4"/>
       <c r="I37" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K37" s="4"/>
     </row>
@@ -6542,13 +6646,14 @@
         <v>51</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>122</v>
+      <c r="D38" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B38&amp;C38, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B38&amp;C38, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Anderson Batista Siqueira</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>24</v>
@@ -6571,13 +6676,14 @@
         <v>78</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>125</v>
+      <c r="D39" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B39&amp;C39, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B39&amp;C39, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Aramis Vinicius de Paula Oliveira</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>24</v>
@@ -6600,19 +6706,20 @@
         <v>20</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>130</v>
+      <c r="D40" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B40&amp;C40, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B40&amp;C40, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Gabriela Sartorelli Margonar</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>26</v>
@@ -6629,13 +6736,14 @@
         <v>34</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>133</v>
+      <c r="D41" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B41&amp;C41, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B41&amp;C41, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Gustavo Henrique de Andrade</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>24</v>
@@ -6658,13 +6766,14 @@
         <v>78</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="4" t="s">
-        <v>135</v>
+      <c r="D42" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B42&amp;C42, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B42&amp;C42, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Ricardo Pyc</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>24</v>
@@ -6687,13 +6796,14 @@
         <v>43</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D43" s="4" t="s">
-        <v>137</v>
+      <c r="D43" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B43&amp;C43, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B43&amp;C43, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Camila Maytana Flores da Silva</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>24</v>
@@ -6716,13 +6826,14 @@
         <v>78</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="4" t="s">
-        <v>139</v>
+      <c r="D44" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B44&amp;C44, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B44&amp;C44, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Claudiana Andria</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>24</v>
@@ -6745,13 +6856,14 @@
         <v>51</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>141</v>
+      <c r="D45" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B45&amp;C45, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B45&amp;C45, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Daiana Aparecida Dias</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>24</v>
@@ -6774,19 +6886,20 @@
         <v>61</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D46" s="4" t="s">
-        <v>143</v>
+      <c r="D46" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B46&amp;C46, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B46&amp;C46, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>João Henrique Assunção de Sousa</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>26</v>
@@ -6803,13 +6916,14 @@
         <v>61</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D47" s="4" t="s">
-        <v>143</v>
+      <c r="D47" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B47&amp;C47, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B47&amp;C47, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>João Henrique Assunção de Sousa</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>24</v>
@@ -6821,7 +6935,7 @@
         <v>26</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I47" s="4"/>
       <c r="J47" s="4" t="s">
@@ -6834,19 +6948,20 @@
         <v>61</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="4" t="s">
-        <v>146</v>
+      <c r="D48" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B48&amp;C48, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B48&amp;C48, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Jean Eriksen de Miranda</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>26</v>
@@ -6863,19 +6978,20 @@
         <v>43</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D49" s="4" t="s">
-        <v>151</v>
+      <c r="D49" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B49&amp;C49, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B49&amp;C49, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Ana Paula Cigolini</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>26</v>
@@ -6892,13 +7008,14 @@
         <v>78</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D50" s="4" t="s">
-        <v>154</v>
+      <c r="D50" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B50&amp;C50, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B50&amp;C50, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Vilmar Ribeiro</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>24</v>
@@ -6921,13 +7038,14 @@
         <v>51</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D51" s="4" t="s">
-        <v>159</v>
+      <c r="D51" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B51&amp;C51, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B51&amp;C51, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Ana Carolina Bertolaccini</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>24</v>
@@ -6950,19 +7068,20 @@
         <v>20</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D52" s="4" t="s">
-        <v>161</v>
+      <c r="D52" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B52&amp;C52, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B52&amp;C52, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Maristela da Silva de Oliveira Melo</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>26</v>
@@ -6979,13 +7098,14 @@
         <v>51</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D53" s="4" t="s">
-        <v>163</v>
+      <c r="D53" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B53&amp;C53, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B53&amp;C53, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Yuri Luiz de Oliveira</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>24</v>
@@ -7008,12 +7128,15 @@
         <v>78</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D54" s="4"/>
+      <c r="D54" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B54&amp;C54, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B54&amp;C54, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
+      </c>
       <c r="E54" s="13" t="s">
         <v>4</v>
       </c>
@@ -7033,32 +7156,33 @@
         <v>20</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D55" s="4" t="s">
-        <v>166</v>
+      <c r="D55" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B55&amp;C55, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B55&amp;C55, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Eliane Stefani Dantas Dias</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>26</v>
       </c>
       <c r="H55" s="4"/>
       <c r="I55" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J55" s="4" t="s">
         <v>26</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -7066,13 +7190,14 @@
         <v>34</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D56" s="4" t="s">
-        <v>171</v>
+      <c r="D56" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B56&amp;C56, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B56&amp;C56, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Diego Batista</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>24</v>
@@ -7095,13 +7220,14 @@
         <v>61</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D57" s="4" t="s">
-        <v>217</v>
+      <c r="D57" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B57&amp;C57, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B57&amp;C57, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Fernanda Naiara Voinarski</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>24</v>
@@ -7113,16 +7239,16 @@
         <v>26</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J57" s="4" t="s">
         <v>26</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -7130,13 +7256,14 @@
         <v>61</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D58" s="4" t="s">
-        <v>177</v>
+      <c r="D58" s="4" t="str">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B58&amp;C58, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B58&amp;C58, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v>Pablo Bruno Rosa Oliveira</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>24</v>

--- a/inputs/0 - Expansão/0 - Monitoramento Form 1, 2 e 3.xlsx
+++ b/inputs/0 - Expansão/0 - Monitoramento Form 1, 2 e 3.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29103"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29113"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_A8456F6742E60D71E4586B8C546AD07E9F9C5BD4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B906A47C-3E42-46F0-A463-9E07413814DD}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_A8456F67A7F64A521C7A6B942C9EDE91740979BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{279A09CA-63DC-4B12-9134-48B34C2291F5}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="1" r:id="rId1"/>
@@ -814,7 +814,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -895,14 +895,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF808080"/>
+        <fgColor rgb="FFFF6400"/>
+        <bgColor rgb="FFFF6400"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA020F0"/>
         <bgColor rgb="FFA020F0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF808080"/>
       </patternFill>
     </fill>
   </fills>
@@ -946,7 +952,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -991,6 +997,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1663,133 +1672,133 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="17">
         <f ca="1">COUNTIF(INDIRECT("'Form 1 - Município'!E2:E100"),"Enviado")</f>
         <v>54</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="18">
         <f ca="1">B2/SUM($B2,$D2,$F2)</f>
         <v>0.9642857142857143</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="17">
         <f ca="1">COUNTIF(INDIRECT("'Form 1 - Município'!E2:E100"),"Atrasado")</f>
         <v>1</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="18">
         <f ca="1">D2/SUM($B2,$D2,$F2)</f>
         <v>1.7857142857142856E-2</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="17">
         <f ca="1">COUNTIF(INDIRECT("'Form 1 - Município'!E2:E100"),"Sem Técnico")</f>
         <v>1</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="18">
         <f ca="1">F2/SUM($B2,$D2,$F2)</f>
         <v>1.7857142857142856E-2</v>
       </c>
-      <c r="H2" s="18">
+      <c r="H2" s="19">
         <f ca="1">SUM(B2,D2,F2)</f>
         <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="17">
         <f ca="1">COUNTIF(INDIRECT("'Form 2 - UVR'!E2:E100"),"Enviado")</f>
         <v>51</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="18">
         <f ca="1">B3/SUM($B3,$D3,$F3)</f>
         <v>0.96226415094339623</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="17">
         <f ca="1">COUNTIF(INDIRECT("'Form 2 - UVR'!E2:E100"),"Atrasado")</f>
         <v>0</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="18">
         <f ca="1">D3/SUM($B3,$D3,$F3)</f>
         <v>0</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="17">
         <f ca="1">COUNTIF(INDIRECT("'Form 2 - UVR'!E2:E100"),"Sem Técnico")</f>
         <v>2</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="18">
         <f ca="1">F3/SUM($B3,$D3,$F3)</f>
         <v>3.7735849056603772E-2</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="19">
         <f ca="1">SUM(B3,D3,F3)</f>
         <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="17">
         <f ca="1">COUNTIF(INDIRECT("'Form 3 - Empreendimento'!E2:E100"),"Enviado")</f>
         <v>52</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="18">
         <f ca="1">B4/SUM($B4,$D4,$F4)</f>
         <v>0.96296296296296291</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="17">
         <f ca="1">COUNTIF(INDIRECT("'Form 3 - Empreendimento'!E2:E100"),"Atrasado")</f>
         <v>1</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="18">
         <f ca="1">D4/SUM($B4,$D4,$F4)</f>
         <v>1.8518518518518517E-2</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="17">
         <f ca="1">COUNTIF(INDIRECT("'Form 3 - Empreendimento'!E2:E100"),"Sem Técnico")</f>
         <v>1</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="18">
         <f ca="1">F4/SUM($B4,$D4,$F4)</f>
         <v>1.8518518518518517E-2</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="19">
         <f ca="1">SUM(B4,D4,F4)</f>
         <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="19">
         <f ca="1">SUM(B2:B4)</f>
         <v>157</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="18">
         <f ca="1">B5/SUM($B5,$D5,$F5)</f>
         <v>0.96319018404907975</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="19">
         <f ca="1">SUM(D2:D4)</f>
         <v>2</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="18">
         <f ca="1">D5/SUM($B5,$D5,$F5)</f>
         <v>1.2269938650306749E-2</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="19">
         <f ca="1">SUM(F2:F4)</f>
         <v>4</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="18">
         <f ca="1">F5/SUM($B5,$D5,$F5)</f>
         <v>2.4539877300613498E-2</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="19">
         <f ca="1">SUM(B5,D5,F5)</f>
         <v>163</v>
       </c>
@@ -1803,9 +1812,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" topLeftCell="H34" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1813,7 +1822,7 @@
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="52" customWidth="1"/>
+    <col min="4" max="4" width="48" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="7" width="27" customWidth="1"/>
     <col min="8" max="8" width="151" customWidth="1"/>
@@ -3418,7 +3427,7 @@
         <v>22</v>
       </c>
       <c r="D54" s="4"/>
-      <c r="E54" s="13" t="s">
+      <c r="E54" s="16" t="s">
         <v>4</v>
       </c>
       <c r="F54" s="4"/>
@@ -3616,8 +3625,8 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D55" sqref="D55"/>
+      <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4208,7 +4217,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B19&amp;C19, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B19&amp;C19, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Tássia Castelli</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="16" t="s">
         <v>4</v>
       </c>
       <c r="F19" s="4"/>
@@ -5282,7 +5291,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B54&amp;C54, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B54&amp;C54, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E54" s="13" t="s">
+      <c r="E54" s="16" t="s">
         <v>4</v>
       </c>
       <c r="F54" s="4"/>
@@ -5489,9 +5498,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="H49" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7137,7 +7146,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B54&amp;C54, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B54&amp;C54, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E54" s="13" t="s">
+      <c r="E54" s="16" t="s">
         <v>4</v>
       </c>
       <c r="F54" s="4"/>

--- a/inputs/0 - Expansão/0 - Monitoramento Form 1, 2 e 3.xlsx
+++ b/inputs/0 - Expansão/0 - Monitoramento Form 1, 2 e 3.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29116"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_A8456F67A7F64A521C7A6B942C9EDE91740979BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{279A09CA-63DC-4B12-9134-48B34C2291F5}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_A8456F67A7C6CA61D83971942C9EDE91740979BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F5EC7DD-DD19-4D1A-95EA-E230E377ABE7}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="243">
   <si>
     <t>Formulário</t>
   </si>
@@ -746,7 +746,7 @@
     <t>Deletar ID83</t>
   </si>
   <si>
-    <t>Em Análise</t>
+    <t>Deletado o ID 83</t>
   </si>
   <si>
     <t xml:space="preserve">UVR sem atividade </t>
@@ -1813,7 +1813,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="H34" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="H36" activePane="topRight" state="frozen"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
@@ -3625,7 +3625,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="H36" activePane="topRight" state="frozen"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
@@ -5499,8 +5499,8 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="H49" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I54" sqref="I54"/>
+      <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6646,9 +6646,11 @@
         <v>234</v>
       </c>
       <c r="J37" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K37" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="K37" s="4"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="9" t="s">

--- a/inputs/0 - Expansão/0 - Monitoramento Form 1, 2 e 3.xlsx
+++ b/inputs/0 - Expansão/0 - Monitoramento Form 1, 2 e 3.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29116"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_A8456F67A7C6CA61D83971942C9EDE91740979BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F5EC7DD-DD19-4D1A-95EA-E230E377ABE7}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_A8456F67A7B64C313C2A67811C7CCE917409798C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7A73EA7-3CEC-43AF-A44A-44A832C67B8B}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="244">
   <si>
     <t>Formulário</t>
   </si>
@@ -434,6 +434,12 @@
     <t>Dois envios (manter ID 117)</t>
   </si>
   <si>
+    <t>Remover ID109</t>
+  </si>
+  <si>
+    <t>Em Análise</t>
+  </si>
+  <si>
     <t>Paraíso Do Norte</t>
   </si>
   <si>
@@ -738,9 +744,6 @@
   </si>
   <si>
     <t>Deletado 172</t>
-  </si>
-  <si>
-    <t>10/02/2025, 05/06/2025</t>
   </si>
   <si>
     <t>Deletar ID83</t>
@@ -1631,7 +1634,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1743,11 +1748,11 @@
       </c>
       <c r="B4" s="17">
         <f ca="1">COUNTIF(INDIRECT("'Form 3 - Empreendimento'!E2:E100"),"Enviado")</f>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C4" s="18">
         <f ca="1">B4/SUM($B4,$D4,$F4)</f>
-        <v>0.96296296296296291</v>
+        <v>0.96363636363636362</v>
       </c>
       <c r="D4" s="17">
         <f ca="1">COUNTIF(INDIRECT("'Form 3 - Empreendimento'!E2:E100"),"Atrasado")</f>
@@ -1755,7 +1760,7 @@
       </c>
       <c r="E4" s="18">
         <f ca="1">D4/SUM($B4,$D4,$F4)</f>
-        <v>1.8518518518518517E-2</v>
+        <v>1.8181818181818181E-2</v>
       </c>
       <c r="F4" s="17">
         <f ca="1">COUNTIF(INDIRECT("'Form 3 - Empreendimento'!E2:E100"),"Sem Técnico")</f>
@@ -1763,11 +1768,11 @@
       </c>
       <c r="G4" s="18">
         <f ca="1">F4/SUM($B4,$D4,$F4)</f>
-        <v>1.8518518518518517E-2</v>
+        <v>1.8181818181818181E-2</v>
       </c>
       <c r="H4" s="19">
         <f ca="1">SUM(B4,D4,F4)</f>
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1">
@@ -1776,11 +1781,11 @@
       </c>
       <c r="B5" s="19">
         <f ca="1">SUM(B2:B4)</f>
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C5" s="18">
         <f ca="1">B5/SUM($B5,$D5,$F5)</f>
-        <v>0.96319018404907975</v>
+        <v>0.96341463414634143</v>
       </c>
       <c r="D5" s="19">
         <f ca="1">SUM(D2:D4)</f>
@@ -1788,7 +1793,7 @@
       </c>
       <c r="E5" s="18">
         <f ca="1">D5/SUM($B5,$D5,$F5)</f>
-        <v>1.2269938650306749E-2</v>
+        <v>1.2195121951219513E-2</v>
       </c>
       <c r="F5" s="19">
         <f ca="1">SUM(F2:F4)</f>
@@ -1796,11 +1801,11 @@
       </c>
       <c r="G5" s="18">
         <f ca="1">F5/SUM($B5,$D5,$F5)</f>
-        <v>2.4539877300613498E-2</v>
+        <v>2.4390243902439025E-2</v>
       </c>
       <c r="H5" s="19">
         <f ca="1">SUM(B5,D5,F5)</f>
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -1813,8 +1818,8 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="H36" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2992,9 +2997,11 @@
       <c r="H39" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="I39" s="4"/>
+      <c r="I39" s="4" t="s">
+        <v>131</v>
+      </c>
       <c r="J39" s="4" t="s">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="K39" s="4"/>
     </row>
@@ -3003,19 +3010,19 @@
         <v>20</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>26</v>
@@ -3032,13 +3039,13 @@
         <v>34</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>24</v>
@@ -3061,13 +3068,13 @@
         <v>78</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>24</v>
@@ -3090,13 +3097,13 @@
         <v>43</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>24</v>
@@ -3119,13 +3126,13 @@
         <v>78</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>24</v>
@@ -3148,13 +3155,13 @@
         <v>51</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>24</v>
@@ -3177,19 +3184,19 @@
         <v>61</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>26</v>
@@ -3206,19 +3213,19 @@
         <v>61</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>26</v>
@@ -3235,13 +3242,13 @@
         <v>61</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>24</v>
@@ -3253,16 +3260,16 @@
         <v>26</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="J48" s="4" t="s">
         <v>26</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -3270,19 +3277,19 @@
         <v>43</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>26</v>
@@ -3299,13 +3306,13 @@
         <v>78</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>24</v>
@@ -3317,16 +3324,16 @@
         <v>26</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="J50" s="4" t="s">
         <v>26</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -3334,13 +3341,13 @@
         <v>51</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>24</v>
@@ -3363,13 +3370,13 @@
         <v>20</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>24</v>
@@ -3392,13 +3399,13 @@
         <v>51</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>24</v>
@@ -3421,7 +3428,7 @@
         <v>78</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>22</v>
@@ -3446,32 +3453,32 @@
         <v>20</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>26</v>
       </c>
       <c r="H55" s="4"/>
       <c r="I55" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="J55" s="4" t="s">
         <v>26</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3479,19 +3486,19 @@
         <v>34</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G56" s="6" t="s">
         <v>26</v>
@@ -3508,19 +3515,19 @@
         <v>61</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G57" s="6" t="s">
         <v>26</v>
@@ -3537,13 +3544,13 @@
         <v>61</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>24</v>
@@ -3555,16 +3562,16 @@
         <v>26</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J58" s="4" t="s">
         <v>26</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -3625,8 +3632,8 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="H36" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3697,22 +3704,22 @@
         <v>24</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>38</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>26</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -3799,16 +3806,16 @@
         <v>26</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>26</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -3829,7 +3836,7 @@
         <v>24</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>26</v>
@@ -3889,7 +3896,7 @@
         <v>24</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>26</v>
@@ -4039,7 +4046,7 @@
         <v>24</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>26</v>
@@ -4069,7 +4076,7 @@
         <v>24</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>26</v>
@@ -4195,7 +4202,7 @@
         <v>26</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4" t="s">
@@ -4279,7 +4286,7 @@
         <v>128</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>26</v>
@@ -4309,7 +4316,7 @@
         <v>128</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>26</v>
@@ -4339,7 +4346,7 @@
         <v>24</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>26</v>
@@ -4369,7 +4376,7 @@
         <v>24</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>26</v>
@@ -4405,16 +4412,16 @@
         <v>26</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="J25" s="4" t="s">
         <v>26</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -4435,7 +4442,7 @@
         <v>24</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>26</v>
@@ -4501,16 +4508,16 @@
         <v>26</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="J28" s="4" t="s">
         <v>26</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -4621,7 +4628,7 @@
         <v>24</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>26</v>
@@ -4687,16 +4694,16 @@
         <v>26</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="J34" s="4" t="s">
         <v>26</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -4747,7 +4754,7 @@
         <v>128</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>26</v>
@@ -4807,7 +4814,7 @@
         <v>24</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>26</v>
@@ -4854,7 +4861,7 @@
         <v>20</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>22</v>
@@ -4867,13 +4874,13 @@
         <v>24</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>26</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="4" t="s">
@@ -4886,7 +4893,7 @@
         <v>34</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>22</v>
@@ -4899,22 +4906,22 @@
         <v>24</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>26</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="J41" s="4" t="s">
         <v>26</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -4922,7 +4929,7 @@
         <v>78</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>22</v>
@@ -4952,7 +4959,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>22</v>
@@ -4982,7 +4989,7 @@
         <v>78</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>22</v>
@@ -5012,7 +5019,7 @@
         <v>51</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>22</v>
@@ -5042,7 +5049,7 @@
         <v>61</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>22</v>
@@ -5055,7 +5062,7 @@
         <v>24</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>26</v>
@@ -5072,7 +5079,7 @@
         <v>61</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>64</v>
@@ -5085,7 +5092,7 @@
         <v>24</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>26</v>
@@ -5102,7 +5109,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>22</v>
@@ -5132,7 +5139,7 @@
         <v>43</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>22</v>
@@ -5162,7 +5169,7 @@
         <v>78</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>22</v>
@@ -5175,7 +5182,7 @@
         <v>128</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>26</v>
@@ -5192,7 +5199,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>22</v>
@@ -5222,7 +5229,7 @@
         <v>20</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>22</v>
@@ -5235,7 +5242,7 @@
         <v>24</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G52" s="14" t="s">
         <v>38</v>
@@ -5252,7 +5259,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>22</v>
@@ -5282,7 +5289,7 @@
         <v>78</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>22</v>
@@ -5310,7 +5317,7 @@
         <v>20</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>22</v>
@@ -5323,20 +5330,20 @@
         <v>24</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>26</v>
       </c>
       <c r="H55" s="4"/>
       <c r="I55" s="4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J55" s="4" t="s">
         <v>26</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -5344,7 +5351,7 @@
         <v>34</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>22</v>
@@ -5357,22 +5364,22 @@
         <v>24</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G56" s="6" t="s">
         <v>26</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="J56" s="4" t="s">
         <v>26</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -5380,7 +5387,7 @@
         <v>61</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>22</v>
@@ -5393,7 +5400,7 @@
         <v>24</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G57" s="6" t="s">
         <v>26</v>
@@ -5410,7 +5417,7 @@
         <v>61</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>22</v>
@@ -5429,16 +5436,16 @@
         <v>26</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="J58" s="4" t="s">
         <v>26</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -5499,8 +5506,8 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K38" sqref="K38"/>
+      <pane xSplit="3" topLeftCell="D34" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5570,22 +5577,22 @@
         <v>24</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>26</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>26</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -5612,7 +5619,7 @@
         <v>26</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4" t="s">
@@ -5638,7 +5645,7 @@
         <v>24</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>26</v>
@@ -5818,7 +5825,7 @@
         <v>24</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>26</v>
@@ -5848,7 +5855,7 @@
         <v>24</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>26</v>
@@ -5908,7 +5915,7 @@
         <v>24</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>26</v>
@@ -5938,7 +5945,7 @@
         <v>24</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>26</v>
@@ -5998,7 +6005,7 @@
         <v>24</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>26</v>
@@ -6034,16 +6041,16 @@
         <v>26</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J17" s="4" t="s">
         <v>26</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -6152,7 +6159,7 @@
         <v>128</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>26</v>
@@ -6182,7 +6189,7 @@
         <v>24</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>26</v>
@@ -6212,7 +6219,7 @@
         <v>24</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>26</v>
@@ -6242,7 +6249,7 @@
         <v>24</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>26</v>
@@ -6362,7 +6369,7 @@
         <v>24</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>26</v>
@@ -6512,7 +6519,7 @@
         <v>24</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>26</v>
@@ -6579,13 +6586,13 @@
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="4" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="J35" s="4" t="s">
         <v>26</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -6632,24 +6639,24 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B37&amp;C37, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B37&amp;C37, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Patricia Teixeira dos Santos</v>
       </c>
-      <c r="E37" s="15" t="s">
-        <v>128</v>
+      <c r="E37" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>26</v>
       </c>
       <c r="H37" s="4"/>
       <c r="I37" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J37" s="4" t="s">
         <v>26</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -6717,7 +6724,7 @@
         <v>20</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>22</v>
@@ -6730,7 +6737,7 @@
         <v>24</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>26</v>
@@ -6747,7 +6754,7 @@
         <v>34</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>22</v>
@@ -6777,7 +6784,7 @@
         <v>78</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>22</v>
@@ -6807,7 +6814,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>22</v>
@@ -6837,7 +6844,7 @@
         <v>78</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>22</v>
@@ -6867,7 +6874,7 @@
         <v>51</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>22</v>
@@ -6897,7 +6904,7 @@
         <v>61</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>22</v>
@@ -6910,7 +6917,7 @@
         <v>24</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>26</v>
@@ -6927,7 +6934,7 @@
         <v>61</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>64</v>
@@ -6946,7 +6953,7 @@
         <v>26</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I47" s="4"/>
       <c r="J47" s="4" t="s">
@@ -6959,7 +6966,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>22</v>
@@ -6972,7 +6979,7 @@
         <v>128</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>26</v>
@@ -6989,7 +6996,7 @@
         <v>43</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>22</v>
@@ -7002,7 +7009,7 @@
         <v>24</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>26</v>
@@ -7019,7 +7026,7 @@
         <v>78</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>22</v>
@@ -7049,7 +7056,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>22</v>
@@ -7079,7 +7086,7 @@
         <v>20</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>22</v>
@@ -7092,7 +7099,7 @@
         <v>24</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>26</v>
@@ -7109,7 +7116,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>22</v>
@@ -7139,7 +7146,7 @@
         <v>78</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>22</v>
@@ -7167,7 +7174,7 @@
         <v>20</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>22</v>
@@ -7180,20 +7187,20 @@
         <v>24</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>26</v>
       </c>
       <c r="H55" s="4"/>
       <c r="I55" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J55" s="4" t="s">
         <v>26</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -7201,7 +7208,7 @@
         <v>34</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>22</v>
@@ -7231,7 +7238,7 @@
         <v>61</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>22</v>
@@ -7250,16 +7257,16 @@
         <v>26</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J57" s="4" t="s">
         <v>26</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -7267,7 +7274,7 @@
         <v>61</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>22</v>

--- a/inputs/0 - Expansão/0 - Monitoramento Form 1, 2 e 3.xlsx
+++ b/inputs/0 - Expansão/0 - Monitoramento Form 1, 2 e 3.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29122"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_A8456F67A7B64C313C2A67811C7CCE917409798C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7A73EA7-3CEC-43AF-A44A-44A832C67B8B}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_A8456F674786C56506D9E2B3A45DDC74AC4C4116" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62FD60A5-4874-4B72-A042-11EE125B1EC8}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="246">
   <si>
     <t>Formulário</t>
   </si>
@@ -704,6 +704,9 @@
     <t>Deletados 156 e 204</t>
   </si>
   <si>
+    <t>24/07/2025, 20/03/2025</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Formulário duplicado (Manterv ID107)</t>
   </si>
   <si>
@@ -762,6 +765,9 @@
   </si>
   <si>
     <t>Deletado 136</t>
+  </si>
+  <si>
+    <t>21/03/2025, 24/07/2025</t>
   </si>
   <si>
     <t>Formulário Duplicado (manter ID113)</t>
@@ -1634,9 +1640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1715,11 +1719,11 @@
       </c>
       <c r="B3" s="17">
         <f ca="1">COUNTIF(INDIRECT("'Form 2 - UVR'!E2:E100"),"Enviado")</f>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="18">
         <f ca="1">B3/SUM($B3,$D3,$F3)</f>
-        <v>0.96226415094339623</v>
+        <v>0.96153846153846156</v>
       </c>
       <c r="D3" s="17">
         <f ca="1">COUNTIF(INDIRECT("'Form 2 - UVR'!E2:E100"),"Atrasado")</f>
@@ -1735,11 +1739,11 @@
       </c>
       <c r="G3" s="18">
         <f ca="1">F3/SUM($B3,$D3,$F3)</f>
-        <v>3.7735849056603772E-2</v>
+        <v>3.8461538461538464E-2</v>
       </c>
       <c r="H3" s="19">
         <f ca="1">SUM(B3,D3,F3)</f>
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
@@ -1748,11 +1752,11 @@
       </c>
       <c r="B4" s="17">
         <f ca="1">COUNTIF(INDIRECT("'Form 3 - Empreendimento'!E2:E100"),"Enviado")</f>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="18">
         <f ca="1">B4/SUM($B4,$D4,$F4)</f>
-        <v>0.96363636363636362</v>
+        <v>0.96296296296296291</v>
       </c>
       <c r="D4" s="17">
         <f ca="1">COUNTIF(INDIRECT("'Form 3 - Empreendimento'!E2:E100"),"Atrasado")</f>
@@ -1760,7 +1764,7 @@
       </c>
       <c r="E4" s="18">
         <f ca="1">D4/SUM($B4,$D4,$F4)</f>
-        <v>1.8181818181818181E-2</v>
+        <v>1.8518518518518517E-2</v>
       </c>
       <c r="F4" s="17">
         <f ca="1">COUNTIF(INDIRECT("'Form 3 - Empreendimento'!E2:E100"),"Sem Técnico")</f>
@@ -1768,11 +1772,11 @@
       </c>
       <c r="G4" s="18">
         <f ca="1">F4/SUM($B4,$D4,$F4)</f>
-        <v>1.8181818181818181E-2</v>
+        <v>1.8518518518518517E-2</v>
       </c>
       <c r="H4" s="19">
         <f ca="1">SUM(B4,D4,F4)</f>
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1">
@@ -1781,11 +1785,11 @@
       </c>
       <c r="B5" s="19">
         <f ca="1">SUM(B2:B4)</f>
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C5" s="18">
         <f ca="1">B5/SUM($B5,$D5,$F5)</f>
-        <v>0.96341463414634143</v>
+        <v>0.96296296296296291</v>
       </c>
       <c r="D5" s="19">
         <f ca="1">SUM(D2:D4)</f>
@@ -1793,7 +1797,7 @@
       </c>
       <c r="E5" s="18">
         <f ca="1">D5/SUM($B5,$D5,$F5)</f>
-        <v>1.2195121951219513E-2</v>
+        <v>1.2345679012345678E-2</v>
       </c>
       <c r="F5" s="19">
         <f ca="1">SUM(F2:F4)</f>
@@ -1801,11 +1805,11 @@
       </c>
       <c r="G5" s="18">
         <f ca="1">F5/SUM($B5,$D5,$F5)</f>
-        <v>2.4390243902439025E-2</v>
+        <v>2.4691358024691357E-2</v>
       </c>
       <c r="H5" s="19">
         <f ca="1">SUM(B5,D5,F5)</f>
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -1818,8 +1822,8 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J39" sqref="J39"/>
+      <pane xSplit="3" topLeftCell="D50" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3632,8 +3636,8 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A36" sqref="A36"/>
+      <pane xSplit="3" topLeftCell="D41" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4289,7 +4293,7 @@
         <v>194</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
@@ -4319,7 +4323,7 @@
         <v>195</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
@@ -4757,7 +4761,7 @@
         <v>207</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
@@ -5185,7 +5189,7 @@
         <v>214</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
@@ -5396,14 +5400,14 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B57&amp;C57, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B57&amp;C57, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Fernanda Naiara Voinarski</v>
       </c>
-      <c r="E57" s="5" t="s">
-        <v>24</v>
+      <c r="E57" s="15" t="s">
+        <v>128</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>26</v>
+        <v>221</v>
+      </c>
+      <c r="G57" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
@@ -5436,16 +5440,16 @@
         <v>26</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J58" s="4" t="s">
         <v>26</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -5506,8 +5510,8 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D34" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F48" sqref="F48"/>
+      <pane xSplit="3" topLeftCell="E31" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5583,16 +5587,16 @@
         <v>26</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>26</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -5619,7 +5623,7 @@
         <v>26</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4" t="s">
@@ -5825,7 +5829,7 @@
         <v>24</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>26</v>
@@ -5855,7 +5859,7 @@
         <v>24</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>26</v>
@@ -5915,7 +5919,7 @@
         <v>24</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>26</v>
@@ -5945,7 +5949,7 @@
         <v>24</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>26</v>
@@ -6041,16 +6045,16 @@
         <v>26</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J17" s="4" t="s">
         <v>26</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -6162,7 +6166,7 @@
         <v>194</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
@@ -6189,7 +6193,7 @@
         <v>24</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>26</v>
@@ -6219,7 +6223,7 @@
         <v>24</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>26</v>
@@ -6249,7 +6253,7 @@
         <v>24</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>26</v>
@@ -6586,13 +6590,13 @@
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J35" s="4" t="s">
         <v>26</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -6650,13 +6654,13 @@
       </c>
       <c r="H37" s="4"/>
       <c r="I37" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J37" s="4" t="s">
         <v>26</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -6953,7 +6957,7 @@
         <v>26</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I47" s="4"/>
       <c r="J47" s="4" t="s">
@@ -6979,10 +6983,10 @@
         <v>128</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
@@ -7194,13 +7198,13 @@
       </c>
       <c r="H55" s="4"/>
       <c r="I55" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J55" s="4" t="s">
         <v>26</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -7247,26 +7251,26 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B57&amp;C57, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B57&amp;C57, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Fernanda Naiara Voinarski</v>
       </c>
-      <c r="E57" s="5" t="s">
-        <v>24</v>
+      <c r="E57" s="15" t="s">
+        <v>128</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G57" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="G57" s="14" t="s">
         <v>26</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="J57" s="4" t="s">
         <v>26</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="58" spans="1:11">

--- a/inputs/0 - Expansão/0 - Monitoramento Form 1, 2 e 3.xlsx
+++ b/inputs/0 - Expansão/0 - Monitoramento Form 1, 2 e 3.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29128"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_A8456F674786C56506D9E2B3A45DDC74AC4C4116" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62FD60A5-4874-4B72-A042-11EE125B1EC8}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_A8456F674736C33B12D9FCFEBCDDC741BC897632" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1543FF62-3D14-41E4-B2E6-DDA9BEE9B5E2}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1727,19 +1727,19 @@
       </c>
       <c r="D3" s="17">
         <f ca="1">COUNTIF(INDIRECT("'Form 2 - UVR'!E2:E100"),"Atrasado")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="18">
         <f ca="1">D3/SUM($B3,$D3,$F3)</f>
-        <v>0</v>
+        <v>1.9230769230769232E-2</v>
       </c>
       <c r="F3" s="17">
         <f ca="1">COUNTIF(INDIRECT("'Form 2 - UVR'!E2:E100"),"Sem Técnico")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" s="18">
         <f ca="1">F3/SUM($B3,$D3,$F3)</f>
-        <v>3.8461538461538464E-2</v>
+        <v>1.9230769230769232E-2</v>
       </c>
       <c r="H3" s="19">
         <f ca="1">SUM(B3,D3,F3)</f>
@@ -1793,19 +1793,19 @@
       </c>
       <c r="D5" s="19">
         <f ca="1">SUM(D2:D4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" s="18">
         <f ca="1">D5/SUM($B5,$D5,$F5)</f>
-        <v>1.2345679012345678E-2</v>
+        <v>1.8518518518518517E-2</v>
       </c>
       <c r="F5" s="19">
         <f ca="1">SUM(F2:F4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G5" s="18">
         <f ca="1">F5/SUM($B5,$D5,$F5)</f>
-        <v>2.4691358024691357E-2</v>
+        <v>1.8518518518518517E-2</v>
       </c>
       <c r="H5" s="19">
         <f ca="1">SUM(B5,D5,F5)</f>
@@ -1822,7 +1822,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D50" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
@@ -3636,8 +3636,8 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D41" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G50" sqref="G50"/>
+      <pane xSplit="3" topLeftCell="D16" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4228,8 +4228,8 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B19&amp;C19, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B19&amp;C19, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Tássia Castelli</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>4</v>
+      <c r="E19" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="14" t="s">
@@ -4292,7 +4292,7 @@
       <c r="F21" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="14" t="s">
         <v>38</v>
       </c>
       <c r="H21" s="4"/>
@@ -4322,7 +4322,7 @@
       <c r="F22" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="14" t="s">
         <v>38</v>
       </c>
       <c r="H22" s="4"/>
@@ -4760,7 +4760,7 @@
       <c r="F36" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G36" s="14" t="s">
         <v>38</v>
       </c>
       <c r="H36" s="4"/>
@@ -5188,7 +5188,7 @@
       <c r="F50" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="G50" s="6" t="s">
+      <c r="G50" s="14" t="s">
         <v>38</v>
       </c>
       <c r="H50" s="4"/>
@@ -5510,8 +5510,8 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="E31" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G57" sqref="G57"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6165,7 +6165,7 @@
       <c r="F21" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="14" t="s">
         <v>38</v>
       </c>
       <c r="H21" s="4"/>
@@ -6985,7 +6985,7 @@
       <c r="F48" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="G48" s="6" t="s">
+      <c r="G48" s="14" t="s">
         <v>38</v>
       </c>
       <c r="H48" s="4"/>
@@ -7257,7 +7257,7 @@
       <c r="F57" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="G57" s="14" t="s">
+      <c r="G57" s="6" t="s">
         <v>26</v>
       </c>
       <c r="H57" s="4" t="s">

--- a/inputs/0 - Expansão/0 - Monitoramento Form 1, 2 e 3.xlsx
+++ b/inputs/0 - Expansão/0 - Monitoramento Form 1, 2 e 3.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29322"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29324"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_320AAF96AF5B3BB22F6D78F98C11088673A0756B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A5C2E38-F3CD-4627-B911-5DBEEE2BDC66}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_320AAF96CC2B3BD1650E60F98C87B000690477A8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{821BAB5B-D9B5-41E7-984D-43E8EF93C549}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2649,7 +2649,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3308,7 +3308,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -8100,8 +8100,8 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D9" sqref="D9"/>
+      <pane xSplit="3" topLeftCell="D7" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9917,8 +9917,8 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D9" sqref="D9"/>
+      <pane xSplit="3" topLeftCell="D55" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11791,8 +11791,8 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <pane xSplit="3" topLeftCell="D14" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/inputs/0 - Expansão/0 - Monitoramento Form 1, 2 e 3.xlsx
+++ b/inputs/0 - Expansão/0 - Monitoramento Form 1, 2 e 3.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29429"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_23E91FD72B8371C3616FF1FD24096D4DC616EB5C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2838C3D9-D4C3-46C5-95AB-4EA41348314A}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_1E1D9ECE2B7379BD050FFF876C58E267E37A59F9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{817F9EFB-2203-4CFD-B0F1-C393504A29F9}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="284">
   <si>
     <t>Formulário</t>
   </si>
@@ -459,237 +459,255 @@
     <t>Tássia Castelli</t>
   </si>
   <si>
+    <t>27/10/2025</t>
+  </si>
+  <si>
+    <t>Bianca Monteiro</t>
+  </si>
+  <si>
+    <t>Augusto Cesar Nunes</t>
+  </si>
+  <si>
+    <t>25/03/2025</t>
+  </si>
+  <si>
+    <t>Amanda Cristina Beal Acosta</t>
+  </si>
+  <si>
+    <t>18/02/2025</t>
+  </si>
+  <si>
+    <t>Marcos Alexandre Cordeiro Esmocoviski</t>
+  </si>
+  <si>
+    <t>26/03/2025</t>
+  </si>
+  <si>
+    <t>Rodrigo Lima</t>
+  </si>
+  <si>
+    <t>Savana Lemes Rodrigues</t>
+  </si>
+  <si>
+    <t>17/03/2025</t>
+  </si>
+  <si>
+    <t>Letícia Diniz</t>
+  </si>
+  <si>
+    <t>04/02/2025</t>
+  </si>
+  <si>
+    <t>Tais Muller</t>
+  </si>
+  <si>
+    <t>corrigir informações</t>
+  </si>
+  <si>
+    <t>Fernando Henrique Ferreira</t>
+  </si>
+  <si>
+    <t>Isadora Bussmann Barsotti</t>
+  </si>
+  <si>
+    <t>18/03/2025</t>
+  </si>
+  <si>
+    <t>Osair Wrublak</t>
+  </si>
+  <si>
+    <t>Gislaine Souza Rosa</t>
+  </si>
+  <si>
+    <t>excluir ID 69 feito pelo Matheus B.</t>
+  </si>
+  <si>
+    <t>Remover ID69</t>
+  </si>
+  <si>
+    <t>Deletado 69</t>
+  </si>
+  <si>
+    <t>Leticia Framesche</t>
+  </si>
+  <si>
+    <t>15/10/2025</t>
+  </si>
+  <si>
+    <t>excluir ID 60 feito pela Rayra</t>
+  </si>
+  <si>
+    <t>Remover ID60</t>
+  </si>
+  <si>
+    <t>Deletado 60</t>
+  </si>
+  <si>
+    <t>Suzana Gotardo de Meira</t>
+  </si>
+  <si>
+    <t>Vinicius Patriota dos Santos</t>
+  </si>
+  <si>
+    <t>Patricia Teixeira dos Santos</t>
+  </si>
+  <si>
+    <t>Anderson Batista Siqueira</t>
+  </si>
+  <si>
+    <t>24/03/2025</t>
+  </si>
+  <si>
+    <t>Aramis Vinicius de Paula Oliveira</t>
+  </si>
+  <si>
+    <t>Dois envios (manter ID 117)</t>
+  </si>
+  <si>
+    <t>Remover ID109</t>
+  </si>
+  <si>
+    <t>Deletado o ID109</t>
+  </si>
+  <si>
+    <t>Juliane Gonçalves</t>
+  </si>
+  <si>
+    <t>11/02/2025</t>
+  </si>
+  <si>
+    <t>Gustavo Henrique de Andrade</t>
+  </si>
+  <si>
+    <t>Ricardo Pyc</t>
+  </si>
+  <si>
+    <t>Camila Maytana Flores da Silva</t>
+  </si>
+  <si>
+    <t>Claudiana Andria</t>
+  </si>
+  <si>
+    <t>Daiana Aparecida Dias</t>
+  </si>
+  <si>
+    <t>Maysa Fernanda Back</t>
+  </si>
+  <si>
+    <t>01/04/2025</t>
+  </si>
+  <si>
+    <t>Jean Eriksen de Miranda</t>
+  </si>
+  <si>
+    <t>Formulário duplicado (Manter ID 81)</t>
+  </si>
+  <si>
+    <t>Remover ID79</t>
+  </si>
+  <si>
+    <t>Deletado 79</t>
+  </si>
+  <si>
+    <t>Ana Paula Cigolini</t>
+  </si>
+  <si>
+    <t>14/04/2025</t>
+  </si>
+  <si>
+    <t>Vilmar Ribeiro</t>
+  </si>
+  <si>
+    <t>Dois envios (manter ID 80)</t>
+  </si>
+  <si>
+    <t>Remover ID63</t>
+  </si>
+  <si>
+    <t>Deletado 63</t>
+  </si>
+  <si>
+    <t>Ana Carolina Bertolaccini</t>
+  </si>
+  <si>
+    <t>Maristela da Silva de Oliveira Melo</t>
+  </si>
+  <si>
+    <t>Yuri Luiz de Oliveira</t>
+  </si>
+  <si>
+    <t>Eliane Stefani Dantas Dias</t>
+  </si>
+  <si>
+    <t>28/03/2025</t>
+  </si>
+  <si>
+    <t>Remover ID 134</t>
+  </si>
+  <si>
+    <t>Deletado 134</t>
+  </si>
+  <si>
+    <t>Diego Batista</t>
+  </si>
+  <si>
+    <t>20/03/2025</t>
+  </si>
+  <si>
+    <t>Fernanda Naiara Voinarski</t>
+  </si>
+  <si>
+    <t>12/02/2025</t>
+  </si>
+  <si>
+    <t>Pablo Bruno Rosa Oliveira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formulário duplicado (Manter ID 86) </t>
+  </si>
+  <si>
+    <t>Remover ID65</t>
+  </si>
+  <si>
+    <t>Deletado o 65</t>
+  </si>
+  <si>
+    <t>08/04/2025</t>
+  </si>
+  <si>
+    <t>Ingresso de nova técnica</t>
+  </si>
+  <si>
+    <t>Remover ID167</t>
+  </si>
+  <si>
+    <t>Deletado 167</t>
+  </si>
+  <si>
+    <t>Remover  ID78 /  ID77 (Manter o ID87)</t>
+  </si>
+  <si>
+    <t>Remover ID78</t>
+  </si>
+  <si>
+    <t>Removido 78 e 77</t>
+  </si>
+  <si>
+    <t>06/02/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revisar listagem de equipamentos - Prensa multibox e fragmentador de papel </t>
+  </si>
+  <si>
     <t>Atrasado</t>
   </si>
   <si>
-    <t>Bianca Monteiro</t>
-  </si>
-  <si>
-    <t>Augusto Cesar Nunes</t>
-  </si>
-  <si>
-    <t>25/03/2025</t>
-  </si>
-  <si>
-    <t>Amanda Cristina Beal Acosta</t>
-  </si>
-  <si>
-    <t>18/02/2025</t>
-  </si>
-  <si>
-    <t>Marcos Alexandre Cordeiro Esmocoviski</t>
-  </si>
-  <si>
-    <t>26/03/2025</t>
-  </si>
-  <si>
-    <t>Rodrigo Lima</t>
-  </si>
-  <si>
-    <t>Savana Lemes Rodrigues</t>
-  </si>
-  <si>
-    <t>17/03/2025</t>
-  </si>
-  <si>
-    <t>Letícia Diniz</t>
-  </si>
-  <si>
-    <t>04/02/2025</t>
-  </si>
-  <si>
-    <t>Tais Muller</t>
-  </si>
-  <si>
-    <t>corrigir informações</t>
-  </si>
-  <si>
-    <t>Fernando Henrique Ferreira</t>
-  </si>
-  <si>
-    <t>Isadora Bussmann Barsotti</t>
-  </si>
-  <si>
-    <t>18/03/2025</t>
-  </si>
-  <si>
-    <t>Osair Wrublak</t>
-  </si>
-  <si>
-    <t>Gislaine Souza Rosa</t>
-  </si>
-  <si>
-    <t>excluir ID 69 feito pelo Matheus B.</t>
-  </si>
-  <si>
-    <t>Remover ID69</t>
-  </si>
-  <si>
-    <t>Deletado 69</t>
-  </si>
-  <si>
-    <t>Leticia Framesche</t>
-  </si>
-  <si>
-    <t>Suzana Gotardo de Meira</t>
-  </si>
-  <si>
-    <t>Vinicius Patriota dos Santos</t>
-  </si>
-  <si>
-    <t>Patricia Teixeira dos Santos</t>
-  </si>
-  <si>
-    <t>Anderson Batista Siqueira</t>
-  </si>
-  <si>
-    <t>24/03/2025</t>
-  </si>
-  <si>
-    <t>Aramis Vinicius de Paula Oliveira</t>
-  </si>
-  <si>
-    <t>Dois envios (manter ID 117)</t>
-  </si>
-  <si>
-    <t>Remover ID109</t>
-  </si>
-  <si>
-    <t>Deletado o ID109</t>
-  </si>
-  <si>
-    <t>Juliane Gonçalves</t>
-  </si>
-  <si>
-    <t>11/02/2025</t>
-  </si>
-  <si>
-    <t>Gustavo Henrique de Andrade</t>
-  </si>
-  <si>
-    <t>Ricardo Pyc</t>
-  </si>
-  <si>
-    <t>Camila Maytana Flores da Silva</t>
-  </si>
-  <si>
-    <t>Claudiana Andria</t>
-  </si>
-  <si>
-    <t>Daiana Aparecida Dias</t>
-  </si>
-  <si>
-    <t>Maysa Fernanda Back</t>
-  </si>
-  <si>
-    <t>01/04/2025</t>
-  </si>
-  <si>
-    <t>Jean Eriksen de Miranda</t>
-  </si>
-  <si>
-    <t>Formulário duplicado (Manter ID 81)</t>
-  </si>
-  <si>
-    <t>Remover ID79</t>
-  </si>
-  <si>
-    <t>Deletado 79</t>
-  </si>
-  <si>
-    <t>Ana Paula Cigolini</t>
-  </si>
-  <si>
-    <t>14/04/2025</t>
-  </si>
-  <si>
-    <t>Vilmar Ribeiro</t>
-  </si>
-  <si>
-    <t>Dois envios (manter ID 80)</t>
-  </si>
-  <si>
-    <t>Remover ID63</t>
-  </si>
-  <si>
-    <t>Deletado 63</t>
-  </si>
-  <si>
-    <t>Ana Carolina Bertolaccini</t>
-  </si>
-  <si>
-    <t>Maristela da Silva de Oliveira Melo</t>
-  </si>
-  <si>
-    <t>Yuri Luiz de Oliveira</t>
-  </si>
-  <si>
-    <t>Eliane Stefani Dantas Dias</t>
-  </si>
-  <si>
-    <t>28/03/2025</t>
-  </si>
-  <si>
-    <t>Remover ID 134</t>
-  </si>
-  <si>
-    <t>Deletado 134</t>
-  </si>
-  <si>
-    <t>Diego Batista</t>
-  </si>
-  <si>
-    <t>20/03/2025</t>
-  </si>
-  <si>
-    <t>Fernanda Naiara Voinarski</t>
-  </si>
-  <si>
-    <t>12/02/2025</t>
-  </si>
-  <si>
-    <t>Pablo Bruno Rosa Oliveira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formulário duplicado (Manter ID 86) </t>
-  </si>
-  <si>
-    <t>Remover ID65</t>
-  </si>
-  <si>
-    <t>Deletado o 65</t>
-  </si>
-  <si>
-    <t>08/04/2025</t>
-  </si>
-  <si>
-    <t>Ingresso de nova técnica</t>
-  </si>
-  <si>
-    <t>Remover ID167</t>
-  </si>
-  <si>
-    <t>Deletado 167</t>
-  </si>
-  <si>
-    <t>Remover  ID78 /  ID77 (Manter o ID87)</t>
-  </si>
-  <si>
-    <t>Remover ID78</t>
-  </si>
-  <si>
-    <t>Removido 78 e 77</t>
-  </si>
-  <si>
-    <t>06/02/2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Revisar listagem de equipamentos - Prensa multibox e fragmentador de papel </t>
-  </si>
-  <si>
     <t>26/03/2025, 26/03/2025</t>
   </si>
   <si>
+    <t>Formulário 2: ID 149</t>
+  </si>
+  <si>
     <t>07/02/2025, 24/02/2025, 12/03/2025</t>
   </si>
   <si>
@@ -717,16 +735,25 @@
     <t>Removido o 93</t>
   </si>
   <si>
-    <t>excluir ID 76 manter ID89</t>
-  </si>
-  <si>
-    <t>Remover ID76</t>
-  </si>
-  <si>
-    <t>Removido o 76</t>
-  </si>
-  <si>
-    <t>06/02/2025, 08/04/2025</t>
+    <t>excluir ID 76 manter ID89, excluir o ID89 feito pela Rayra</t>
+  </si>
+  <si>
+    <t>Remover ID89</t>
+  </si>
+  <si>
+    <t>Removido o 76; Deletado 89</t>
+  </si>
+  <si>
+    <t>Duplicação do mesmo conteúdo</t>
+  </si>
+  <si>
+    <t>Remover ID92</t>
+  </si>
+  <si>
+    <t>Deletado 92</t>
+  </si>
+  <si>
+    <t>20/10/2025, 21/03/2025</t>
   </si>
   <si>
     <t>Ajustar listagem de equipementos existentes</t>
@@ -747,7 +774,16 @@
     <t>03/04/2025</t>
   </si>
   <si>
-    <t>10/02/2025, 10/04/2025</t>
+    <t>10/04/2025</t>
+  </si>
+  <si>
+    <t>CNPJ cadastrado errado</t>
+  </si>
+  <si>
+    <t>Excluir ID103</t>
+  </si>
+  <si>
+    <t>Deletado 103</t>
   </si>
   <si>
     <t>Remover ID163</t>
@@ -804,7 +840,22 @@
     <t>Removido o 120</t>
   </si>
   <si>
+    <t>Formulário 3: ID 124</t>
+  </si>
+  <si>
     <t>24/02/2025</t>
+  </si>
+  <si>
+    <t>16/10/2025</t>
+  </si>
+  <si>
+    <t>excluir o ID62 feito pela Rayra</t>
+  </si>
+  <si>
+    <t>ID62</t>
+  </si>
+  <si>
+    <t>Deletado 62</t>
   </si>
   <si>
     <t>Deletar ID172</t>
@@ -1098,14 +1149,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF808080"/>
+        <fgColor rgb="FFA020F0"/>
+        <bgColor rgb="FFA020F0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA020F0"/>
-        <bgColor rgb="FFA020F0"/>
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF808080"/>
       </patternFill>
     </fill>
   </fills>
@@ -1229,7 +1280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1273,13 +1324,7 @@
     <xf numFmtId="0" fontId="9" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="24" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1302,6 +1347,15 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="23" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="28" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2672,7 +2726,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2728,10 +2784,10 @@
       <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="L1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="M1" s="27" t="s">
         <v>8</v>
       </c>
       <c r="O1" s="2" t="s">
@@ -2746,63 +2802,63 @@
       <c r="R1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AD1" s="41" t="s">
+      <c r="AD1" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="AE1" s="44"/>
-      <c r="AG1" s="41" t="s">
+      <c r="AE1" s="45"/>
+      <c r="AG1" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="AH1" s="44"/>
-      <c r="AJ1" s="41" t="s">
+      <c r="AH1" s="45"/>
+      <c r="AJ1" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="AK1" s="44"/>
+      <c r="AK1" s="45"/>
     </row>
     <row r="2" spans="1:37" ht="15.75" customHeight="1">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="27">
+      <c r="B2" s="28">
         <f ca="1">COUNTIF(AE2:AE51,"Enviado")</f>
-        <v>48</v>
-      </c>
-      <c r="C2" s="28">
+        <v>50</v>
+      </c>
+      <c r="C2" s="29">
         <f ca="1">B2/SUM($B2,$D2,$F2,$H2)</f>
-        <v>0.96</v>
-      </c>
-      <c r="D2" s="27">
+        <v>1</v>
+      </c>
+      <c r="D2" s="28">
         <f ca="1">COUNTIF(AE2:AE51,"Atrasado")</f>
-        <v>1</v>
-      </c>
-      <c r="E2" s="28">
+        <v>0</v>
+      </c>
+      <c r="E2" s="29">
         <f ca="1">D2/SUM($B2,$D2,$F2,$H2)</f>
-        <v>0.02</v>
-      </c>
-      <c r="F2" s="27">
+        <v>0</v>
+      </c>
+      <c r="F2" s="28">
         <f ca="1">COUNTIF(AE2:AE51,"Sem Técnico")</f>
-        <v>1</v>
-      </c>
-      <c r="G2" s="28">
+        <v>0</v>
+      </c>
+      <c r="G2" s="29">
         <f ca="1">F2/SUM($B2,$D2,$F2,$H2)</f>
-        <v>0.02</v>
-      </c>
-      <c r="H2" s="27">
+        <v>0</v>
+      </c>
+      <c r="H2" s="28">
         <f ca="1">COUNTIF(AE2:AE51,"Duplicado")</f>
         <v>0</v>
       </c>
-      <c r="I2" s="28">
+      <c r="I2" s="29">
         <f ca="1">H2/SUM($B2,$D2,$F2,$H2)</f>
         <v>0</v>
       </c>
-      <c r="J2" s="29">
+      <c r="J2" s="30">
         <f ca="1">SUM(B2,D2,F2,H2)</f>
         <v>50</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="L2" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="23" t="s">
+      <c r="M2" s="21" t="s">
         <v>18</v>
       </c>
       <c r="O2" s="4" t="s">
@@ -2810,85 +2866,85 @@
       </c>
       <c r="P2" s="5">
         <f ca="1">B2+H2</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q2" s="5">
         <f ca="1">D2</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" s="5">
         <f ca="1">F2</f>
-        <v>1</v>
-      </c>
-      <c r="AD2" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="31" t="str">
         <f t="array" aca="1" ref="AD2:AD52" ca="1">_xlfn.UNIQUE(INDIRECT("'Form 1 - Município'!B2:B70"))</f>
         <v>Alto Paraná</v>
       </c>
-      <c r="AE2" s="30" t="str">
+      <c r="AE2" s="31" t="str">
         <f ca="1">VLOOKUP(AD2,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG2" s="30" t="str">
+      <c r="AG2" s="31" t="str">
         <f t="array" aca="1" ref="AG2:AG52" ca="1">_xlfn.UNIQUE(INDIRECT("'Form 2 - UVR'!B2:B70"))</f>
         <v>Alto Paraná</v>
       </c>
-      <c r="AH2" s="30" t="str">
+      <c r="AH2" s="31" t="str">
         <f ca="1">VLOOKUP(AG2,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ2" s="30" t="str">
+      <c r="AJ2" s="31" t="str">
         <f t="array" aca="1" ref="AJ2:AJ52" ca="1">_xlfn.UNIQUE(INDIRECT("'Form 3 - Empreendimento'!B2:B70"))</f>
         <v>Alto Paraná</v>
       </c>
-      <c r="AK2" s="30" t="str">
+      <c r="AK2" s="31" t="str">
         <f ca="1">VLOOKUP(AJ2,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="3" spans="1:37" ht="15.75" customHeight="1">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="27">
+      <c r="B3" s="28">
         <f ca="1">COUNTIF(AH2:AH51,"Enviado")</f>
-        <v>43</v>
-      </c>
-      <c r="C3" s="28">
+        <v>44</v>
+      </c>
+      <c r="C3" s="29">
         <f ca="1">B3/SUM($B3,$D3,$F3,$H3)</f>
-        <v>0.86</v>
-      </c>
-      <c r="D3" s="27">
+        <v>0.88</v>
+      </c>
+      <c r="D3" s="28">
         <f ca="1">COUNTIF(AH2:AH51,"Atrasado")</f>
         <v>1</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3" s="29">
         <f ca="1">D3/SUM($B3,$D3,$F3,$H3)</f>
         <v>0.02</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="28">
         <f ca="1">COUNTIF(AH2:AH51,"Sem Técnico")</f>
         <v>1</v>
       </c>
-      <c r="G3" s="28">
+      <c r="G3" s="29">
         <f ca="1">F3/SUM($B3,$D3,$F3,$H3)</f>
         <v>0.02</v>
       </c>
-      <c r="H3" s="27">
+      <c r="H3" s="28">
         <f ca="1">COUNTIF(AH2:AH51,"Duplicado")</f>
-        <v>5</v>
-      </c>
-      <c r="I3" s="28">
+        <v>4</v>
+      </c>
+      <c r="I3" s="29">
         <f ca="1">H3/SUM($B3,$D3,$F3,$H3)</f>
-        <v>0.1</v>
-      </c>
-      <c r="J3" s="29">
+        <v>0.08</v>
+      </c>
+      <c r="J3" s="30">
         <f ca="1">SUM(B3,D3,F3,H3)</f>
         <v>50</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="M3" s="18" t="s">
         <v>22</v>
       </c>
       <c r="O3" s="4" t="s">
@@ -2906,75 +2962,75 @@
         <f ca="1">F3</f>
         <v>1</v>
       </c>
-      <c r="AD3" s="30" t="str">
+      <c r="AD3" s="31" t="str">
         <f ca="1"/>
         <v>Amaporã</v>
       </c>
-      <c r="AE3" s="30" t="str">
+      <c r="AE3" s="31" t="str">
         <f ca="1">VLOOKUP(AD3,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG3" s="30" t="str">
+      <c r="AG3" s="31" t="str">
         <f ca="1"/>
         <v>Amaporã</v>
       </c>
-      <c r="AH3" s="30" t="str">
+      <c r="AH3" s="31" t="str">
         <f ca="1">VLOOKUP(AG3,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ3" s="30" t="str">
+      <c r="AJ3" s="31" t="str">
         <f ca="1"/>
         <v>Amaporã</v>
       </c>
-      <c r="AK3" s="30" t="str">
+      <c r="AK3" s="31" t="str">
         <f ca="1">VLOOKUP(AJ3,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="4" spans="1:37" ht="15.75" customHeight="1">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="28">
         <f ca="1">COUNTIF(AK2:AK51,"Enviado")</f>
-        <v>45</v>
-      </c>
-      <c r="C4" s="28">
+        <v>47</v>
+      </c>
+      <c r="C4" s="29">
         <f ca="1">B4/SUM($B4,$D4,$F4,$H4)</f>
-        <v>0.9</v>
-      </c>
-      <c r="D4" s="27">
+        <v>0.94</v>
+      </c>
+      <c r="D4" s="28">
         <f ca="1">COUNTIF(AK2:AK51,"Atrasado")</f>
-        <v>1</v>
-      </c>
-      <c r="E4" s="28">
+        <v>0</v>
+      </c>
+      <c r="E4" s="29">
         <f ca="1">D4/SUM($B4,$D4,$F4,$H4)</f>
-        <v>0.02</v>
-      </c>
-      <c r="F4" s="27">
+        <v>0</v>
+      </c>
+      <c r="F4" s="28">
         <f ca="1">COUNTIF(AK2:AK51,"Sem Técnico")</f>
-        <v>1</v>
-      </c>
-      <c r="G4" s="28">
+        <v>0</v>
+      </c>
+      <c r="G4" s="29">
         <f ca="1">F4/SUM($B4,$D4,$F4,$H4)</f>
-        <v>0.02</v>
-      </c>
-      <c r="H4" s="27">
+        <v>0</v>
+      </c>
+      <c r="H4" s="28">
         <f ca="1">COUNTIF(AK2:AK51,"Duplicado")</f>
         <v>3</v>
       </c>
-      <c r="I4" s="28">
+      <c r="I4" s="29">
         <f ca="1">H4/SUM($B4,$D4,$F4,$H4)</f>
         <v>0.06</v>
       </c>
-      <c r="J4" s="29">
+      <c r="J4" s="30">
         <f ca="1">SUM(B4,D4,F4,H4)</f>
         <v>50</v>
       </c>
-      <c r="L4" s="22" t="s">
+      <c r="L4" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="22" t="s">
+      <c r="M4" s="20" t="s">
         <v>26</v>
       </c>
       <c r="O4" s="4" t="s">
@@ -2982,202 +3038,202 @@
       </c>
       <c r="P4" s="5">
         <f ca="1">B4+H4</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q4" s="5">
         <f ca="1">D4</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" s="5">
         <f ca="1">F4</f>
-        <v>1</v>
-      </c>
-      <c r="AD4" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="31" t="str">
         <f ca="1"/>
         <v>Apucarana</v>
       </c>
-      <c r="AE4" s="30" t="str">
+      <c r="AE4" s="31" t="str">
         <f ca="1">VLOOKUP(AD4,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG4" s="30" t="str">
+      <c r="AG4" s="31" t="str">
         <f ca="1"/>
         <v>Apucarana</v>
       </c>
-      <c r="AH4" s="30" t="str">
+      <c r="AH4" s="31" t="str">
         <f ca="1">VLOOKUP(AG4,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ4" s="30" t="str">
+      <c r="AJ4" s="31" t="str">
         <f ca="1"/>
         <v>Apucarana</v>
       </c>
-      <c r="AK4" s="30" t="str">
+      <c r="AK4" s="31" t="str">
         <f ca="1">VLOOKUP(AJ4,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="5" spans="1:37" ht="15.75" customHeight="1">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="30">
         <f ca="1">SUM(B2:B4)</f>
-        <v>136</v>
-      </c>
-      <c r="C5" s="28">
+        <v>141</v>
+      </c>
+      <c r="C5" s="29">
         <f ca="1">B5/SUM($B5,$D5,$F5,$H5)</f>
-        <v>0.90666666666666662</v>
-      </c>
-      <c r="D5" s="29">
+        <v>0.94</v>
+      </c>
+      <c r="D5" s="30">
         <f ca="1">SUM(D2:D4)</f>
-        <v>3</v>
-      </c>
-      <c r="E5" s="28">
+        <v>1</v>
+      </c>
+      <c r="E5" s="29">
         <f ca="1">D5/SUM($B5,$D5,$F5,$H5)</f>
-        <v>0.02</v>
-      </c>
-      <c r="F5" s="29">
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="F5" s="30">
         <f ca="1">SUM(F2:F4)</f>
-        <v>3</v>
-      </c>
-      <c r="G5" s="28">
+        <v>1</v>
+      </c>
+      <c r="G5" s="29">
         <f ca="1">F5/SUM($B5,$D5,$F5,$H5)</f>
-        <v>0.02</v>
-      </c>
-      <c r="H5" s="29">
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="H5" s="30">
         <f ca="1">SUM(H2:H4)</f>
-        <v>8</v>
-      </c>
-      <c r="I5" s="28">
+        <v>7</v>
+      </c>
+      <c r="I5" s="29">
         <f ca="1">H5/SUM($B5,$D5,$F5,$H5)</f>
-        <v>5.3333333333333337E-2</v>
-      </c>
-      <c r="J5" s="29">
+        <v>4.6666666666666669E-2</v>
+      </c>
+      <c r="J5" s="30">
         <f ca="1">SUM(J2:J4)</f>
         <v>150</v>
       </c>
-      <c r="L5" s="24" t="s">
+      <c r="L5" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="24"/>
-      <c r="AD5" s="30" t="str">
+      <c r="M5" s="22"/>
+      <c r="AD5" s="31" t="str">
         <f ca="1"/>
         <v>Atalaia</v>
       </c>
-      <c r="AE5" s="30" t="str">
+      <c r="AE5" s="31" t="str">
         <f ca="1">VLOOKUP(AD5,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG5" s="30" t="str">
+      <c r="AG5" s="31" t="str">
         <f ca="1"/>
         <v>Atalaia</v>
       </c>
-      <c r="AH5" s="30" t="str">
+      <c r="AH5" s="31" t="str">
         <f ca="1">VLOOKUP(AG5,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ5" s="30" t="str">
+      <c r="AJ5" s="31" t="str">
         <f ca="1"/>
         <v>Atalaia</v>
       </c>
-      <c r="AK5" s="30" t="str">
+      <c r="AK5" s="31" t="str">
         <f ca="1">VLOOKUP(AJ5,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="6" spans="1:37">
-      <c r="L6" s="21" t="s">
+      <c r="L6" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="21" t="s">
+      <c r="M6" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="AD6" s="30" t="str">
+      <c r="AD6" s="31" t="str">
         <f ca="1"/>
         <v>Barracão</v>
       </c>
-      <c r="AE6" s="30" t="str">
+      <c r="AE6" s="31" t="str">
         <f ca="1">VLOOKUP(AD6,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG6" s="30" t="str">
+      <c r="AG6" s="31" t="str">
         <f ca="1"/>
         <v>Barracão</v>
       </c>
-      <c r="AH6" s="30" t="str">
+      <c r="AH6" s="31" t="str">
         <f ca="1">VLOOKUP(AG6,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ6" s="30" t="str">
+      <c r="AJ6" s="31" t="str">
         <f ca="1"/>
         <v>Barracão</v>
       </c>
-      <c r="AK6" s="30" t="str">
+      <c r="AK6" s="31" t="str">
         <f ca="1">VLOOKUP(AJ6,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="7" spans="1:37">
-      <c r="L7" s="19" t="s">
+      <c r="L7" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="19" t="s">
+      <c r="M7" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="AD7" s="30" t="str">
+      <c r="AD7" s="31" t="str">
         <f ca="1"/>
         <v>Borrazópolis</v>
       </c>
-      <c r="AE7" s="30" t="str">
+      <c r="AE7" s="31" t="str">
         <f ca="1">VLOOKUP(AD7,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG7" s="30" t="str">
+      <c r="AG7" s="31" t="str">
         <f ca="1"/>
         <v>Borrazópolis</v>
       </c>
-      <c r="AH7" s="30" t="str">
+      <c r="AH7" s="31" t="str">
         <f ca="1">VLOOKUP(AG7,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ7" s="30" t="str">
+      <c r="AJ7" s="31" t="str">
         <f ca="1"/>
         <v>Borrazópolis</v>
       </c>
-      <c r="AK7" s="30" t="str">
+      <c r="AK7" s="31" t="str">
         <f ca="1">VLOOKUP(AJ7,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="8" spans="1:37">
-      <c r="L8" s="18" t="s">
+      <c r="L8" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="M8" s="18" t="s">
+      <c r="M8" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="AD8" s="30" t="str">
+      <c r="AD8" s="31" t="str">
         <f ca="1"/>
         <v>Cambará</v>
       </c>
-      <c r="AE8" s="30" t="str">
+      <c r="AE8" s="31" t="str">
         <f ca="1">VLOOKUP(AD8,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG8" s="30" t="str">
+      <c r="AG8" s="31" t="str">
         <f ca="1"/>
         <v>Cambará</v>
       </c>
-      <c r="AH8" s="30" t="str">
+      <c r="AH8" s="31" t="str">
         <f ca="1">VLOOKUP(AG8,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ8" s="30" t="str">
+      <c r="AJ8" s="31" t="str">
         <f ca="1"/>
         <v>Cambará</v>
       </c>
-      <c r="AK8" s="30" t="str">
+      <c r="AK8" s="31" t="str">
         <f ca="1">VLOOKUP(AJ8,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
@@ -3192,27 +3248,27 @@
       <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AD9" s="30" t="str">
+      <c r="AD9" s="31" t="str">
         <f ca="1"/>
         <v>Campina Da Lagoa</v>
       </c>
-      <c r="AE9" s="30" t="str">
+      <c r="AE9" s="31" t="str">
         <f ca="1">VLOOKUP(AD9,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG9" s="30" t="str">
+      <c r="AG9" s="31" t="str">
         <f ca="1"/>
         <v>Campina Da Lagoa</v>
       </c>
-      <c r="AH9" s="30" t="str">
+      <c r="AH9" s="31" t="str">
         <f ca="1">VLOOKUP(AG9,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ9" s="30" t="str">
+      <c r="AJ9" s="31" t="str">
         <f ca="1"/>
         <v>Campina Da Lagoa</v>
       </c>
-      <c r="AK9" s="30" t="str">
+      <c r="AK9" s="31" t="str">
         <f ca="1">VLOOKUP(AJ9,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
@@ -3221,35 +3277,35 @@
       <c r="A10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="27">
+      <c r="B10" s="28">
         <f ca="1">COUNTIF(INDIRECT("'Form 1 - Município'!G2:G100"),"Sim")</f>
         <v>55</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="32">
         <f ca="1">$B$10/(COUNTA(INDIRECT("'Form 1 - Município'!B2:B70")))</f>
         <v>0.96491228070175439</v>
       </c>
-      <c r="AD10" s="30" t="str">
+      <c r="AD10" s="31" t="str">
         <f ca="1"/>
         <v>Campo Largo</v>
       </c>
-      <c r="AE10" s="30" t="str">
+      <c r="AE10" s="31" t="str">
         <f ca="1">VLOOKUP(AD10,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG10" s="30" t="str">
+      <c r="AG10" s="31" t="str">
         <f ca="1"/>
         <v>Campo Largo</v>
       </c>
-      <c r="AH10" s="30" t="str">
+      <c r="AH10" s="31" t="str">
         <f ca="1">VLOOKUP(AG10,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ10" s="30" t="str">
+      <c r="AJ10" s="31" t="str">
         <f ca="1"/>
         <v>Campo Largo</v>
       </c>
-      <c r="AK10" s="30" t="str">
+      <c r="AK10" s="31" t="str">
         <f ca="1">VLOOKUP(AJ10,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
@@ -3258,35 +3314,35 @@
       <c r="A11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="28">
         <f ca="1">COUNTIF(INDIRECT("'Form 2 - UVR'!G2:G100"),"Sim")</f>
-        <v>49</v>
-      </c>
-      <c r="C11" s="31">
+        <v>50</v>
+      </c>
+      <c r="C11" s="32">
         <f ca="1">$B$11/(COUNTA(INDIRECT("'Form 2 - UVR'!B2:B70")))</f>
-        <v>0.85964912280701755</v>
-      </c>
-      <c r="AD11" s="30" t="str">
+        <v>0.8771929824561403</v>
+      </c>
+      <c r="AD11" s="31" t="str">
         <f ca="1"/>
         <v>Campo Magro</v>
       </c>
-      <c r="AE11" s="30" t="str">
+      <c r="AE11" s="31" t="str">
         <f ca="1">VLOOKUP(AD11,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG11" s="30" t="str">
+      <c r="AG11" s="31" t="str">
         <f ca="1"/>
         <v>Campo Magro</v>
       </c>
-      <c r="AH11" s="30" t="str">
+      <c r="AH11" s="31" t="str">
         <f ca="1">VLOOKUP(AG11,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ11" s="30" t="str">
+      <c r="AJ11" s="31" t="str">
         <f ca="1"/>
         <v>Campo Magro</v>
       </c>
-      <c r="AK11" s="30" t="str">
+      <c r="AK11" s="31" t="str">
         <f ca="1">VLOOKUP(AJ11,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
@@ -3295,134 +3351,134 @@
       <c r="A12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="27">
+      <c r="B12" s="28">
         <f ca="1">COUNTIF(INDIRECT("'Form 3 - Empreendimento'!G2:G100"),"Sim")</f>
         <v>52</v>
       </c>
-      <c r="C12" s="31">
+      <c r="C12" s="32">
         <f ca="1">$B$12/(COUNTA(INDIRECT("'Form 3 - Empreendimento'!B2:B70")))</f>
         <v>0.91228070175438591</v>
       </c>
-      <c r="AD12" s="30" t="str">
+      <c r="AD12" s="31" t="str">
         <f ca="1"/>
         <v>Capanema</v>
       </c>
-      <c r="AE12" s="30" t="str">
+      <c r="AE12" s="31" t="str">
         <f ca="1">VLOOKUP(AD12,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG12" s="30" t="str">
+      <c r="AG12" s="31" t="str">
         <f ca="1"/>
         <v>Capanema</v>
       </c>
-      <c r="AH12" s="30" t="str">
+      <c r="AH12" s="31" t="str">
         <f ca="1">VLOOKUP(AG12,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ12" s="30" t="str">
+      <c r="AJ12" s="31" t="str">
         <f ca="1"/>
         <v>Capanema</v>
       </c>
-      <c r="AK12" s="30" t="str">
+      <c r="AK12" s="31" t="str">
         <f ca="1">VLOOKUP(AJ12,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="13" spans="1:37">
-      <c r="AD13" s="30" t="str">
+      <c r="AD13" s="31" t="str">
         <f ca="1"/>
         <v>Cerro Azul</v>
       </c>
-      <c r="AE13" s="30" t="str">
+      <c r="AE13" s="31" t="str">
         <f ca="1">VLOOKUP(AD13,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG13" s="30" t="str">
+      <c r="AG13" s="31" t="str">
         <f ca="1"/>
         <v>Cerro Azul</v>
       </c>
-      <c r="AH13" s="30" t="str">
+      <c r="AH13" s="31" t="str">
         <f ca="1">VLOOKUP(AG13,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ13" s="30" t="str">
+      <c r="AJ13" s="31" t="str">
         <f ca="1"/>
         <v>Cerro Azul</v>
       </c>
-      <c r="AK13" s="30" t="str">
+      <c r="AK13" s="31" t="str">
         <f ca="1">VLOOKUP(AJ13,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="14" spans="1:37">
-      <c r="AD14" s="30" t="str">
+      <c r="AD14" s="31" t="str">
         <f ca="1"/>
         <v>Colorado</v>
       </c>
-      <c r="AE14" s="30" t="str">
+      <c r="AE14" s="31" t="str">
         <f ca="1">VLOOKUP(AD14,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG14" s="30" t="str">
+      <c r="AG14" s="31" t="str">
         <f ca="1"/>
         <v>Colorado</v>
       </c>
-      <c r="AH14" s="30" t="str">
+      <c r="AH14" s="31" t="str">
         <f ca="1">VLOOKUP(AG14,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ14" s="30" t="str">
+      <c r="AJ14" s="31" t="str">
         <f ca="1"/>
         <v>Colorado</v>
       </c>
-      <c r="AK14" s="30" t="str">
+      <c r="AK14" s="31" t="str">
         <f ca="1">VLOOKUP(AJ14,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="15" spans="1:37" ht="15.75" customHeight="1">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="43" t="s">
+      <c r="C15" s="45"/>
+      <c r="D15" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="44"/>
-      <c r="F15" s="43" t="s">
+      <c r="E15" s="45"/>
+      <c r="F15" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="44"/>
-      <c r="AD15" s="30" t="str">
+      <c r="G15" s="45"/>
+      <c r="AD15" s="31" t="str">
         <f ca="1"/>
         <v>Coronel Vivida</v>
       </c>
-      <c r="AE15" s="30" t="str">
+      <c r="AE15" s="31" t="str">
         <f ca="1">VLOOKUP(AD15,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
-        <v>Atrasado</v>
-      </c>
-      <c r="AG15" s="30" t="str">
+        <v>Enviado</v>
+      </c>
+      <c r="AG15" s="31" t="str">
         <f ca="1"/>
         <v>Coronel Vivida</v>
       </c>
-      <c r="AH15" s="30" t="str">
+      <c r="AH15" s="31" t="str">
         <f ca="1">VLOOKUP(AG15,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Atrasado</v>
       </c>
-      <c r="AJ15" s="30" t="str">
+      <c r="AJ15" s="31" t="str">
         <f ca="1"/>
         <v>Coronel Vivida</v>
       </c>
-      <c r="AK15" s="30" t="str">
+      <c r="AK15" s="31" t="str">
         <f ca="1">VLOOKUP(AJ15,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
     </row>
     <row r="16" spans="1:37" ht="15.75" customHeight="1">
-      <c r="A16" s="45"/>
+      <c r="A16" s="46"/>
       <c r="B16" s="7" t="s">
         <v>35</v>
       </c>
@@ -3441,398 +3497,398 @@
       <c r="G16" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="AD16" s="30" t="str">
+      <c r="AD16" s="31" t="str">
         <f ca="1"/>
         <v>Cruzeiro Do Sul</v>
       </c>
-      <c r="AE16" s="30" t="str">
+      <c r="AE16" s="31" t="str">
         <f ca="1">VLOOKUP(AD16,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG16" s="30" t="str">
+      <c r="AG16" s="31" t="str">
         <f ca="1"/>
         <v>Cruzeiro Do Sul</v>
       </c>
-      <c r="AH16" s="30" t="str">
+      <c r="AH16" s="31" t="str">
         <f ca="1">VLOOKUP(AG16,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ16" s="30" t="str">
+      <c r="AJ16" s="31" t="str">
         <f ca="1"/>
         <v>Cruzeiro Do Sul</v>
       </c>
-      <c r="AK16" s="30" t="str">
+      <c r="AK16" s="31" t="str">
         <f ca="1">VLOOKUP(AJ16,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="17" spans="1:37">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="30">
+      <c r="B17" s="31">
         <f t="array" aca="1" ref="B17" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;B$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;B$15&amp;"'!A2:A100")=$A17) * (INDIRECT("'"&amp;B$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>13</v>
       </c>
-      <c r="C17" s="31">
+      <c r="C17" s="32">
         <f ca="1">B17/(COUNTA(INDIRECT("'Form 1 - Município'!B2:B70")))</f>
         <v>0.22807017543859648</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17" s="31">
         <f t="array" aca="1" ref="D17" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;D$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;D$15&amp;"'!A2:A100")=$A17) * (INDIRECT("'"&amp;D$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>13</v>
       </c>
-      <c r="E17" s="31">
+      <c r="E17" s="32">
         <f ca="1">D17/(COUNTA(INDIRECT("'Form 2 - UVR'!B2:B70")))</f>
         <v>0.22807017543859648</v>
       </c>
-      <c r="F17" s="30">
+      <c r="F17" s="31">
         <f t="array" aca="1" ref="F17" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;F$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;F$15&amp;"'!A2:A100")=$A17) * (INDIRECT("'"&amp;F$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>11</v>
       </c>
-      <c r="G17" s="31">
+      <c r="G17" s="32">
         <f ca="1">F17/(COUNTA(INDIRECT("'Form 3 - Empreendimento'!B2:B70")))</f>
         <v>0.19298245614035087</v>
       </c>
-      <c r="AD17" s="30" t="str">
+      <c r="AD17" s="31" t="str">
         <f ca="1"/>
         <v>Enéas Marques</v>
       </c>
-      <c r="AE17" s="30" t="str">
+      <c r="AE17" s="31" t="str">
         <f ca="1">VLOOKUP(AD17,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG17" s="30" t="str">
+      <c r="AG17" s="31" t="str">
         <f ca="1"/>
         <v>Enéas Marques</v>
       </c>
-      <c r="AH17" s="30" t="str">
+      <c r="AH17" s="31" t="str">
         <f ca="1">VLOOKUP(AG17,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Duplicado</v>
       </c>
-      <c r="AJ17" s="30" t="str">
+      <c r="AJ17" s="31" t="str">
         <f ca="1"/>
         <v>Enéas Marques</v>
       </c>
-      <c r="AK17" s="30" t="str">
+      <c r="AK17" s="31" t="str">
         <f ca="1">VLOOKUP(AJ17,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Duplicado</v>
       </c>
     </row>
     <row r="18" spans="1:37">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="30">
+      <c r="B18" s="31">
         <f t="array" aca="1" ref="B18" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;B$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;B$15&amp;"'!A2:A100")=$A18) * (INDIRECT("'"&amp;B$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>9</v>
       </c>
-      <c r="C18" s="31">
+      <c r="C18" s="32">
         <f ca="1">B18/(COUNTA(INDIRECT("'Form 1 - Município'!B2:B70")))</f>
         <v>0.15789473684210525</v>
       </c>
-      <c r="D18" s="30">
+      <c r="D18" s="31">
         <f t="array" aca="1" ref="D18" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;D$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;D$15&amp;"'!A2:A100")=$A18) * (INDIRECT("'"&amp;D$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>7</v>
       </c>
-      <c r="E18" s="31">
+      <c r="E18" s="32">
         <f ca="1">D18/(COUNTA(INDIRECT("'Form 2 - UVR'!B2:B70")))</f>
         <v>0.12280701754385964</v>
       </c>
-      <c r="F18" s="30">
+      <c r="F18" s="31">
         <f t="array" aca="1" ref="F18" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;F$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;F$15&amp;"'!A2:A100")=$A18) * (INDIRECT("'"&amp;F$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>8</v>
       </c>
-      <c r="G18" s="31">
+      <c r="G18" s="32">
         <f ca="1">F18/(COUNTA(INDIRECT("'Form 3 - Empreendimento'!B2:B70")))</f>
         <v>0.14035087719298245</v>
       </c>
-      <c r="AD18" s="30" t="str">
+      <c r="AD18" s="31" t="str">
         <f ca="1"/>
         <v>Francisco Beltrão</v>
       </c>
-      <c r="AE18" s="30" t="str">
+      <c r="AE18" s="31" t="str">
         <f ca="1">VLOOKUP(AD18,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG18" s="30" t="str">
+      <c r="AG18" s="31" t="str">
         <f ca="1"/>
         <v>Francisco Beltrão</v>
       </c>
-      <c r="AH18" s="30" t="str">
+      <c r="AH18" s="31" t="str">
         <f ca="1">VLOOKUP(AG18,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Duplicado</v>
       </c>
-      <c r="AJ18" s="30" t="str">
+      <c r="AJ18" s="31" t="str">
         <f ca="1"/>
         <v>Francisco Beltrão</v>
       </c>
-      <c r="AK18" s="30" t="str">
+      <c r="AK18" s="31" t="str">
         <f ca="1">VLOOKUP(AJ18,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="19" spans="1:37">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="30">
+      <c r="B19" s="31">
         <f t="array" aca="1" ref="B19" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;B$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;B$15&amp;"'!A2:A100")=$A19) * (INDIRECT("'"&amp;B$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>3</v>
       </c>
-      <c r="C19" s="31">
+      <c r="C19" s="32">
         <f ca="1">B19/(COUNTA(INDIRECT("'Form 1 - Município'!B2:B70")))</f>
         <v>5.2631578947368418E-2</v>
       </c>
-      <c r="D19" s="30">
+      <c r="D19" s="31">
         <f t="array" aca="1" ref="D19" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;D$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;D$15&amp;"'!A2:A100")=$A19) * (INDIRECT("'"&amp;D$15&amp;"'!G2:G100")="Sim"))), 0)</f>
-        <v>2</v>
-      </c>
-      <c r="E19" s="31">
+        <v>3</v>
+      </c>
+      <c r="E19" s="32">
         <f ca="1">D19/(COUNTA(INDIRECT("'Form 2 - UVR'!B2:B70")))</f>
-        <v>3.5087719298245612E-2</v>
-      </c>
-      <c r="F19" s="30">
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="F19" s="31">
         <f t="array" aca="1" ref="F19" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;F$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;F$15&amp;"'!A2:A100")=$A19) * (INDIRECT("'"&amp;F$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>3</v>
       </c>
-      <c r="G19" s="31">
+      <c r="G19" s="32">
         <f ca="1">F19/(COUNTA(INDIRECT("'Form 3 - Empreendimento'!B2:B70")))</f>
         <v>5.2631578947368418E-2</v>
       </c>
-      <c r="AD19" s="30" t="str">
+      <c r="AD19" s="31" t="str">
         <f ca="1"/>
         <v>General Carneiro</v>
       </c>
-      <c r="AE19" s="30" t="str">
+      <c r="AE19" s="31" t="str">
         <f ca="1">VLOOKUP(AD19,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG19" s="30" t="str">
+      <c r="AG19" s="31" t="str">
         <f ca="1"/>
         <v>General Carneiro</v>
       </c>
-      <c r="AH19" s="30" t="str">
+      <c r="AH19" s="31" t="str">
         <f ca="1">VLOOKUP(AG19,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ19" s="30" t="str">
+      <c r="AJ19" s="31" t="str">
         <f ca="1"/>
         <v>General Carneiro</v>
       </c>
-      <c r="AK19" s="30" t="str">
+      <c r="AK19" s="31" t="str">
         <f ca="1">VLOOKUP(AJ19,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="20" spans="1:37">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="30">
+      <c r="B20" s="31">
         <f t="array" aca="1" ref="B20" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;B$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;B$15&amp;"'!A2:A100")=$A20) * (INDIRECT("'"&amp;B$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>6</v>
       </c>
-      <c r="C20" s="31">
+      <c r="C20" s="32">
         <f ca="1">B20/(COUNTA(INDIRECT("'Form 1 - Município'!B2:B70")))</f>
         <v>0.10526315789473684</v>
       </c>
-      <c r="D20" s="30">
+      <c r="D20" s="31">
         <f t="array" aca="1" ref="D20" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;D$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;D$15&amp;"'!A2:A100")=$A20) * (INDIRECT("'"&amp;D$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>5</v>
       </c>
-      <c r="E20" s="31">
+      <c r="E20" s="32">
         <f ca="1">D20/(COUNTA(INDIRECT("'Form 2 - UVR'!B2:B70")))</f>
         <v>8.771929824561403E-2</v>
       </c>
-      <c r="F20" s="30">
+      <c r="F20" s="31">
         <f t="array" aca="1" ref="F20" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;F$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;F$15&amp;"'!A2:A100")=$A20) * (INDIRECT("'"&amp;F$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>6</v>
       </c>
-      <c r="G20" s="31">
+      <c r="G20" s="32">
         <f ca="1">F20/(COUNTA(INDIRECT("'Form 3 - Empreendimento'!B2:B70")))</f>
         <v>0.10526315789473684</v>
       </c>
-      <c r="AD20" s="30" t="str">
+      <c r="AD20" s="31" t="str">
         <f ca="1"/>
         <v>Ibaiti</v>
       </c>
-      <c r="AE20" s="30" t="str">
+      <c r="AE20" s="31" t="str">
         <f ca="1">VLOOKUP(AD20,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG20" s="30" t="str">
+      <c r="AG20" s="31" t="str">
         <f ca="1"/>
         <v>Ibaiti</v>
       </c>
-      <c r="AH20" s="30" t="str">
+      <c r="AH20" s="31" t="str">
         <f ca="1">VLOOKUP(AG20,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ20" s="30" t="str">
+      <c r="AJ20" s="31" t="str">
         <f ca="1"/>
         <v>Ibaiti</v>
       </c>
-      <c r="AK20" s="30" t="str">
+      <c r="AK20" s="31" t="str">
         <f ca="1">VLOOKUP(AJ20,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="21" spans="1:37">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="30">
+      <c r="B21" s="31">
         <f t="array" aca="1" ref="B21" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;B$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;B$15&amp;"'!A2:A100")=$A21) * (INDIRECT("'"&amp;B$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>8</v>
       </c>
-      <c r="C21" s="31">
+      <c r="C21" s="32">
         <f ca="1">B21/(COUNTA(INDIRECT("'Form 1 - Município'!B2:B70")))</f>
         <v>0.14035087719298245</v>
       </c>
-      <c r="D21" s="30">
+      <c r="D21" s="31">
         <f t="array" aca="1" ref="D21" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;D$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;D$15&amp;"'!A2:A100")=$A21) * (INDIRECT("'"&amp;D$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>8</v>
       </c>
-      <c r="E21" s="31">
+      <c r="E21" s="32">
         <f ca="1">D21/(COUNTA(INDIRECT("'Form 2 - UVR'!B2:B70")))</f>
         <v>0.14035087719298245</v>
       </c>
-      <c r="F21" s="30">
+      <c r="F21" s="31">
         <f t="array" aca="1" ref="F21" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;F$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;F$15&amp;"'!A2:A100")=$A21) * (INDIRECT("'"&amp;F$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>8</v>
       </c>
-      <c r="G21" s="31">
+      <c r="G21" s="32">
         <f ca="1">F21/(COUNTA(INDIRECT("'Form 3 - Empreendimento'!B2:B70")))</f>
         <v>0.14035087719298245</v>
       </c>
-      <c r="AD21" s="30" t="str">
+      <c r="AD21" s="31" t="str">
         <f ca="1"/>
         <v>Jaguapitã</v>
       </c>
-      <c r="AE21" s="30" t="str">
+      <c r="AE21" s="31" t="str">
         <f ca="1">VLOOKUP(AD21,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG21" s="30" t="str">
+      <c r="AG21" s="31" t="str">
         <f ca="1"/>
         <v>Jaguapitã</v>
       </c>
-      <c r="AH21" s="30" t="str">
+      <c r="AH21" s="31" t="str">
         <f ca="1">VLOOKUP(AG21,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ21" s="30" t="str">
+      <c r="AJ21" s="31" t="str">
         <f ca="1"/>
         <v>Jaguapitã</v>
       </c>
-      <c r="AK21" s="30" t="str">
+      <c r="AK21" s="31" t="str">
         <f ca="1">VLOOKUP(AJ21,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="22" spans="1:37">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="30">
+      <c r="B22" s="31">
         <f t="array" aca="1" ref="B22" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;B$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;B$15&amp;"'!A2:A100")=$A22) * (INDIRECT("'"&amp;B$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>8</v>
       </c>
-      <c r="C22" s="31">
+      <c r="C22" s="32">
         <f ca="1">B22/(COUNTA(INDIRECT("'Form 1 - Município'!B2:B70")))</f>
         <v>0.14035087719298245</v>
       </c>
-      <c r="D22" s="30">
+      <c r="D22" s="31">
         <f t="array" aca="1" ref="D22" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;D$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;D$15&amp;"'!A2:A100")=$A22) * (INDIRECT("'"&amp;D$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>8</v>
       </c>
-      <c r="E22" s="31">
+      <c r="E22" s="32">
         <f ca="1">D22/(COUNTA(INDIRECT("'Form 2 - UVR'!B2:B70")))</f>
         <v>0.14035087719298245</v>
       </c>
-      <c r="F22" s="30">
+      <c r="F22" s="31">
         <f t="array" aca="1" ref="F22" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;F$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;F$15&amp;"'!A2:A100")=$A22) * (INDIRECT("'"&amp;F$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>8</v>
       </c>
-      <c r="G22" s="31">
+      <c r="G22" s="32">
         <f ca="1">F22/(COUNTA(INDIRECT("'Form 3 - Empreendimento'!B2:B70")))</f>
         <v>0.14035087719298245</v>
       </c>
-      <c r="AD22" s="30" t="str">
+      <c r="AD22" s="31" t="str">
         <f ca="1"/>
         <v>Jaguariaíva</v>
       </c>
-      <c r="AE22" s="30" t="str">
+      <c r="AE22" s="31" t="str">
         <f ca="1">VLOOKUP(AD22,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG22" s="30" t="str">
+      <c r="AG22" s="31" t="str">
         <f ca="1"/>
         <v>Jaguariaíva</v>
       </c>
-      <c r="AH22" s="30" t="str">
+      <c r="AH22" s="31" t="str">
         <f ca="1">VLOOKUP(AG22,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ22" s="30" t="str">
+      <c r="AJ22" s="31" t="str">
         <f ca="1"/>
         <v>Jaguariaíva</v>
       </c>
-      <c r="AK22" s="30" t="str">
+      <c r="AK22" s="31" t="str">
         <f ca="1">VLOOKUP(AJ22,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="23" spans="1:37">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="30">
+      <c r="B23" s="31">
         <f t="array" aca="1" ref="B23" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;B$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;B$15&amp;"'!A2:A100")=$A23) * (INDIRECT("'"&amp;B$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>8</v>
       </c>
-      <c r="C23" s="31">
+      <c r="C23" s="32">
         <f ca="1">B23/(COUNTA(INDIRECT("'Form 1 - Município'!B2:B70")))</f>
         <v>0.14035087719298245</v>
       </c>
-      <c r="D23" s="30">
+      <c r="D23" s="31">
         <f t="array" aca="1" ref="D23" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;D$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;D$15&amp;"'!A2:A100")=$A23) * (INDIRECT("'"&amp;D$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>6</v>
       </c>
-      <c r="E23" s="31">
+      <c r="E23" s="32">
         <f ca="1">D23/(COUNTA(INDIRECT("'Form 2 - UVR'!B2:B70")))</f>
         <v>0.10526315789473684</v>
       </c>
-      <c r="F23" s="30">
+      <c r="F23" s="31">
         <f t="array" aca="1" ref="F23" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;F$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;F$15&amp;"'!A2:A100")=$A23) * (INDIRECT("'"&amp;F$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>8</v>
       </c>
-      <c r="G23" s="31">
+      <c r="G23" s="32">
         <f ca="1">F23/(COUNTA(INDIRECT("'Form 3 - Empreendimento'!B2:B70")))</f>
         <v>0.14035087719298245</v>
       </c>
-      <c r="AD23" s="30" t="str">
+      <c r="AD23" s="31" t="str">
         <f ca="1"/>
         <v>Jardim Alegre</v>
       </c>
-      <c r="AE23" s="30" t="str">
+      <c r="AE23" s="31" t="str">
         <f ca="1">VLOOKUP(AD23,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG23" s="30" t="str">
+      <c r="AG23" s="31" t="str">
         <f ca="1"/>
         <v>Jardim Alegre</v>
       </c>
-      <c r="AH23" s="30" t="str">
+      <c r="AH23" s="31" t="str">
         <f ca="1">VLOOKUP(AG23,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ23" s="30" t="str">
+      <c r="AJ23" s="31" t="str">
         <f ca="1"/>
         <v>Jardim Alegre</v>
       </c>
-      <c r="AK23" s="30" t="str">
+      <c r="AK23" s="31" t="str">
         <f ca="1">VLOOKUP(AJ23,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
@@ -3841,753 +3897,753 @@
       <c r="A24" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="33">
+      <c r="B24" s="34">
         <f ca="1">SUM(B17:B23)</f>
         <v>55</v>
       </c>
-      <c r="C24" s="34">
+      <c r="C24" s="35">
         <f ca="1">SUM(C17:C23)</f>
         <v>0.96491228070175428</v>
       </c>
-      <c r="D24" s="33">
+      <c r="D24" s="34">
         <f ca="1">SUM(D17:D23)</f>
-        <v>49</v>
-      </c>
-      <c r="E24" s="34">
+        <v>50</v>
+      </c>
+      <c r="E24" s="35">
         <f ca="1">SUM(E17:E23)</f>
-        <v>0.85964912280701744</v>
-      </c>
-      <c r="F24" s="33">
+        <v>0.8771929824561403</v>
+      </c>
+      <c r="F24" s="34">
         <f ca="1">SUM(F17:F23)</f>
         <v>52</v>
       </c>
-      <c r="G24" s="34">
+      <c r="G24" s="35">
         <f ca="1">SUM(G17:G23)</f>
         <v>0.91228070175438591</v>
       </c>
-      <c r="AD24" s="30" t="str">
+      <c r="AD24" s="31" t="str">
         <f ca="1"/>
         <v>Kaloré</v>
       </c>
-      <c r="AE24" s="30" t="str">
+      <c r="AE24" s="31" t="str">
         <f ca="1">VLOOKUP(AD24,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG24" s="30" t="str">
+      <c r="AG24" s="31" t="str">
         <f ca="1"/>
         <v>Kaloré</v>
       </c>
-      <c r="AH24" s="30" t="str">
+      <c r="AH24" s="31" t="str">
         <f ca="1">VLOOKUP(AG24,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ24" s="30" t="str">
+      <c r="AJ24" s="31" t="str">
         <f ca="1"/>
         <v>Kaloré</v>
       </c>
-      <c r="AK24" s="30" t="str">
+      <c r="AK24" s="31" t="str">
         <f ca="1">VLOOKUP(AJ24,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="25" spans="1:37">
-      <c r="AD25" s="30" t="str">
+      <c r="AD25" s="31" t="str">
         <f ca="1"/>
         <v>Lapa</v>
       </c>
-      <c r="AE25" s="30" t="str">
+      <c r="AE25" s="31" t="str">
         <f ca="1">VLOOKUP(AD25,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG25" s="30" t="str">
+      <c r="AG25" s="31" t="str">
         <f ca="1"/>
         <v>Lapa</v>
       </c>
-      <c r="AH25" s="30" t="str">
+      <c r="AH25" s="31" t="str">
         <f ca="1">VLOOKUP(AG25,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ25" s="30" t="str">
+      <c r="AJ25" s="31" t="str">
         <f ca="1"/>
         <v>Lapa</v>
       </c>
-      <c r="AK25" s="30" t="str">
+      <c r="AK25" s="31" t="str">
         <f ca="1">VLOOKUP(AJ25,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="26" spans="1:37">
-      <c r="AD26" s="30" t="str">
+      <c r="AD26" s="31" t="str">
         <f ca="1"/>
         <v>Laranjeiras Do Sul</v>
       </c>
-      <c r="AE26" s="30" t="str">
+      <c r="AE26" s="31" t="str">
         <f ca="1">VLOOKUP(AD26,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG26" s="30" t="str">
+      <c r="AG26" s="31" t="str">
         <f ca="1"/>
         <v>Laranjeiras Do Sul</v>
       </c>
-      <c r="AH26" s="30" t="str">
+      <c r="AH26" s="31" t="str">
         <f ca="1">VLOOKUP(AG26,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ26" s="30" t="str">
+      <c r="AJ26" s="31" t="str">
         <f ca="1"/>
         <v>Laranjeiras Do Sul</v>
       </c>
-      <c r="AK26" s="30" t="str">
+      <c r="AK26" s="31" t="str">
         <f ca="1">VLOOKUP(AJ26,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="27" spans="1:37">
-      <c r="AD27" s="30" t="str">
+      <c r="AD27" s="31" t="str">
         <f ca="1"/>
         <v>Mandaguaçu</v>
       </c>
-      <c r="AE27" s="30" t="str">
+      <c r="AE27" s="31" t="str">
         <f ca="1">VLOOKUP(AD27,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG27" s="30" t="str">
+      <c r="AG27" s="31" t="str">
         <f ca="1"/>
         <v>Mandaguaçu</v>
       </c>
-      <c r="AH27" s="30" t="str">
+      <c r="AH27" s="31" t="str">
         <f ca="1">VLOOKUP(AG27,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ27" s="30" t="str">
+      <c r="AJ27" s="31" t="str">
         <f ca="1"/>
         <v>Mandaguaçu</v>
       </c>
-      <c r="AK27" s="30" t="str">
+      <c r="AK27" s="31" t="str">
         <f ca="1">VLOOKUP(AJ27,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="28" spans="1:37">
-      <c r="AD28" s="30" t="str">
+      <c r="AD28" s="31" t="str">
         <f ca="1"/>
         <v>Mandaguari</v>
       </c>
-      <c r="AE28" s="30" t="str">
+      <c r="AE28" s="31" t="str">
         <f ca="1">VLOOKUP(AD28,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG28" s="30" t="str">
+      <c r="AG28" s="31" t="str">
         <f ca="1"/>
         <v>Mandaguari</v>
       </c>
-      <c r="AH28" s="30" t="str">
+      <c r="AH28" s="31" t="str">
         <f ca="1">VLOOKUP(AG28,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ28" s="30" t="str">
+      <c r="AJ28" s="31" t="str">
         <f ca="1"/>
         <v>Mandaguari</v>
       </c>
-      <c r="AK28" s="30" t="str">
+      <c r="AK28" s="31" t="str">
         <f ca="1">VLOOKUP(AJ28,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="29" spans="1:37">
-      <c r="AD29" s="30" t="str">
+      <c r="AD29" s="31" t="str">
         <f ca="1"/>
         <v>Marmeleiro</v>
       </c>
-      <c r="AE29" s="30" t="str">
+      <c r="AE29" s="31" t="str">
         <f ca="1">VLOOKUP(AD29,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG29" s="30" t="str">
+      <c r="AG29" s="31" t="str">
         <f ca="1"/>
         <v>Marmeleiro</v>
       </c>
-      <c r="AH29" s="30" t="str">
+      <c r="AH29" s="31" t="str">
         <f ca="1">VLOOKUP(AG29,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ29" s="30" t="str">
+      <c r="AJ29" s="31" t="str">
         <f ca="1"/>
         <v>Marmeleiro</v>
       </c>
-      <c r="AK29" s="30" t="str">
+      <c r="AK29" s="31" t="str">
         <f ca="1">VLOOKUP(AJ29,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="30" spans="1:37">
-      <c r="AD30" s="30" t="str">
+      <c r="AD30" s="31" t="str">
         <f ca="1"/>
         <v>Mato Rico</v>
       </c>
-      <c r="AE30" s="30" t="str">
+      <c r="AE30" s="31" t="str">
         <f ca="1">VLOOKUP(AD30,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG30" s="30" t="str">
+      <c r="AG30" s="31" t="str">
         <f ca="1"/>
         <v>Mato Rico</v>
       </c>
-      <c r="AH30" s="30" t="str">
+      <c r="AH30" s="31" t="str">
         <f ca="1">VLOOKUP(AG30,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
-        <v>Duplicado</v>
-      </c>
-      <c r="AJ30" s="30" t="str">
+        <v>Enviado</v>
+      </c>
+      <c r="AJ30" s="31" t="str">
         <f ca="1"/>
         <v>Mato Rico</v>
       </c>
-      <c r="AK30" s="30" t="str">
+      <c r="AK30" s="31" t="str">
         <f ca="1">VLOOKUP(AJ30,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="31" spans="1:37">
-      <c r="AD31" s="30" t="str">
+      <c r="AD31" s="31" t="str">
         <f ca="1"/>
         <v>Nova Tebas</v>
       </c>
-      <c r="AE31" s="30" t="str">
+      <c r="AE31" s="31" t="str">
         <f ca="1">VLOOKUP(AD31,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG31" s="30" t="str">
+      <c r="AG31" s="31" t="str">
         <f ca="1"/>
         <v>Nova Tebas</v>
       </c>
-      <c r="AH31" s="30" t="str">
+      <c r="AH31" s="31" t="str">
         <f ca="1">VLOOKUP(AG31,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ31" s="30" t="str">
+      <c r="AJ31" s="31" t="str">
         <f ca="1"/>
         <v>Nova Tebas</v>
       </c>
-      <c r="AK31" s="30" t="str">
+      <c r="AK31" s="31" t="str">
         <f ca="1">VLOOKUP(AJ31,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="32" spans="1:37">
-      <c r="AD32" s="30" t="str">
+      <c r="AD32" s="31" t="str">
         <f ca="1"/>
         <v>Ortigueira</v>
       </c>
-      <c r="AE32" s="30" t="str">
+      <c r="AE32" s="31" t="str">
         <f ca="1">VLOOKUP(AD32,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG32" s="30" t="str">
+      <c r="AG32" s="31" t="str">
         <f ca="1"/>
         <v>Ortigueira</v>
       </c>
-      <c r="AH32" s="30" t="str">
+      <c r="AH32" s="31" t="str">
         <f ca="1">VLOOKUP(AG32,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ32" s="30" t="str">
+      <c r="AJ32" s="31" t="str">
         <f ca="1"/>
         <v>Ortigueira</v>
       </c>
-      <c r="AK32" s="30" t="str">
+      <c r="AK32" s="31" t="str">
         <f ca="1">VLOOKUP(AJ32,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="33" spans="30:37">
-      <c r="AD33" s="30" t="str">
+      <c r="AD33" s="31" t="str">
         <f ca="1"/>
         <v>Palmital</v>
       </c>
-      <c r="AE33" s="30" t="str">
+      <c r="AE33" s="31" t="str">
         <f ca="1">VLOOKUP(AD33,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG33" s="30" t="str">
+      <c r="AG33" s="31" t="str">
         <f ca="1"/>
         <v>Palmital</v>
       </c>
-      <c r="AH33" s="30" t="str">
+      <c r="AH33" s="31" t="str">
         <f ca="1">VLOOKUP(AG33,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
-        <v>Enviado</v>
-      </c>
-      <c r="AJ33" s="30" t="str">
+        <v>Duplicado</v>
+      </c>
+      <c r="AJ33" s="31" t="str">
         <f ca="1"/>
         <v>Palmital</v>
       </c>
-      <c r="AK33" s="30" t="str">
+      <c r="AK33" s="31" t="str">
         <f ca="1">VLOOKUP(AJ33,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="34" spans="30:37">
-      <c r="AD34" s="30" t="str">
+      <c r="AD34" s="31" t="str">
         <f ca="1"/>
         <v>Paraíso Do Norte</v>
       </c>
-      <c r="AE34" s="30" t="str">
+      <c r="AE34" s="31" t="str">
         <f ca="1">VLOOKUP(AD34,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG34" s="30" t="str">
+      <c r="AG34" s="31" t="str">
         <f ca="1"/>
         <v>Paraíso Do Norte</v>
       </c>
-      <c r="AH34" s="30" t="str">
+      <c r="AH34" s="31" t="str">
         <f ca="1">VLOOKUP(AG34,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ34" s="30" t="str">
+      <c r="AJ34" s="31" t="str">
         <f ca="1"/>
         <v>Paraíso Do Norte</v>
       </c>
-      <c r="AK34" s="30" t="str">
+      <c r="AK34" s="31" t="str">
         <f ca="1">VLOOKUP(AJ34,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="35" spans="30:37">
-      <c r="AD35" s="30" t="str">
+      <c r="AD35" s="31" t="str">
         <f ca="1"/>
         <v>Presidente Castelo Branco</v>
       </c>
-      <c r="AE35" s="30" t="str">
+      <c r="AE35" s="31" t="str">
         <f ca="1">VLOOKUP(AD35,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG35" s="30" t="str">
+      <c r="AG35" s="31" t="str">
         <f ca="1"/>
         <v>Presidente Castelo Branco</v>
       </c>
-      <c r="AH35" s="30" t="str">
+      <c r="AH35" s="31" t="str">
         <f ca="1">VLOOKUP(AG35,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ35" s="30" t="str">
+      <c r="AJ35" s="31" t="str">
         <f ca="1"/>
         <v>Presidente Castelo Branco</v>
       </c>
-      <c r="AK35" s="30" t="str">
+      <c r="AK35" s="31" t="str">
         <f ca="1">VLOOKUP(AJ35,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="36" spans="30:37">
-      <c r="AD36" s="30" t="str">
+      <c r="AD36" s="31" t="str">
         <f ca="1"/>
         <v>Quedas Do Iguaçu</v>
       </c>
-      <c r="AE36" s="30" t="str">
+      <c r="AE36" s="31" t="str">
         <f ca="1">VLOOKUP(AD36,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG36" s="30" t="str">
+      <c r="AG36" s="31" t="str">
         <f ca="1"/>
         <v>Quedas Do Iguaçu</v>
       </c>
-      <c r="AH36" s="30" t="str">
+      <c r="AH36" s="31" t="str">
         <f ca="1">VLOOKUP(AG36,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ36" s="30" t="str">
+      <c r="AJ36" s="31" t="str">
         <f ca="1"/>
         <v>Quedas Do Iguaçu</v>
       </c>
-      <c r="AK36" s="30" t="str">
+      <c r="AK36" s="31" t="str">
         <f ca="1">VLOOKUP(AJ36,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="37" spans="30:37">
-      <c r="AD37" s="30" t="str">
+      <c r="AD37" s="31" t="str">
         <f ca="1"/>
         <v>Realeza</v>
       </c>
-      <c r="AE37" s="30" t="str">
+      <c r="AE37" s="31" t="str">
         <f ca="1">VLOOKUP(AD37,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG37" s="30" t="str">
+      <c r="AG37" s="31" t="str">
         <f ca="1"/>
         <v>Realeza</v>
       </c>
-      <c r="AH37" s="30" t="str">
+      <c r="AH37" s="31" t="str">
         <f ca="1">VLOOKUP(AG37,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ37" s="30" t="str">
+      <c r="AJ37" s="31" t="str">
         <f ca="1"/>
         <v>Realeza</v>
       </c>
-      <c r="AK37" s="30" t="str">
+      <c r="AK37" s="31" t="str">
         <f ca="1">VLOOKUP(AJ37,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="38" spans="30:37">
-      <c r="AD38" s="30" t="str">
+      <c r="AD38" s="31" t="str">
         <f ca="1"/>
         <v>Reserva Do Iguaçu</v>
       </c>
-      <c r="AE38" s="30" t="str">
+      <c r="AE38" s="31" t="str">
         <f ca="1">VLOOKUP(AD38,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG38" s="30" t="str">
+      <c r="AG38" s="31" t="str">
         <f ca="1"/>
         <v>Reserva Do Iguaçu</v>
       </c>
-      <c r="AH38" s="30" t="str">
+      <c r="AH38" s="31" t="str">
         <f ca="1">VLOOKUP(AG38,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ38" s="30" t="str">
+      <c r="AJ38" s="31" t="str">
         <f ca="1"/>
         <v>Reserva Do Iguaçu</v>
       </c>
-      <c r="AK38" s="30" t="str">
+      <c r="AK38" s="31" t="str">
         <f ca="1">VLOOKUP(AJ38,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="39" spans="30:37">
-      <c r="AD39" s="30" t="str">
+      <c r="AD39" s="31" t="str">
         <f ca="1"/>
         <v>Ribeirão Claro</v>
       </c>
-      <c r="AE39" s="30" t="str">
+      <c r="AE39" s="31" t="str">
         <f ca="1">VLOOKUP(AD39,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG39" s="30" t="str">
+      <c r="AG39" s="31" t="str">
         <f ca="1"/>
         <v>Ribeirão Claro</v>
       </c>
-      <c r="AH39" s="30" t="str">
+      <c r="AH39" s="31" t="str">
         <f ca="1">VLOOKUP(AG39,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ39" s="30" t="str">
+      <c r="AJ39" s="31" t="str">
         <f ca="1"/>
         <v>Ribeirão Claro</v>
       </c>
-      <c r="AK39" s="30" t="str">
+      <c r="AK39" s="31" t="str">
         <f ca="1">VLOOKUP(AJ39,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="40" spans="30:37">
-      <c r="AD40" s="30" t="str">
+      <c r="AD40" s="31" t="str">
         <f ca="1"/>
         <v>Rio Branco Do Sul</v>
       </c>
-      <c r="AE40" s="30" t="str">
+      <c r="AE40" s="31" t="str">
         <f ca="1">VLOOKUP(AD40,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG40" s="30" t="str">
+      <c r="AG40" s="31" t="str">
         <f ca="1"/>
         <v>Rio Branco Do Sul</v>
       </c>
-      <c r="AH40" s="30" t="str">
+      <c r="AH40" s="31" t="str">
         <f ca="1">VLOOKUP(AG40,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ40" s="30" t="str">
+      <c r="AJ40" s="31" t="str">
         <f ca="1"/>
         <v>Rio Branco Do Sul</v>
       </c>
-      <c r="AK40" s="30" t="str">
+      <c r="AK40" s="31" t="str">
         <f ca="1">VLOOKUP(AJ40,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="41" spans="30:37">
-      <c r="AD41" s="30" t="str">
+      <c r="AD41" s="31" t="str">
         <f ca="1"/>
         <v>Rio Negro</v>
       </c>
-      <c r="AE41" s="30" t="str">
+      <c r="AE41" s="31" t="str">
         <f ca="1">VLOOKUP(AD41,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG41" s="30" t="str">
+      <c r="AG41" s="31" t="str">
         <f ca="1"/>
         <v>Rio Negro</v>
       </c>
-      <c r="AH41" s="30" t="str">
+      <c r="AH41" s="31" t="str">
         <f ca="1">VLOOKUP(AG41,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ41" s="30" t="str">
+      <c r="AJ41" s="31" t="str">
         <f ca="1"/>
         <v>Rio Negro</v>
       </c>
-      <c r="AK41" s="30" t="str">
+      <c r="AK41" s="31" t="str">
         <f ca="1">VLOOKUP(AJ41,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Duplicado</v>
       </c>
     </row>
     <row r="42" spans="30:37">
-      <c r="AD42" s="30" t="str">
+      <c r="AD42" s="31" t="str">
         <f ca="1"/>
         <v>Salgado Filho</v>
       </c>
-      <c r="AE42" s="30" t="str">
+      <c r="AE42" s="31" t="str">
         <f ca="1">VLOOKUP(AD42,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG42" s="30" t="str">
+      <c r="AG42" s="31" t="str">
         <f ca="1"/>
         <v>Salgado Filho</v>
       </c>
-      <c r="AH42" s="30" t="str">
+      <c r="AH42" s="31" t="str">
         <f ca="1">VLOOKUP(AG42,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ42" s="30" t="str">
+      <c r="AJ42" s="31" t="str">
         <f ca="1"/>
         <v>Salgado Filho</v>
       </c>
-      <c r="AK42" s="30" t="str">
+      <c r="AK42" s="31" t="str">
         <f ca="1">VLOOKUP(AJ42,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="43" spans="30:37">
-      <c r="AD43" s="30" t="str">
+      <c r="AD43" s="31" t="str">
         <f ca="1"/>
         <v>Santa Maria Do Oeste</v>
       </c>
-      <c r="AE43" s="30" t="str">
+      <c r="AE43" s="31" t="str">
         <f ca="1">VLOOKUP(AD43,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG43" s="30" t="str">
+      <c r="AG43" s="31" t="str">
         <f ca="1"/>
         <v>Santa Maria Do Oeste</v>
       </c>
-      <c r="AH43" s="30" t="str">
+      <c r="AH43" s="31" t="str">
         <f ca="1">VLOOKUP(AG43,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
-        <v>Duplicado</v>
-      </c>
-      <c r="AJ43" s="30" t="str">
+        <v>Enviado</v>
+      </c>
+      <c r="AJ43" s="31" t="str">
         <f ca="1"/>
         <v>Santa Maria Do Oeste</v>
       </c>
-      <c r="AK43" s="30" t="str">
+      <c r="AK43" s="31" t="str">
         <f ca="1">VLOOKUP(AJ43,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="44" spans="30:37">
-      <c r="AD44" s="30" t="str">
+      <c r="AD44" s="31" t="str">
         <f ca="1"/>
         <v>Santa Mariana</v>
       </c>
-      <c r="AE44" s="30" t="str">
+      <c r="AE44" s="31" t="str">
         <f ca="1">VLOOKUP(AD44,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG44" s="30" t="str">
+      <c r="AG44" s="31" t="str">
         <f ca="1"/>
         <v>Santa Mariana</v>
       </c>
-      <c r="AH44" s="30" t="str">
+      <c r="AH44" s="31" t="str">
         <f ca="1">VLOOKUP(AG44,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ44" s="30" t="str">
+      <c r="AJ44" s="31" t="str">
         <f ca="1"/>
         <v>Santa Mariana</v>
       </c>
-      <c r="AK44" s="30" t="str">
+      <c r="AK44" s="31" t="str">
         <f ca="1">VLOOKUP(AJ44,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="45" spans="30:37">
-      <c r="AD45" s="30" t="str">
+      <c r="AD45" s="31" t="str">
         <f ca="1"/>
         <v>Santa Mônica</v>
       </c>
-      <c r="AE45" s="30" t="str">
+      <c r="AE45" s="31" t="str">
         <f ca="1">VLOOKUP(AD45,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG45" s="30" t="str">
+      <c r="AG45" s="31" t="str">
         <f ca="1"/>
         <v>Santa Mônica</v>
       </c>
-      <c r="AH45" s="30" t="str">
+      <c r="AH45" s="31" t="str">
         <f ca="1">VLOOKUP(AG45,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ45" s="30" t="str">
+      <c r="AJ45" s="31" t="str">
         <f ca="1"/>
         <v>Santa Mônica</v>
       </c>
-      <c r="AK45" s="30" t="str">
+      <c r="AK45" s="31" t="str">
         <f ca="1">VLOOKUP(AJ45,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="46" spans="30:37">
-      <c r="AD46" s="30" t="str">
+      <c r="AD46" s="31" t="str">
         <f ca="1"/>
         <v>Santana Do Itararé</v>
       </c>
-      <c r="AE46" s="30" t="str">
+      <c r="AE46" s="31" t="str">
         <f ca="1">VLOOKUP(AD46,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG46" s="30" t="str">
+      <c r="AG46" s="31" t="str">
         <f ca="1"/>
         <v>Santana Do Itararé</v>
       </c>
-      <c r="AH46" s="30" t="str">
+      <c r="AH46" s="31" t="str">
         <f ca="1">VLOOKUP(AG46,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ46" s="30" t="str">
+      <c r="AJ46" s="31" t="str">
         <f ca="1"/>
         <v>Santana Do Itararé</v>
       </c>
-      <c r="AK46" s="30" t="str">
+      <c r="AK46" s="31" t="str">
         <f ca="1">VLOOKUP(AJ46,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="47" spans="30:37">
-      <c r="AD47" s="30" t="str">
+      <c r="AD47" s="31" t="str">
         <f ca="1"/>
         <v>São João</v>
       </c>
-      <c r="AE47" s="30" t="str">
+      <c r="AE47" s="31" t="str">
         <f ca="1">VLOOKUP(AD47,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
-        <v>Sem Técnico</v>
-      </c>
-      <c r="AG47" s="30" t="str">
+        <v>Enviado</v>
+      </c>
+      <c r="AG47" s="31" t="str">
         <f ca="1"/>
         <v>São João</v>
       </c>
-      <c r="AH47" s="30" t="str">
+      <c r="AH47" s="31" t="str">
         <f ca="1">VLOOKUP(AG47,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Sem Técnico</v>
       </c>
-      <c r="AJ47" s="30" t="str">
+      <c r="AJ47" s="31" t="str">
         <f ca="1"/>
         <v>São João</v>
       </c>
-      <c r="AK47" s="30" t="str">
+      <c r="AK47" s="31" t="str">
         <f ca="1">VLOOKUP(AJ47,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
-        <v>Sem Técnico</v>
+        <v>Enviado</v>
       </c>
     </row>
     <row r="48" spans="30:37">
-      <c r="AD48" s="30" t="str">
+      <c r="AD48" s="31" t="str">
         <f ca="1"/>
         <v>São João Do Caiuá</v>
       </c>
-      <c r="AE48" s="30" t="str">
+      <c r="AE48" s="31" t="str">
         <f ca="1">VLOOKUP(AD48,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG48" s="30" t="str">
+      <c r="AG48" s="31" t="str">
         <f ca="1"/>
         <v>São João Do Caiuá</v>
       </c>
-      <c r="AH48" s="30" t="str">
+      <c r="AH48" s="31" t="str">
         <f ca="1">VLOOKUP(AG48,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ48" s="30" t="str">
+      <c r="AJ48" s="31" t="str">
         <f ca="1"/>
         <v>São João Do Caiuá</v>
       </c>
-      <c r="AK48" s="30" t="str">
+      <c r="AK48" s="31" t="str">
         <f ca="1">VLOOKUP(AJ48,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="49" spans="30:37">
-      <c r="AD49" s="30" t="str">
+      <c r="AD49" s="31" t="str">
         <f ca="1"/>
         <v>São João Do Ivaí</v>
       </c>
-      <c r="AE49" s="30" t="str">
+      <c r="AE49" s="31" t="str">
         <f ca="1">VLOOKUP(AD49,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG49" s="30" t="str">
+      <c r="AG49" s="31" t="str">
         <f ca="1"/>
         <v>São João Do Ivaí</v>
       </c>
-      <c r="AH49" s="30" t="str">
+      <c r="AH49" s="31" t="str">
         <f ca="1">VLOOKUP(AG49,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ49" s="30" t="str">
+      <c r="AJ49" s="31" t="str">
         <f ca="1"/>
         <v>São João Do Ivaí</v>
       </c>
-      <c r="AK49" s="30" t="str">
+      <c r="AK49" s="31" t="str">
         <f ca="1">VLOOKUP(AJ49,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="50" spans="30:37">
-      <c r="AD50" s="30" t="str">
+      <c r="AD50" s="31" t="str">
         <f ca="1"/>
         <v>São João Do Triunfo</v>
       </c>
-      <c r="AE50" s="30" t="str">
+      <c r="AE50" s="31" t="str">
         <f ca="1">VLOOKUP(AD50,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG50" s="30" t="str">
+      <c r="AG50" s="31" t="str">
         <f ca="1"/>
         <v>São João Do Triunfo</v>
       </c>
-      <c r="AH50" s="30" t="str">
+      <c r="AH50" s="31" t="str">
         <f ca="1">VLOOKUP(AG50,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Duplicado</v>
       </c>
-      <c r="AJ50" s="30" t="str">
+      <c r="AJ50" s="31" t="str">
         <f ca="1"/>
         <v>São João Do Triunfo</v>
       </c>
-      <c r="AK50" s="30" t="str">
+      <c r="AK50" s="31" t="str">
         <f ca="1">VLOOKUP(AJ50,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Duplicado</v>
       </c>
     </row>
     <row r="51" spans="30:37">
-      <c r="AD51" s="30" t="str">
+      <c r="AD51" s="31" t="str">
         <f ca="1"/>
         <v>Tijucas Do Sul</v>
       </c>
-      <c r="AE51" s="30" t="str">
+      <c r="AE51" s="31" t="str">
         <f ca="1">VLOOKUP(AD51,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG51" s="30" t="str">
+      <c r="AG51" s="31" t="str">
         <f ca="1"/>
         <v>Tijucas Do Sul</v>
       </c>
-      <c r="AH51" s="30" t="str">
+      <c r="AH51" s="31" t="str">
         <f ca="1">VLOOKUP(AG51,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ51" s="30" t="str">
+      <c r="AJ51" s="31" t="str">
         <f ca="1"/>
         <v>Tijucas Do Sul</v>
       </c>
-      <c r="AK51" s="30" t="str">
+      <c r="AK51" s="31" t="str">
         <f ca="1">VLOOKUP(AJ51,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
@@ -4624,7 +4680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A14" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4637,7 +4693,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="9" t="s">
@@ -4657,10 +4713,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>41</v>
       </c>
       <c r="C2" s="12" t="s">
@@ -4734,10 +4790,10 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="31" t="s">
         <v>41</v>
       </c>
       <c r="C3" s="12" t="s">
@@ -4811,10 +4867,10 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="31" t="s">
         <v>41</v>
       </c>
       <c r="C4" s="12" t="s">
@@ -4888,10 +4944,10 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="31" t="s">
         <v>41</v>
       </c>
       <c r="C5" s="12" t="s">
@@ -4965,10 +5021,10 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="31" t="s">
         <v>41</v>
       </c>
       <c r="C6" s="12" t="s">
@@ -5042,10 +5098,10 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="31" t="s">
         <v>47</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -5119,10 +5175,10 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="31" t="s">
         <v>48</v>
       </c>
       <c r="C8" s="12" t="s">
@@ -5196,10 +5252,10 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="31" t="s">
         <v>49</v>
       </c>
       <c r="C9" s="12" t="s">
@@ -5273,10 +5329,10 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="31" t="s">
         <v>50</v>
       </c>
       <c r="C10" s="12" t="s">
@@ -5350,10 +5406,10 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="31" t="s">
         <v>50</v>
       </c>
       <c r="C11" s="12" t="s">
@@ -5427,10 +5483,10 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="31" t="s">
         <v>51</v>
       </c>
       <c r="C12" s="12" t="s">
@@ -5504,10 +5560,10 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="31" t="s">
         <v>52</v>
       </c>
       <c r="C13" s="12" t="s">
@@ -5581,10 +5637,10 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="31" t="s">
         <v>53</v>
       </c>
       <c r="C14" s="12" t="s">
@@ -5658,7 +5714,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="37" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="9" t="s">
@@ -5678,10 +5734,10 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="31" t="s">
         <v>54</v>
       </c>
       <c r="C17" s="12" t="s">
@@ -5755,10 +5811,10 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="31" t="s">
         <v>55</v>
       </c>
       <c r="C18" s="12" t="s">
@@ -5832,10 +5888,10 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="31" t="s">
         <v>56</v>
       </c>
       <c r="C19" s="12" t="s">
@@ -5909,10 +5965,10 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="31" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="12" t="s">
@@ -5986,10 +6042,10 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="31" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="12" t="s">
@@ -6063,10 +6119,10 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="31" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="12" t="s">
@@ -6140,10 +6196,10 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="31" t="s">
         <v>57</v>
       </c>
       <c r="C23" s="12" t="s">
@@ -6217,10 +6273,10 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="31" t="s">
         <v>58</v>
       </c>
       <c r="C24" s="12" t="s">
@@ -6294,10 +6350,10 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="31" t="s">
         <v>59</v>
       </c>
       <c r="C25" s="12" t="s">
@@ -6371,7 +6427,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="38" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="9" t="s">
@@ -6391,10 +6447,10 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="31" t="s">
         <v>60</v>
       </c>
       <c r="C28" s="12" t="s">
@@ -6468,10 +6524,10 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="31" t="s">
         <v>61</v>
       </c>
       <c r="C29" s="12" t="s">
@@ -6519,7 +6575,7 @@
         FALSE
     )
 )</f>
-        <v>Duplicado</v>
+        <v>Enviado</v>
       </c>
       <c r="F29" s="10" t="str">
         <f t="array" aca="1" ref="F29" ca="1">IF(
@@ -6545,10 +6601,10 @@
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="31" t="s">
         <v>62</v>
       </c>
       <c r="C30" s="12" t="s">
@@ -6622,7 +6678,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A32" s="38"/>
+      <c r="A32" s="39"/>
       <c r="B32" s="9" t="s">
         <v>39</v>
       </c>
@@ -6640,10 +6696,10 @@
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="31" t="s">
         <v>63</v>
       </c>
       <c r="C33" s="12" t="s">
@@ -6669,7 +6725,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="E33" s="10" t="str">
         <f t="array" aca="1" ref="E33" ca="1">IF(
@@ -6713,14 +6769,14 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="31" t="s">
         <v>64</v>
       </c>
       <c r="C34" s="12" t="s">
@@ -6794,10 +6850,10 @@
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="24" t="s">
+      <c r="A35" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="31" t="s">
         <v>65</v>
       </c>
       <c r="C35" s="12" t="s">
@@ -6871,10 +6927,10 @@
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="24" t="s">
+      <c r="A36" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="31" t="s">
         <v>66</v>
       </c>
       <c r="C36" s="12" t="s">
@@ -6922,7 +6978,7 @@
         FALSE
     )
 )</f>
-        <v>Enviado</v>
+        <v>Duplicado</v>
       </c>
       <c r="F36" s="10" t="str">
         <f t="array" aca="1" ref="F36" ca="1">IF(
@@ -6948,10 +7004,10 @@
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="24" t="s">
+      <c r="A37" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="31" t="s">
         <v>67</v>
       </c>
       <c r="C37" s="12" t="s">
@@ -7025,10 +7081,10 @@
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="31" t="s">
         <v>68</v>
       </c>
       <c r="C38" s="12" t="s">
@@ -7102,10 +7158,10 @@
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="24" t="s">
+      <c r="A39" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="31" t="s">
         <v>69</v>
       </c>
       <c r="C39" s="12" t="s">
@@ -7153,7 +7209,7 @@
         FALSE
     )
 )</f>
-        <v>Duplicado</v>
+        <v>Enviado</v>
       </c>
       <c r="F39" s="10" t="str">
         <f t="array" aca="1" ref="F39" ca="1">IF(
@@ -7179,10 +7235,10 @@
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="24" t="s">
+      <c r="A40" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="31" t="s">
         <v>70</v>
       </c>
       <c r="C40" s="12" t="s">
@@ -7208,7 +7264,7 @@
         FALSE
     )
 )</f>
-        <v>Sem Técnico</v>
+        <v>Enviado</v>
       </c>
       <c r="E40" s="10" t="str">
         <f t="array" aca="1" ref="E40" ca="1">IF(
@@ -7252,11 +7308,11 @@
         FALSE
     )
 )</f>
-        <v>Sem Técnico</v>
+        <v>Enviado</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A42" s="39" t="s">
+      <c r="A42" s="40" t="s">
         <v>30</v>
       </c>
       <c r="B42" s="9" t="s">
@@ -7276,10 +7332,10 @@
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="21" t="s">
+      <c r="A43" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="31" t="s">
         <v>71</v>
       </c>
       <c r="C43" s="12" t="s">
@@ -7353,10 +7409,10 @@
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="31" t="s">
         <v>72</v>
       </c>
       <c r="C44" s="12" t="s">
@@ -7430,10 +7486,10 @@
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="21" t="s">
+      <c r="A45" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="30" t="s">
+      <c r="B45" s="31" t="s">
         <v>73</v>
       </c>
       <c r="C45" s="12" t="s">
@@ -7507,10 +7563,10 @@
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="21" t="s">
+      <c r="A46" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B46" s="30" t="s">
+      <c r="B46" s="31" t="s">
         <v>74</v>
       </c>
       <c r="C46" s="12" t="s">
@@ -7584,10 +7640,10 @@
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="21" t="s">
+      <c r="A47" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B47" s="30" t="s">
+      <c r="B47" s="31" t="s">
         <v>75</v>
       </c>
       <c r="C47" s="12" t="s">
@@ -7661,10 +7717,10 @@
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="21" t="s">
+      <c r="A48" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B48" s="30" t="s">
+      <c r="B48" s="31" t="s">
         <v>76</v>
       </c>
       <c r="C48" s="12" t="s">
@@ -7738,10 +7794,10 @@
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="21" t="s">
+      <c r="A49" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B49" s="30" t="s">
+      <c r="B49" s="31" t="s">
         <v>77</v>
       </c>
       <c r="C49" s="12" t="s">
@@ -7815,10 +7871,10 @@
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="21" t="s">
+      <c r="A50" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B50" s="30" t="s">
+      <c r="B50" s="31" t="s">
         <v>78</v>
       </c>
       <c r="C50" s="12" t="s">
@@ -7892,7 +7948,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A52" s="40" t="s">
+      <c r="A52" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B52" s="9" t="s">
@@ -7912,7 +7968,7 @@
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="19" t="s">
+      <c r="A53" s="17" t="s">
         <v>31</v>
       </c>
       <c r="B53" s="12" t="s">
@@ -7989,7 +8045,7 @@
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="19" t="s">
+      <c r="A54" s="17" t="s">
         <v>31</v>
       </c>
       <c r="B54" s="12" t="s">
@@ -8066,7 +8122,7 @@
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="19" t="s">
+      <c r="A55" s="17" t="s">
         <v>31</v>
       </c>
       <c r="B55" s="12" t="s">
@@ -8143,7 +8199,7 @@
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="19" t="s">
+      <c r="A56" s="17" t="s">
         <v>31</v>
       </c>
       <c r="B56" s="12" t="s">
@@ -8220,7 +8276,7 @@
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="19" t="s">
+      <c r="A57" s="17" t="s">
         <v>31</v>
       </c>
       <c r="B57" s="12" t="s">
@@ -8297,7 +8353,7 @@
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="19" t="s">
+      <c r="A58" s="17" t="s">
         <v>31</v>
       </c>
       <c r="B58" s="12" t="s">
@@ -8374,7 +8430,7 @@
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="19" t="s">
+      <c r="A59" s="17" t="s">
         <v>31</v>
       </c>
       <c r="B59" s="12" t="s">
@@ -8451,7 +8507,7 @@
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="19" t="s">
+      <c r="A60" s="17" t="s">
         <v>31</v>
       </c>
       <c r="B60" s="12" t="s">
@@ -8528,7 +8584,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A62" s="18" t="s">
+      <c r="A62" s="16" t="s">
         <v>34</v>
       </c>
       <c r="B62" s="9" t="s">
@@ -8548,7 +8604,7 @@
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="32" t="s">
+      <c r="A63" s="33" t="s">
         <v>33</v>
       </c>
       <c r="B63" s="12" t="s">
@@ -8625,7 +8681,7 @@
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="32" t="s">
+      <c r="A64" s="33" t="s">
         <v>33</v>
       </c>
       <c r="B64" s="12" t="s">
@@ -8702,7 +8758,7 @@
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="32" t="s">
+      <c r="A65" s="33" t="s">
         <v>33</v>
       </c>
       <c r="B65" s="12" t="s">
@@ -8779,7 +8835,7 @@
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="32" t="s">
+      <c r="A66" s="33" t="s">
         <v>33</v>
       </c>
       <c r="B66" s="12" t="s">
@@ -8856,7 +8912,7 @@
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="32" t="s">
+      <c r="A67" s="33" t="s">
         <v>33</v>
       </c>
       <c r="B67" s="12" t="s">
@@ -8933,7 +8989,7 @@
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="32" t="s">
+      <c r="A68" s="33" t="s">
         <v>33</v>
       </c>
       <c r="B68" s="12" t="s">
@@ -9010,7 +9066,7 @@
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="32" t="s">
+      <c r="A69" s="33" t="s">
         <v>33</v>
       </c>
       <c r="B69" s="12" t="s">
@@ -9087,7 +9143,7 @@
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="32" t="s">
+      <c r="A70" s="33" t="s">
         <v>33</v>
       </c>
       <c r="B70" s="12" t="s">
@@ -9426,7 +9482,7 @@
     <col min="2" max="2" width="30" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
     <col min="4" max="4" width="48" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="27" customWidth="1"/>
     <col min="8" max="8" width="151" customWidth="1"/>
@@ -9471,7 +9527,7 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>33</v>
       </c>
       <c r="B2" s="12" t="s">
@@ -9506,7 +9562,7 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="12" t="s">
@@ -9537,7 +9593,7 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="17" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="12" t="s">
@@ -9566,7 +9622,7 @@
       <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="16" t="s">
         <v>33</v>
       </c>
       <c r="B5" s="12" t="s">
@@ -9597,7 +9653,7 @@
       <c r="K5" s="12"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="12" t="s">
@@ -9626,7 +9682,7 @@
       <c r="K6" s="12"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="17" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="12" t="s">
@@ -9661,7 +9717,7 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="19" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="12" t="s">
@@ -9690,7 +9746,7 @@
       <c r="K8" s="12"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="20" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="12" t="s">
@@ -9725,7 +9781,7 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="12" t="s">
@@ -9754,7 +9810,7 @@
       <c r="K10" s="12"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="12" t="s">
@@ -9783,7 +9839,7 @@
       <c r="K11" s="12"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="12" t="s">
@@ -9812,7 +9868,7 @@
       <c r="K12" s="12"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="12" t="s">
@@ -9841,7 +9897,7 @@
       <c r="K13" s="12"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="12" t="s">
@@ -9870,7 +9926,7 @@
       <c r="K14" s="12"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="12" t="s">
@@ -9899,7 +9955,7 @@
       <c r="K15" s="12"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="12" t="s">
@@ -9928,7 +9984,7 @@
       <c r="K16" s="12"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="12" t="s">
@@ -9957,7 +10013,7 @@
       <c r="K17" s="12"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="16" t="s">
         <v>33</v>
       </c>
       <c r="B18" s="12" t="s">
@@ -9986,7 +10042,7 @@
       <c r="K18" s="12"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="22" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="12" t="s">
@@ -9998,11 +10054,13 @@
       <c r="D19" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="15" t="s">
         <v>116</v>
       </c>
       <c r="H19" s="12"/>
@@ -10013,7 +10071,7 @@
       <c r="K19" s="12"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="16" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="12" t="s">
@@ -10042,7 +10100,7 @@
       <c r="K20" s="12"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="12" t="s">
@@ -10071,7 +10129,7 @@
       <c r="K21" s="12"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="12" t="s">
@@ -10100,7 +10158,7 @@
       <c r="K22" s="12"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="12" t="s">
@@ -10129,7 +10187,7 @@
       <c r="K23" s="12"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="12" t="s">
@@ -10158,7 +10216,7 @@
       <c r="K24" s="12"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="22" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="12" t="s">
@@ -10187,7 +10245,7 @@
       <c r="K25" s="12"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="19" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="12" t="s">
@@ -10216,7 +10274,7 @@
       <c r="K26" s="12"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="19" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="12" t="s">
@@ -10245,7 +10303,7 @@
       <c r="K27" s="12"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="19" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="12" t="s">
@@ -10274,7 +10332,7 @@
       <c r="K28" s="12"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="17" t="s">
         <v>31</v>
       </c>
       <c r="B29" s="12" t="s">
@@ -10305,7 +10363,7 @@
       <c r="K29" s="12"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="17" t="s">
         <v>31</v>
       </c>
       <c r="B30" s="12" t="s">
@@ -10334,7 +10392,7 @@
       <c r="K30" s="12"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B31" s="12" t="s">
@@ -10363,7 +10421,7 @@
       <c r="K31" s="12"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="22" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="12" t="s">
@@ -10392,7 +10450,7 @@
       <c r="K32" s="12"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="17" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="12" t="s">
@@ -10427,7 +10485,7 @@
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="17" t="s">
         <v>31</v>
       </c>
       <c r="B34" s="12" t="s">
@@ -10443,20 +10501,26 @@
         <v>105</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="G34" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
+      <c r="H34" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>165</v>
+      </c>
       <c r="J34" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K34" s="12"/>
+        <v>107</v>
+      </c>
+      <c r="K34" s="12" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="20" t="s">
+      <c r="A35" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B35" s="12" t="s">
@@ -10466,7 +10530,7 @@
         <v>42</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E35" s="13" t="s">
         <v>105</v>
@@ -10485,7 +10549,7 @@
       <c r="K35" s="12"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="20" t="s">
         <v>25</v>
       </c>
       <c r="B36" s="12" t="s">
@@ -10495,7 +10559,7 @@
         <v>42</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E36" s="13" t="s">
         <v>105</v>
@@ -10514,7 +10578,7 @@
       <c r="K36" s="12"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="20" t="s">
         <v>25</v>
       </c>
       <c r="B37" s="12" t="s">
@@ -10524,7 +10588,7 @@
         <v>42</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E37" s="13" t="s">
         <v>105</v>
@@ -10543,7 +10607,7 @@
       <c r="K37" s="12"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="19" t="s">
         <v>29</v>
       </c>
       <c r="B38" s="12" t="s">
@@ -10553,13 +10617,13 @@
         <v>42</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E38" s="13" t="s">
         <v>105</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G38" s="14" t="s">
         <v>107</v>
@@ -10572,7 +10636,7 @@
       <c r="K38" s="12"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="24" t="s">
+      <c r="A39" s="22" t="s">
         <v>28</v>
       </c>
       <c r="B39" s="12" t="s">
@@ -10582,7 +10646,7 @@
         <v>42</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>105</v>
@@ -10594,20 +10658,20 @@
         <v>107</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="J39" s="12" t="s">
         <v>107</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="16" t="s">
         <v>33</v>
       </c>
       <c r="B40" s="12" t="s">
@@ -10617,13 +10681,13 @@
         <v>42</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E40" s="13" t="s">
         <v>105</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G40" s="14" t="s">
         <v>107</v>
@@ -10636,7 +10700,7 @@
       <c r="K40" s="12"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="17" t="s">
         <v>31</v>
       </c>
       <c r="B41" s="12" t="s">
@@ -10646,7 +10710,7 @@
         <v>42</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E41" s="13" t="s">
         <v>105</v>
@@ -10665,7 +10729,7 @@
       <c r="K41" s="12"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="24" t="s">
+      <c r="A42" s="22" t="s">
         <v>28</v>
       </c>
       <c r="B42" s="12" t="s">
@@ -10675,7 +10739,7 @@
         <v>42</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E42" s="13" t="s">
         <v>105</v>
@@ -10694,7 +10758,7 @@
       <c r="K42" s="12"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="20" t="s">
+      <c r="A43" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B43" s="12" t="s">
@@ -10704,7 +10768,7 @@
         <v>42</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E43" s="13" t="s">
         <v>105</v>
@@ -10723,7 +10787,7 @@
       <c r="K43" s="12"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="24" t="s">
+      <c r="A44" s="22" t="s">
         <v>28</v>
       </c>
       <c r="B44" s="12" t="s">
@@ -10733,7 +10797,7 @@
         <v>42</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E44" s="13" t="s">
         <v>105</v>
@@ -10752,7 +10816,7 @@
       <c r="K44" s="12"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="21" t="s">
+      <c r="A45" s="19" t="s">
         <v>29</v>
       </c>
       <c r="B45" s="12" t="s">
@@ -10762,7 +10826,7 @@
         <v>42</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E45" s="13" t="s">
         <v>105</v>
@@ -10781,7 +10845,7 @@
       <c r="K45" s="12"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="23" t="s">
+      <c r="A46" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B46" s="12" t="s">
@@ -10791,13 +10855,13 @@
         <v>42</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E46" s="13" t="s">
         <v>105</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G46" s="14" t="s">
         <v>107</v>
@@ -10810,7 +10874,7 @@
       <c r="K46" s="12"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="23" t="s">
+      <c r="A47" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B47" s="12" t="s">
@@ -10820,13 +10884,13 @@
         <v>43</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E47" s="13" t="s">
         <v>105</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G47" s="14" t="s">
         <v>107</v>
@@ -10839,7 +10903,7 @@
       <c r="K47" s="12"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="23" t="s">
+      <c r="A48" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B48" s="12" t="s">
@@ -10849,7 +10913,7 @@
         <v>42</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E48" s="13" t="s">
         <v>105</v>
@@ -10861,20 +10925,20 @@
         <v>107</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="J48" s="12" t="s">
         <v>107</v>
       </c>
       <c r="K48" s="12" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="20" t="s">
+      <c r="A49" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B49" s="12" t="s">
@@ -10884,13 +10948,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E49" s="13" t="s">
         <v>105</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G49" s="14" t="s">
         <v>107</v>
@@ -10903,7 +10967,7 @@
       <c r="K49" s="12"/>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="24" t="s">
+      <c r="A50" s="22" t="s">
         <v>28</v>
       </c>
       <c r="B50" s="12" t="s">
@@ -10913,7 +10977,7 @@
         <v>42</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E50" s="13" t="s">
         <v>105</v>
@@ -10925,20 +10989,20 @@
         <v>107</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="I50" s="12" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="J50" s="12" t="s">
         <v>107</v>
       </c>
       <c r="K50" s="12" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="21" t="s">
+      <c r="A51" s="19" t="s">
         <v>29</v>
       </c>
       <c r="B51" s="12" t="s">
@@ -10948,7 +11012,7 @@
         <v>42</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E51" s="13" t="s">
         <v>105</v>
@@ -10967,7 +11031,7 @@
       <c r="K51" s="12"/>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="18" t="s">
+      <c r="A52" s="16" t="s">
         <v>33</v>
       </c>
       <c r="B52" s="12" t="s">
@@ -10977,7 +11041,7 @@
         <v>42</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E52" s="13" t="s">
         <v>105</v>
@@ -10996,7 +11060,7 @@
       <c r="K52" s="12"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="21" t="s">
+      <c r="A53" s="19" t="s">
         <v>29</v>
       </c>
       <c r="B53" s="12" t="s">
@@ -11006,7 +11070,7 @@
         <v>42</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E53" s="13" t="s">
         <v>105</v>
@@ -11025,7 +11089,7 @@
       <c r="K53" s="12"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="24" t="s">
+      <c r="A54" s="22" t="s">
         <v>28</v>
       </c>
       <c r="B54" s="12" t="s">
@@ -11035,11 +11099,13 @@
         <v>42</v>
       </c>
       <c r="D54" s="12"/>
-      <c r="E54" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F54" s="12"/>
-      <c r="G54" s="16" t="s">
+      <c r="E54" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="G54" s="15" t="s">
         <v>116</v>
       </c>
       <c r="H54" s="12"/>
@@ -11050,7 +11116,7 @@
       <c r="K54" s="12"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="18" t="s">
+      <c r="A55" s="16" t="s">
         <v>33</v>
       </c>
       <c r="B55" s="12" t="s">
@@ -11060,30 +11126,30 @@
         <v>42</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E55" s="13" t="s">
         <v>105</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G55" s="14" t="s">
         <v>107</v>
       </c>
       <c r="H55" s="12"/>
       <c r="I55" s="12" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="J55" s="12" t="s">
         <v>107</v>
       </c>
       <c r="K55" s="12" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="19" t="s">
+      <c r="A56" s="17" t="s">
         <v>31</v>
       </c>
       <c r="B56" s="12" t="s">
@@ -11093,13 +11159,13 @@
         <v>42</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E56" s="13" t="s">
         <v>105</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G56" s="14" t="s">
         <v>107</v>
@@ -11112,7 +11178,7 @@
       <c r="K56" s="12"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="23" t="s">
+      <c r="A57" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B57" s="12" t="s">
@@ -11122,13 +11188,13 @@
         <v>42</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E57" s="13" t="s">
         <v>105</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G57" s="14" t="s">
         <v>107</v>
@@ -11141,7 +11207,7 @@
       <c r="K57" s="12"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="23" t="s">
+      <c r="A58" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B58" s="12" t="s">
@@ -11151,7 +11217,7 @@
         <v>42</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E58" s="13" t="s">
         <v>105</v>
@@ -11163,16 +11229,16 @@
         <v>107</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="J58" s="12" t="s">
         <v>107</v>
       </c>
       <c r="K58" s="12" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -11232,9 +11298,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11249,7 +11315,7 @@
     <col min="8" max="8" width="80" customWidth="1"/>
     <col min="9" max="9" width="34" customWidth="1"/>
     <col min="10" max="10" width="25" customWidth="1"/>
-    <col min="11" max="11" width="26" customWidth="1"/>
+    <col min="11" max="11" width="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -11288,7 +11354,7 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>33</v>
       </c>
       <c r="B2" s="12" t="s">
@@ -11305,26 +11371,26 @@
         <v>105</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="G2" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>116</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>107</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="12" t="s">
@@ -11354,7 +11420,7 @@
       <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="17" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="12" t="s">
@@ -11384,7 +11450,7 @@
       <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="16" t="s">
         <v>33</v>
       </c>
       <c r="B5" s="12" t="s">
@@ -11407,20 +11473,20 @@
         <v>107</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>107</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="12" t="s">
@@ -11437,7 +11503,7 @@
         <v>105</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>107</v>
@@ -11450,7 +11516,7 @@
       <c r="K6" s="12"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="17" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="12" t="s">
@@ -11480,7 +11546,7 @@
       <c r="K7" s="12"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="19" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="12" t="s">
@@ -11497,7 +11563,7 @@
         <v>105</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>107</v>
@@ -11510,7 +11576,7 @@
       <c r="K8" s="12"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="20" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="12" t="s">
@@ -11540,7 +11606,7 @@
       <c r="K9" s="12"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="12" t="s">
@@ -11570,7 +11636,7 @@
       <c r="K10" s="12"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="12" t="s">
@@ -11600,7 +11666,7 @@
       <c r="K11" s="12"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="12" t="s">
@@ -11630,7 +11696,7 @@
       <c r="K12" s="12"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="12" t="s">
@@ -11647,7 +11713,7 @@
         <v>105</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>107</v>
@@ -11660,7 +11726,7 @@
       <c r="K13" s="12"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="12" t="s">
@@ -11677,7 +11743,7 @@
         <v>105</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G14" s="14" t="s">
         <v>107</v>
@@ -11690,7 +11756,7 @@
       <c r="K14" s="12"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="12" t="s">
@@ -11720,7 +11786,7 @@
       <c r="K15" s="12"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="12" t="s">
@@ -11750,7 +11816,7 @@
       <c r="K16" s="12"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="12" t="s">
@@ -11780,7 +11846,7 @@
       <c r="K17" s="12"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="16" t="s">
         <v>33</v>
       </c>
       <c r="B18" s="12" t="s">
@@ -11803,7 +11869,7 @@
         <v>107</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="I18" s="12"/>
       <c r="J18" s="12" t="s">
@@ -11812,7 +11878,7 @@
       <c r="K18" s="12"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="22" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="12" t="s">
@@ -11825,11 +11891,11 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B19&amp;C19, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B19&amp;C19, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Tássia Castelli</v>
       </c>
-      <c r="E19" s="15" t="s">
-        <v>139</v>
+      <c r="E19" s="23" t="s">
+        <v>219</v>
       </c>
       <c r="F19" s="12"/>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="15" t="s">
         <v>116</v>
       </c>
       <c r="H19" s="12"/>
@@ -11840,7 +11906,7 @@
       <c r="K19" s="12"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="16" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="12" t="s">
@@ -11870,7 +11936,7 @@
       <c r="K20" s="12"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="12" t="s">
@@ -11883,16 +11949,18 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B21&amp;C21, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B21&amp;C21, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Augusto Cesar Nunes</v>
       </c>
-      <c r="E21" s="25" t="s">
+      <c r="E21" s="24" t="s">
         <v>5</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="H21" s="12"/>
+        <v>220</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>221</v>
+      </c>
       <c r="I21" s="12"/>
       <c r="J21" s="12" t="s">
         <v>116</v>
@@ -11900,7 +11968,7 @@
       <c r="K21" s="12"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="12" t="s">
@@ -11913,13 +11981,13 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B22&amp;C22, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B22&amp;C22, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Amanda Cristina Beal Acosta</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="E22" s="24" t="s">
         <v>5</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="G22" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="G22" s="15" t="s">
         <v>116</v>
       </c>
       <c r="H22" s="12"/>
@@ -11930,7 +11998,7 @@
       <c r="K22" s="12"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="12" t="s">
@@ -11947,7 +12015,7 @@
         <v>105</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="G23" s="14" t="s">
         <v>107</v>
@@ -11960,7 +12028,7 @@
       <c r="K23" s="12"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="12" t="s">
@@ -11977,7 +12045,7 @@
         <v>105</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="G24" s="14" t="s">
         <v>107</v>
@@ -11990,7 +12058,7 @@
       <c r="K24" s="12"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="22" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="12" t="s">
@@ -12013,20 +12081,20 @@
         <v>107</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="J25" s="12" t="s">
         <v>107</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="19" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="12" t="s">
@@ -12043,7 +12111,7 @@
         <v>105</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G26" s="14" t="s">
         <v>107</v>
@@ -12056,7 +12124,7 @@
       <c r="K26" s="12"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="19" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="12" t="s">
@@ -12086,7 +12154,7 @@
       <c r="K27" s="12"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="19" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="12" t="s">
@@ -12109,20 +12177,20 @@
         <v>107</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="J28" s="12" t="s">
         <v>107</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="17" t="s">
         <v>31</v>
       </c>
       <c r="B29" s="12" t="s">
@@ -12152,7 +12220,7 @@
       <c r="K29" s="12"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="17" t="s">
         <v>31</v>
       </c>
       <c r="B30" s="12" t="s">
@@ -12182,7 +12250,7 @@
       <c r="K30" s="12"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B31" s="12" t="s">
@@ -12212,7 +12280,7 @@
       <c r="K31" s="12"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="22" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="12" t="s">
@@ -12229,7 +12297,7 @@
         <v>105</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G32" s="14" t="s">
         <v>107</v>
@@ -12242,7 +12310,7 @@
       <c r="K32" s="12"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="17" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="12" t="s">
@@ -12272,7 +12340,7 @@
       <c r="K33" s="12"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="17" t="s">
         <v>31</v>
       </c>
       <c r="B34" s="12" t="s">
@@ -12289,26 +12357,26 @@
         <v>105</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="G34" s="14" t="s">
         <v>107</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="J34" s="12" t="s">
         <v>107</v>
       </c>
       <c r="K34" s="12" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="20" t="s">
+      <c r="A35" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B35" s="12" t="s">
@@ -12338,7 +12406,7 @@
       <c r="K35" s="12"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="20" t="s">
         <v>25</v>
       </c>
       <c r="B36" s="12" t="s">
@@ -12351,24 +12419,30 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B36&amp;C36, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B36&amp;C36, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Vinicius Patriota dos Santos</v>
       </c>
-      <c r="E36" s="25" t="s">
-        <v>5</v>
+      <c r="E36" s="13" t="s">
+        <v>105</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="G36" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
+        <v>210</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="I36" s="12" t="s">
+        <v>235</v>
+      </c>
       <c r="J36" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K36" s="12"/>
+        <v>107</v>
+      </c>
+      <c r="K36" s="12" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="20" t="s">
         <v>25</v>
       </c>
       <c r="B37" s="12" t="s">
@@ -12398,7 +12472,7 @@
       <c r="K37" s="12"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="19" t="s">
         <v>29</v>
       </c>
       <c r="B38" s="12" t="s">
@@ -12415,7 +12489,7 @@
         <v>105</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G38" s="14" t="s">
         <v>107</v>
@@ -12428,7 +12502,7 @@
       <c r="K38" s="12"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="24" t="s">
+      <c r="A39" s="22" t="s">
         <v>28</v>
       </c>
       <c r="B39" s="12" t="s">
@@ -12441,14 +12515,14 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B39&amp;C39, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B39&amp;C39, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Aramis Vinicius de Paula Oliveira</v>
       </c>
-      <c r="E39" s="13" t="s">
-        <v>105</v>
+      <c r="E39" s="24" t="s">
+        <v>5</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="G39" s="14" t="s">
-        <v>107</v>
+        <v>237</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>116</v>
       </c>
       <c r="H39" s="12"/>
       <c r="I39" s="12"/>
@@ -12458,7 +12532,7 @@
       <c r="K39" s="12"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="16" t="s">
         <v>33</v>
       </c>
       <c r="B40" s="12" t="s">
@@ -12475,13 +12549,13 @@
         <v>105</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G40" s="14" t="s">
         <v>107</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="I40" s="12"/>
       <c r="J40" s="12" t="s">
@@ -12490,7 +12564,7 @@
       <c r="K40" s="12"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="17" t="s">
         <v>31</v>
       </c>
       <c r="B41" s="12" t="s">
@@ -12507,26 +12581,26 @@
         <v>105</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="G41" s="14" t="s">
         <v>107</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="I41" s="12" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="J41" s="12" t="s">
         <v>107</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="24" t="s">
+      <c r="A42" s="22" t="s">
         <v>28</v>
       </c>
       <c r="B42" s="12" t="s">
@@ -12556,7 +12630,7 @@
       <c r="K42" s="12"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="20" t="s">
+      <c r="A43" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B43" s="12" t="s">
@@ -12586,7 +12660,7 @@
       <c r="K43" s="12"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="24" t="s">
+      <c r="A44" s="22" t="s">
         <v>28</v>
       </c>
       <c r="B44" s="12" t="s">
@@ -12616,7 +12690,7 @@
       <c r="K44" s="12"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="21" t="s">
+      <c r="A45" s="19" t="s">
         <v>29</v>
       </c>
       <c r="B45" s="12" t="s">
@@ -12646,7 +12720,7 @@
       <c r="K45" s="12"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="23" t="s">
+      <c r="A46" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B46" s="12" t="s">
@@ -12663,7 +12737,7 @@
         <v>105</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="G46" s="14" t="s">
         <v>107</v>
@@ -12676,7 +12750,7 @@
       <c r="K46" s="12"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="23" t="s">
+      <c r="A47" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B47" s="12" t="s">
@@ -12693,7 +12767,7 @@
         <v>105</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="G47" s="14" t="s">
         <v>107</v>
@@ -12706,7 +12780,7 @@
       <c r="K47" s="12"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="23" t="s">
+      <c r="A48" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B48" s="12" t="s">
@@ -12736,7 +12810,7 @@
       <c r="K48" s="12"/>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="20" t="s">
+      <c r="A49" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B49" s="12" t="s">
@@ -12766,7 +12840,7 @@
       <c r="K49" s="12"/>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="24" t="s">
+      <c r="A50" s="22" t="s">
         <v>28</v>
       </c>
       <c r="B50" s="12" t="s">
@@ -12779,24 +12853,30 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B50&amp;C50, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B50&amp;C50, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Vilmar Ribeiro</v>
       </c>
-      <c r="E50" s="25" t="s">
-        <v>5</v>
+      <c r="E50" s="13" t="s">
+        <v>105</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="G50" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
+        <v>244</v>
+      </c>
+      <c r="G50" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="H50" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="I50" s="25" t="s">
+        <v>246</v>
+      </c>
       <c r="J50" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K50" s="12"/>
+        <v>107</v>
+      </c>
+      <c r="K50" s="12" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="21" t="s">
+      <c r="A51" s="19" t="s">
         <v>29</v>
       </c>
       <c r="B51" s="12" t="s">
@@ -12826,7 +12906,7 @@
       <c r="K51" s="12"/>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="18" t="s">
+      <c r="A52" s="16" t="s">
         <v>33</v>
       </c>
       <c r="B52" s="12" t="s">
@@ -12843,12 +12923,14 @@
         <v>105</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="G52" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="H52" s="12"/>
+        <v>199</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="H52" s="12" t="s">
+        <v>238</v>
+      </c>
       <c r="I52" s="12"/>
       <c r="J52" s="12" t="s">
         <v>116</v>
@@ -12856,7 +12938,7 @@
       <c r="K52" s="12"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="21" t="s">
+      <c r="A53" s="19" t="s">
         <v>29</v>
       </c>
       <c r="B53" s="12" t="s">
@@ -12886,7 +12968,7 @@
       <c r="K53" s="12"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="24" t="s">
+      <c r="A54" s="22" t="s">
         <v>28</v>
       </c>
       <c r="B54" s="12" t="s">
@@ -12899,11 +12981,11 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B54&amp;C54, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B54&amp;C54, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E54" s="17" t="s">
+      <c r="E54" s="26" t="s">
         <v>4</v>
       </c>
       <c r="F54" s="12"/>
-      <c r="G54" s="16" t="s">
+      <c r="G54" s="15" t="s">
         <v>116</v>
       </c>
       <c r="H54" s="12"/>
@@ -12914,7 +12996,7 @@
       <c r="K54" s="12"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="18" t="s">
+      <c r="A55" s="16" t="s">
         <v>33</v>
       </c>
       <c r="B55" s="12" t="s">
@@ -12931,24 +13013,24 @@
         <v>105</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G55" s="14" t="s">
         <v>107</v>
       </c>
       <c r="H55" s="12"/>
       <c r="I55" s="12" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="J55" s="12" t="s">
         <v>107</v>
       </c>
       <c r="K55" s="12" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="19" t="s">
+      <c r="A56" s="17" t="s">
         <v>31</v>
       </c>
       <c r="B56" s="12" t="s">
@@ -12965,26 +13047,26 @@
         <v>105</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="G56" s="14" t="s">
         <v>107</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="I56" s="12" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="J56" s="12" t="s">
         <v>107</v>
       </c>
       <c r="K56" s="12" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="23" t="s">
+      <c r="A57" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B57" s="12" t="s">
@@ -12997,11 +13079,11 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B57&amp;C57, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B57&amp;C57, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Fernanda Naiara Voinarski</v>
       </c>
-      <c r="E57" s="25" t="s">
+      <c r="E57" s="24" t="s">
         <v>5</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="G57" s="14" t="s">
         <v>107</v>
@@ -13014,7 +13096,7 @@
       <c r="K57" s="12"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="23" t="s">
+      <c r="A58" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B58" s="12" t="s">
@@ -13037,16 +13119,16 @@
         <v>107</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="J58" s="12" t="s">
         <v>107</v>
       </c>
       <c r="K58" s="12" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -13108,7 +13190,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13117,7 +13199,7 @@
     <col min="2" max="2" width="30" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
     <col min="4" max="4" width="45" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="7" width="27" customWidth="1"/>
     <col min="8" max="8" width="107" customWidth="1"/>
     <col min="9" max="9" width="34" customWidth="1"/>
@@ -13161,7 +13243,7 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>33</v>
       </c>
       <c r="B2" s="12" t="s">
@@ -13178,26 +13260,26 @@
         <v>105</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>107</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>107</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="12" t="s">
@@ -13220,7 +13302,7 @@
         <v>107</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="12" t="s">
@@ -13229,7 +13311,7 @@
       <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="17" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="12" t="s">
@@ -13246,7 +13328,7 @@
         <v>105</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>107</v>
@@ -13259,7 +13341,7 @@
       <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="16" t="s">
         <v>33</v>
       </c>
       <c r="B5" s="12" t="s">
@@ -13289,7 +13371,7 @@
       <c r="K5" s="12"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="12" t="s">
@@ -13319,7 +13401,7 @@
       <c r="K6" s="12"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="17" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="12" t="s">
@@ -13349,7 +13431,7 @@
       <c r="K7" s="12"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="19" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="12" t="s">
@@ -13379,7 +13461,7 @@
       <c r="K8" s="12"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="20" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="12" t="s">
@@ -13409,7 +13491,7 @@
       <c r="K9" s="12"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="12" t="s">
@@ -13426,7 +13508,7 @@
         <v>105</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>107</v>
@@ -13439,7 +13521,7 @@
       <c r="K10" s="12"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="12" t="s">
@@ -13456,7 +13538,7 @@
         <v>105</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>107</v>
@@ -13469,7 +13551,7 @@
       <c r="K11" s="12"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="12" t="s">
@@ -13499,7 +13581,7 @@
       <c r="K12" s="12"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="12" t="s">
@@ -13516,7 +13598,7 @@
         <v>105</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>107</v>
@@ -13529,7 +13611,7 @@
       <c r="K13" s="12"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="12" t="s">
@@ -13546,7 +13628,7 @@
         <v>105</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="G14" s="14" t="s">
         <v>107</v>
@@ -13559,7 +13641,7 @@
       <c r="K14" s="12"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="12" t="s">
@@ -13589,7 +13671,7 @@
       <c r="K15" s="12"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="12" t="s">
@@ -13606,7 +13688,7 @@
         <v>105</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>107</v>
@@ -13619,7 +13701,7 @@
       <c r="K16" s="12"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="12" t="s">
@@ -13642,20 +13724,20 @@
         <v>107</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="J17" s="12" t="s">
         <v>107</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="16" t="s">
         <v>33</v>
       </c>
       <c r="B18" s="12" t="s">
@@ -13685,7 +13767,7 @@
       <c r="K18" s="12"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="22" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="12" t="s">
@@ -13698,11 +13780,13 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B19&amp;C19, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B19&amp;C19, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Tássia Castelli</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="15" t="s">
         <v>116</v>
       </c>
       <c r="H19" s="12"/>
@@ -13713,7 +13797,7 @@
       <c r="K19" s="12"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="16" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="12" t="s">
@@ -13743,7 +13827,7 @@
       <c r="K20" s="12"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="12" t="s">
@@ -13756,16 +13840,18 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B21&amp;C21, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B21&amp;C21, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Augusto Cesar Nunes</v>
       </c>
-      <c r="E21" s="25" t="s">
+      <c r="E21" s="24" t="s">
         <v>5</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="H21" s="12"/>
+        <v>220</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>266</v>
+      </c>
       <c r="I21" s="12"/>
       <c r="J21" s="12" t="s">
         <v>116</v>
@@ -13773,7 +13859,7 @@
       <c r="K21" s="12"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="12" t="s">
@@ -13790,7 +13876,7 @@
         <v>105</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="G22" s="14" t="s">
         <v>107</v>
@@ -13803,7 +13889,7 @@
       <c r="K22" s="12"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="12" t="s">
@@ -13820,7 +13906,7 @@
         <v>105</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="G23" s="14" t="s">
         <v>107</v>
@@ -13833,7 +13919,7 @@
       <c r="K23" s="12"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="12" t="s">
@@ -13850,7 +13936,7 @@
         <v>105</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="G24" s="14" t="s">
         <v>107</v>
@@ -13863,7 +13949,7 @@
       <c r="K24" s="12"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="22" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="12" t="s">
@@ -13893,7 +13979,7 @@
       <c r="K25" s="12"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="19" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="12" t="s">
@@ -13923,7 +14009,7 @@
       <c r="K26" s="12"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="19" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="12" t="s">
@@ -13953,7 +14039,7 @@
       <c r="K27" s="12"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="19" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="12" t="s">
@@ -13970,7 +14056,7 @@
         <v>105</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G28" s="14" t="s">
         <v>107</v>
@@ -13983,7 +14069,7 @@
       <c r="K28" s="12"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="17" t="s">
         <v>31</v>
       </c>
       <c r="B29" s="12" t="s">
@@ -14013,7 +14099,7 @@
       <c r="K29" s="12"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="17" t="s">
         <v>31</v>
       </c>
       <c r="B30" s="12" t="s">
@@ -14043,7 +14129,7 @@
       <c r="K30" s="12"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B31" s="12" t="s">
@@ -14073,7 +14159,7 @@
       <c r="K31" s="12"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="22" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="12" t="s">
@@ -14103,7 +14189,7 @@
       <c r="K32" s="12"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="17" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="12" t="s">
@@ -14120,7 +14206,7 @@
         <v>105</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G33" s="14" t="s">
         <v>107</v>
@@ -14133,7 +14219,7 @@
       <c r="K33" s="12"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="17" t="s">
         <v>31</v>
       </c>
       <c r="B34" s="12" t="s">
@@ -14150,20 +14236,26 @@
         <v>105</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>151</v>
+        <v>268</v>
       </c>
       <c r="G34" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
+      <c r="H34" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>270</v>
+      </c>
       <c r="J34" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K34" s="12"/>
+        <v>107</v>
+      </c>
+      <c r="K34" s="12" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="20" t="s">
+      <c r="A35" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B35" s="12" t="s">
@@ -14187,17 +14279,17 @@
       </c>
       <c r="H35" s="12"/>
       <c r="I35" s="12" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="J35" s="12" t="s">
         <v>107</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="20" t="s">
         <v>25</v>
       </c>
       <c r="B36" s="12" t="s">
@@ -14227,7 +14319,7 @@
       <c r="K36" s="12"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="20" t="s">
         <v>25</v>
       </c>
       <c r="B37" s="12" t="s">
@@ -14244,24 +14336,24 @@
         <v>105</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="G37" s="14" t="s">
         <v>107</v>
       </c>
       <c r="H37" s="12"/>
       <c r="I37" s="12" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="J37" s="12" t="s">
         <v>107</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="19" t="s">
         <v>29</v>
       </c>
       <c r="B38" s="12" t="s">
@@ -14291,7 +14383,7 @@
       <c r="K38" s="12"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="24" t="s">
+      <c r="A39" s="22" t="s">
         <v>28</v>
       </c>
       <c r="B39" s="12" t="s">
@@ -14321,7 +14413,7 @@
       <c r="K39" s="12"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="16" t="s">
         <v>33</v>
       </c>
       <c r="B40" s="12" t="s">
@@ -14338,7 +14430,7 @@
         <v>105</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G40" s="14" t="s">
         <v>107</v>
@@ -14351,7 +14443,7 @@
       <c r="K40" s="12"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="17" t="s">
         <v>31</v>
       </c>
       <c r="B41" s="12" t="s">
@@ -14381,7 +14473,7 @@
       <c r="K41" s="12"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="24" t="s">
+      <c r="A42" s="22" t="s">
         <v>28</v>
       </c>
       <c r="B42" s="12" t="s">
@@ -14411,7 +14503,7 @@
       <c r="K42" s="12"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="20" t="s">
+      <c r="A43" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B43" s="12" t="s">
@@ -14441,7 +14533,7 @@
       <c r="K43" s="12"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="24" t="s">
+      <c r="A44" s="22" t="s">
         <v>28</v>
       </c>
       <c r="B44" s="12" t="s">
@@ -14471,7 +14563,7 @@
       <c r="K44" s="12"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="21" t="s">
+      <c r="A45" s="19" t="s">
         <v>29</v>
       </c>
       <c r="B45" s="12" t="s">
@@ -14501,7 +14593,7 @@
       <c r="K45" s="12"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="23" t="s">
+      <c r="A46" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B46" s="12" t="s">
@@ -14518,7 +14610,7 @@
         <v>105</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="G46" s="14" t="s">
         <v>107</v>
@@ -14531,7 +14623,7 @@
       <c r="K46" s="12"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="23" t="s">
+      <c r="A47" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B47" s="12" t="s">
@@ -14554,7 +14646,7 @@
         <v>107</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="I47" s="12"/>
       <c r="J47" s="12" t="s">
@@ -14563,7 +14655,7 @@
       <c r="K47" s="12"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="23" t="s">
+      <c r="A48" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B48" s="12" t="s">
@@ -14576,13 +14668,13 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B48&amp;C48, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B48&amp;C48, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Jean Eriksen de Miranda</v>
       </c>
-      <c r="E48" s="25" t="s">
+      <c r="E48" s="24" t="s">
         <v>5</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="G48" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="G48" s="15" t="s">
         <v>116</v>
       </c>
       <c r="H48" s="12"/>
@@ -14593,7 +14685,7 @@
       <c r="K48" s="12"/>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="20" t="s">
+      <c r="A49" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B49" s="12" t="s">
@@ -14610,7 +14702,7 @@
         <v>105</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G49" s="14" t="s">
         <v>107</v>
@@ -14623,7 +14715,7 @@
       <c r="K49" s="12"/>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="24" t="s">
+      <c r="A50" s="22" t="s">
         <v>28</v>
       </c>
       <c r="B50" s="12" t="s">
@@ -14653,7 +14745,7 @@
       <c r="K50" s="12"/>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="21" t="s">
+      <c r="A51" s="19" t="s">
         <v>29</v>
       </c>
       <c r="B51" s="12" t="s">
@@ -14683,7 +14775,7 @@
       <c r="K51" s="12"/>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="18" t="s">
+      <c r="A52" s="16" t="s">
         <v>33</v>
       </c>
       <c r="B52" s="12" t="s">
@@ -14700,7 +14792,7 @@
         <v>105</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G52" s="14" t="s">
         <v>107</v>
@@ -14713,7 +14805,7 @@
       <c r="K52" s="12"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="21" t="s">
+      <c r="A53" s="19" t="s">
         <v>29</v>
       </c>
       <c r="B53" s="12" t="s">
@@ -14743,7 +14835,7 @@
       <c r="K53" s="12"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="24" t="s">
+      <c r="A54" s="22" t="s">
         <v>28</v>
       </c>
       <c r="B54" s="12" t="s">
@@ -14756,11 +14848,13 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B54&amp;C54, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B54&amp;C54, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E54" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F54" s="12"/>
-      <c r="G54" s="16" t="s">
+      <c r="E54" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="G54" s="15" t="s">
         <v>116</v>
       </c>
       <c r="H54" s="12"/>
@@ -14771,7 +14865,7 @@
       <c r="K54" s="12"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="18" t="s">
+      <c r="A55" s="16" t="s">
         <v>33</v>
       </c>
       <c r="B55" s="12" t="s">
@@ -14788,24 +14882,24 @@
         <v>105</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G55" s="14" t="s">
         <v>107</v>
       </c>
       <c r="H55" s="12"/>
       <c r="I55" s="12" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="J55" s="12" t="s">
         <v>107</v>
       </c>
       <c r="K55" s="12" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="19" t="s">
+      <c r="A56" s="17" t="s">
         <v>31</v>
       </c>
       <c r="B56" s="12" t="s">
@@ -14835,7 +14929,7 @@
       <c r="K56" s="12"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="23" t="s">
+      <c r="A57" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B57" s="12" t="s">
@@ -14848,30 +14942,30 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B57&amp;C57, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B57&amp;C57, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Fernanda Naiara Voinarski</v>
       </c>
-      <c r="E57" s="25" t="s">
+      <c r="E57" s="24" t="s">
         <v>5</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="G57" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="G57" s="15" t="s">
         <v>116</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="J57" s="12" t="s">
         <v>107</v>
       </c>
       <c r="K57" s="12" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="23" t="s">
+      <c r="A58" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B58" s="12" t="s">

--- a/inputs/0 - Expansão/0 - Monitoramento Form 1, 2 e 3.xlsx
+++ b/inputs/0 - Expansão/0 - Monitoramento Form 1, 2 e 3.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29429"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_1E1D9ECE2B7379BD050FFF876C58E267E37A59F9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{817F9EFB-2203-4CFD-B0F1-C393504A29F9}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_1E1D9ECE2B837CEAE1DEE2CDE8A8539EE0676FC0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0834779-E3AB-4D4B-83D2-6157C1D93C61}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="1" r:id="rId1"/>
@@ -1315,6 +1315,9 @@
     <xf numFmtId="0" fontId="15" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1322,12 +1325,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1346,6 +1343,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="23" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="26" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2726,9 +2726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView topLeftCell="A27" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2855,10 +2853,10 @@
         <f ca="1">SUM(B2,D2,F2,H2)</f>
         <v>50</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="L2" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="20" t="s">
         <v>18</v>
       </c>
       <c r="O2" s="4" t="s">
@@ -2941,10 +2939,10 @@
         <f ca="1">SUM(B3,D3,F3,H3)</f>
         <v>50</v>
       </c>
-      <c r="L3" s="18" t="s">
+      <c r="L3" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="18" t="s">
+      <c r="M3" s="17" t="s">
         <v>22</v>
       </c>
       <c r="O3" s="4" t="s">
@@ -3027,10 +3025,10 @@
         <f ca="1">SUM(B4,D4,F4,H4)</f>
         <v>50</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="20" t="s">
+      <c r="M4" s="19" t="s">
         <v>26</v>
       </c>
       <c r="O4" s="4" t="s">
@@ -3113,10 +3111,10 @@
         <f ca="1">SUM(J2:J4)</f>
         <v>150</v>
       </c>
-      <c r="L5" s="22" t="s">
+      <c r="L5" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="22"/>
+      <c r="M5" s="21"/>
       <c r="AD5" s="31" t="str">
         <f ca="1"/>
         <v>Atalaia</v>
@@ -3143,10 +3141,10 @@
       </c>
     </row>
     <row r="6" spans="1:37">
-      <c r="L6" s="19" t="s">
+      <c r="L6" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="19" t="s">
+      <c r="M6" s="18" t="s">
         <v>30</v>
       </c>
       <c r="AD6" s="31" t="str">
@@ -3175,10 +3173,10 @@
       </c>
     </row>
     <row r="7" spans="1:37">
-      <c r="L7" s="17" t="s">
+      <c r="L7" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="17" t="s">
+      <c r="M7" s="16" t="s">
         <v>32</v>
       </c>
       <c r="AD7" s="31" t="str">
@@ -3207,10 +3205,10 @@
       </c>
     </row>
     <row r="8" spans="1:37">
-      <c r="L8" s="16" t="s">
+      <c r="L8" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="M8" s="16" t="s">
+      <c r="M8" s="12" t="s">
         <v>34</v>
       </c>
       <c r="AD8" s="31" t="str">
@@ -3316,11 +3314,11 @@
       </c>
       <c r="B11" s="28">
         <f ca="1">COUNTIF(INDIRECT("'Form 2 - UVR'!G2:G100"),"Sim")</f>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C11" s="32">
         <f ca="1">$B$11/(COUNTA(INDIRECT("'Form 2 - UVR'!B2:B70")))</f>
-        <v>0.8771929824561403</v>
+        <v>0.89473684210526316</v>
       </c>
       <c r="AD11" s="31" t="str">
         <f ca="1"/>
@@ -3523,7 +3521,7 @@
       </c>
     </row>
     <row r="17" spans="1:37">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="20" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="31">
@@ -3576,7 +3574,7 @@
       </c>
     </row>
     <row r="18" spans="1:37">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="17" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="31">
@@ -3629,7 +3627,7 @@
       </c>
     </row>
     <row r="19" spans="1:37">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="31">
@@ -3682,7 +3680,7 @@
       </c>
     </row>
     <row r="20" spans="1:37">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="21" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="31">
@@ -3735,7 +3733,7 @@
       </c>
     </row>
     <row r="21" spans="1:37">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="18" t="s">
         <v>29</v>
       </c>
       <c r="B21" s="31">
@@ -3788,7 +3786,7 @@
       </c>
     </row>
     <row r="22" spans="1:37">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="16" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="31">
@@ -3854,11 +3852,11 @@
       </c>
       <c r="D23" s="31">
         <f t="array" aca="1" ref="D23" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;D$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;D$15&amp;"'!A2:A100")=$A23) * (INDIRECT("'"&amp;D$15&amp;"'!G2:G100")="Sim"))), 0)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E23" s="32">
         <f ca="1">D23/(COUNTA(INDIRECT("'Form 2 - UVR'!B2:B70")))</f>
-        <v>0.10526315789473684</v>
+        <v>0.12280701754385964</v>
       </c>
       <c r="F23" s="31">
         <f t="array" aca="1" ref="F23" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;F$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;F$15&amp;"'!A2:A100")=$A23) * (INDIRECT("'"&amp;F$15&amp;"'!G2:G100")="Sim"))), 0)</f>
@@ -3907,11 +3905,11 @@
       </c>
       <c r="D24" s="34">
         <f ca="1">SUM(D17:D23)</f>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E24" s="35">
         <f ca="1">SUM(E17:E23)</f>
-        <v>0.8771929824561403</v>
+        <v>0.89473684210526305</v>
       </c>
       <c r="F24" s="34">
         <f ca="1">SUM(F17:F23)</f>
@@ -4680,7 +4678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4713,13 +4711,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D2" s="10" t="str">
@@ -4790,13 +4788,13 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>43</v>
       </c>
       <c r="D3" s="10" t="str">
@@ -4867,13 +4865,13 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>44</v>
       </c>
       <c r="D4" s="10" t="str">
@@ -4944,13 +4942,13 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="20" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="13" t="s">
         <v>45</v>
       </c>
       <c r="D5" s="10" t="str">
@@ -5021,13 +5019,13 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="13" t="s">
         <v>46</v>
       </c>
       <c r="D6" s="10" t="str">
@@ -5098,13 +5096,13 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="20" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D7" s="10" t="str">
@@ -5175,13 +5173,13 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="20" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D8" s="10" t="str">
@@ -5252,13 +5250,13 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D9" s="10" t="str">
@@ -5329,13 +5327,13 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="20" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D10" s="10" t="str">
@@ -5406,13 +5404,13 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="20" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="13" t="s">
         <v>43</v>
       </c>
       <c r="D11" s="10" t="str">
@@ -5483,13 +5481,13 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="20" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D12" s="10" t="str">
@@ -5560,13 +5558,13 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="20" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="10" t="str">
@@ -5637,13 +5635,13 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="20" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D14" s="10" t="str">
@@ -5734,13 +5732,13 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="17" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D17" s="10" t="str">
@@ -5811,13 +5809,13 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="17" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D18" s="10" t="str">
@@ -5888,13 +5886,13 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="17" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D19" s="10" t="str">
@@ -5965,13 +5963,13 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="17" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D20" s="10" t="str">
@@ -6042,13 +6040,13 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="17" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="13" t="s">
         <v>43</v>
       </c>
       <c r="D21" s="10" t="str">
@@ -6119,13 +6117,13 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="17" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="13" t="s">
         <v>44</v>
       </c>
       <c r="D22" s="10" t="str">
@@ -6196,13 +6194,13 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="17" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D23" s="10" t="str">
@@ -6273,13 +6271,13 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="17" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D24" s="10" t="str">
@@ -6350,13 +6348,13 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="17" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D25" s="10" t="str">
@@ -6447,13 +6445,13 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B28" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D28" s="10" t="str">
@@ -6524,13 +6522,13 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B29" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D29" s="10" t="str">
@@ -6601,13 +6599,13 @@
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B30" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D30" s="10" t="str">
@@ -6696,13 +6694,13 @@
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="21" t="s">
         <v>28</v>
       </c>
       <c r="B33" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D33" s="10" t="str">
@@ -6773,13 +6771,13 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="21" t="s">
         <v>28</v>
       </c>
       <c r="B34" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D34" s="10" t="str">
@@ -6850,13 +6848,13 @@
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="21" t="s">
         <v>28</v>
       </c>
       <c r="B35" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D35" s="10" t="str">
@@ -6927,13 +6925,13 @@
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="21" t="s">
         <v>28</v>
       </c>
       <c r="B36" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D36" s="10" t="str">
@@ -7004,13 +7002,13 @@
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="21" t="s">
         <v>28</v>
       </c>
       <c r="B37" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D37" s="10" t="str">
@@ -7081,13 +7079,13 @@
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="21" t="s">
         <v>28</v>
       </c>
       <c r="B38" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D38" s="10" t="str">
@@ -7158,13 +7156,13 @@
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="21" t="s">
         <v>28</v>
       </c>
       <c r="B39" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D39" s="10" t="str">
@@ -7235,13 +7233,13 @@
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="21" t="s">
         <v>28</v>
       </c>
       <c r="B40" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D40" s="10" t="str">
@@ -7332,13 +7330,13 @@
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="18" t="s">
         <v>29</v>
       </c>
       <c r="B43" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C43" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D43" s="10" t="str">
@@ -7409,13 +7407,13 @@
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="18" t="s">
         <v>29</v>
       </c>
       <c r="B44" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C44" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D44" s="10" t="str">
@@ -7486,13 +7484,13 @@
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="18" t="s">
         <v>29</v>
       </c>
       <c r="B45" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C45" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D45" s="10" t="str">
@@ -7563,13 +7561,13 @@
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="19" t="s">
+      <c r="A46" s="18" t="s">
         <v>29</v>
       </c>
       <c r="B46" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C46" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D46" s="10" t="str">
@@ -7640,13 +7638,13 @@
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="18" t="s">
         <v>29</v>
       </c>
       <c r="B47" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C47" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D47" s="10" t="str">
@@ -7717,13 +7715,13 @@
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="19" t="s">
+      <c r="A48" s="18" t="s">
         <v>29</v>
       </c>
       <c r="B48" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C48" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D48" s="10" t="str">
@@ -7794,13 +7792,13 @@
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="19" t="s">
+      <c r="A49" s="18" t="s">
         <v>29</v>
       </c>
       <c r="B49" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C49" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="10" t="str">
@@ -7871,13 +7869,13 @@
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="19" t="s">
+      <c r="A50" s="18" t="s">
         <v>29</v>
       </c>
       <c r="B50" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C50" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D50" s="10" t="str">
@@ -7968,13 +7966,13 @@
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="17" t="s">
+      <c r="A53" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C53" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D53" s="10" t="str">
@@ -8045,13 +8043,13 @@
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="17" t="s">
+      <c r="A54" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="C54" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D54" s="10" t="str">
@@ -8122,13 +8120,13 @@
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="17" t="s">
+      <c r="A55" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C55" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D55" s="10" t="str">
@@ -8199,13 +8197,13 @@
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="17" t="s">
+      <c r="A56" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="B56" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="C56" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D56" s="10" t="str">
@@ -8276,13 +8274,13 @@
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="17" t="s">
+      <c r="A57" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C57" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D57" s="10" t="str">
@@ -8353,13 +8351,13 @@
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="17" t="s">
+      <c r="A58" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="B58" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C58" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D58" s="10" t="str">
@@ -8430,13 +8428,13 @@
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="17" t="s">
+      <c r="A59" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="C59" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D59" s="10" t="str">
@@ -8507,13 +8505,13 @@
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="17" t="s">
+      <c r="A60" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B60" s="12" t="s">
+      <c r="B60" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C60" s="12" t="s">
+      <c r="C60" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D60" s="10" t="str">
@@ -8584,7 +8582,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A62" s="16" t="s">
+      <c r="A62" s="12" t="s">
         <v>34</v>
       </c>
       <c r="B62" s="9" t="s">
@@ -8607,10 +8605,10 @@
       <c r="A63" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B63" s="12" t="s">
+      <c r="B63" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="C63" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D63" s="10" t="str">
@@ -8684,10 +8682,10 @@
       <c r="A64" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B64" s="12" t="s">
+      <c r="B64" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C64" s="12" t="s">
+      <c r="C64" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D64" s="10" t="str">
@@ -8761,10 +8759,10 @@
       <c r="A65" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B65" s="12" t="s">
+      <c r="B65" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="C65" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D65" s="10" t="str">
@@ -8838,10 +8836,10 @@
       <c r="A66" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B66" s="12" t="s">
+      <c r="B66" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="C66" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D66" s="10" t="str">
@@ -8915,10 +8913,10 @@
       <c r="A67" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B67" s="12" t="s">
+      <c r="B67" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="C67" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D67" s="10" t="str">
@@ -8992,10 +8990,10 @@
       <c r="A68" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B68" s="12" t="s">
+      <c r="B68" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C68" s="12" t="s">
+      <c r="C68" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D68" s="10" t="str">
@@ -9069,10 +9067,10 @@
       <c r="A69" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B69" s="12" t="s">
+      <c r="B69" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C69" s="12" t="s">
+      <c r="C69" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D69" s="10" t="str">
@@ -9146,10 +9144,10 @@
       <c r="A70" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B70" s="12" t="s">
+      <c r="B70" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C70" s="12" t="s">
+      <c r="C70" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D70" s="10" t="str">
@@ -9469,11 +9467,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9527,1722 +9526,1728 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="12" t="s">
+      <c r="C2" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="E2" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H2" s="12" t="s">
+      <c r="G2" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="J2" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="K2" s="12" t="s">
+      <c r="J2" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="K2" s="13" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="12" t="s">
+      <c r="C3" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F3" s="12" t="s">
+      <c r="E3" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="K3" s="12" t="s">
+      <c r="G3" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="K3" s="13" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="17" t="s">
+    <row r="4" spans="1:11" hidden="1">
+      <c r="A4" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="12" t="s">
+      <c r="C4" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F4" s="12" t="s">
+      <c r="E4" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K4" s="12"/>
+      <c r="G4" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K4" s="13"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="12" t="s">
+      <c r="C5" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F5" s="12" t="s">
+      <c r="E5" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="G5" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H5" s="12" t="s">
+      <c r="G5" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H5" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K5" s="12"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="18" t="s">
+      <c r="I5" s="13"/>
+      <c r="J5" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K5" s="13"/>
+    </row>
+    <row r="6" spans="1:11" hidden="1">
+      <c r="A6" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="12" t="s">
+      <c r="C6" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F6" s="12" t="s">
+      <c r="E6" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="G6" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K6" s="12"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="17" t="s">
+      <c r="G6" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K6" s="13"/>
+    </row>
+    <row r="7" spans="1:11" hidden="1">
+      <c r="A7" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="12" t="s">
+      <c r="C7" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="E7" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F7" s="12" t="s">
+      <c r="E7" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H7" s="12" t="s">
+      <c r="G7" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H7" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="J7" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="K7" s="12" t="s">
+      <c r="J7" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="K7" s="13" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="19" t="s">
+    <row r="8" spans="1:11" hidden="1">
+      <c r="A8" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="12" t="s">
+      <c r="C8" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F8" s="12" t="s">
+      <c r="E8" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="G8" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K8" s="12"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="20" t="s">
+      <c r="G8" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="1:11" hidden="1">
+      <c r="A9" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="12" t="s">
+      <c r="C9" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F9" s="12" t="s">
+      <c r="E9" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="G9" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H9" s="12" t="s">
+      <c r="G9" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H9" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="J9" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="K9" s="12" t="s">
+      <c r="J9" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="K9" s="13" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="21" t="s">
+    <row r="10" spans="1:11" hidden="1">
+      <c r="A10" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="12" t="s">
+      <c r="C10" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="E10" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F10" s="12" t="s">
+      <c r="E10" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="G10" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K10" s="12"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="21" t="s">
+      <c r="G10" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K10" s="13"/>
+    </row>
+    <row r="11" spans="1:11" hidden="1">
+      <c r="A11" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="E11" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F11" s="12" t="s">
+      <c r="E11" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="G11" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K11" s="12"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="21" t="s">
+      <c r="G11" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="1:11" hidden="1">
+      <c r="A12" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F12" s="12" t="s">
+      <c r="E12" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K12" s="12"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="21" t="s">
+      <c r="G12" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13" spans="1:11" hidden="1">
+      <c r="A13" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F13" s="12" t="s">
+      <c r="E13" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="G13" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K13" s="12"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="21" t="s">
+      <c r="G13" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K13" s="13"/>
+    </row>
+    <row r="14" spans="1:11" hidden="1">
+      <c r="A14" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="E14" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F14" s="12" t="s">
+      <c r="E14" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="G14" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K14" s="12"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="21" t="s">
+      <c r="G14" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K14" s="13"/>
+    </row>
+    <row r="15" spans="1:11" hidden="1">
+      <c r="A15" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="12" t="s">
+      <c r="C15" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="E15" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F15" s="12" t="s">
+      <c r="E15" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="G15" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K15" s="12"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="18" t="s">
+      <c r="G15" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K15" s="13"/>
+    </row>
+    <row r="16" spans="1:11" hidden="1">
+      <c r="A16" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="12" t="s">
+      <c r="C16" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="E16" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F16" s="12" t="s">
+      <c r="E16" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="G16" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K16" s="12"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="21" t="s">
+      <c r="G16" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K16" s="13"/>
+    </row>
+    <row r="17" spans="1:11" hidden="1">
+      <c r="A17" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="12" t="s">
+      <c r="C17" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="E17" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F17" s="12" t="s">
+      <c r="E17" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="G17" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K17" s="12"/>
+      <c r="G17" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17" s="13"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="12" t="s">
+      <c r="C18" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="E18" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F18" s="12" t="s">
+      <c r="E18" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="G18" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K18" s="12"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="22" t="s">
+      <c r="G18" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K18" s="13"/>
+    </row>
+    <row r="19" spans="1:11" hidden="1">
+      <c r="A19" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="12" t="s">
+      <c r="C19" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="E19" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="12" t="s">
+      <c r="E19" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="G19" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K19" s="12"/>
+      <c r="G19" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K19" s="13"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="12" t="s">
+      <c r="C20" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="E20" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F20" s="12" t="s">
+      <c r="E20" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="G20" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K20" s="12"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="18" t="s">
+      <c r="G20" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" s="13"/>
+    </row>
+    <row r="21" spans="1:11" hidden="1">
+      <c r="A21" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="12" t="s">
+      <c r="C21" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="E21" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F21" s="12" t="s">
+      <c r="E21" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="G21" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K21" s="12"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="18" t="s">
+      <c r="G21" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K21" s="13"/>
+    </row>
+    <row r="22" spans="1:11" hidden="1">
+      <c r="A22" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="12" t="s">
+      <c r="C22" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="E22" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F22" s="12" t="s">
+      <c r="E22" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F22" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="G22" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K22" s="12"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="18" t="s">
+      <c r="G22" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K22" s="13"/>
+    </row>
+    <row r="23" spans="1:11" hidden="1">
+      <c r="A23" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="E23" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F23" s="12" t="s">
+      <c r="E23" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="G23" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K23" s="12"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="18" t="s">
+      <c r="G23" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K23" s="13"/>
+    </row>
+    <row r="24" spans="1:11" hidden="1">
+      <c r="A24" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="E24" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F24" s="12" t="s">
+      <c r="E24" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F24" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="G24" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K24" s="12"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="22" t="s">
+      <c r="G24" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K24" s="13"/>
+    </row>
+    <row r="25" spans="1:11" hidden="1">
+      <c r="A25" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="12" t="s">
+      <c r="C25" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="E25" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F25" s="12" t="s">
+      <c r="E25" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F25" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="G25" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K25" s="12"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="19" t="s">
+      <c r="G25" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K25" s="13"/>
+    </row>
+    <row r="26" spans="1:11" hidden="1">
+      <c r="A26" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="12" t="s">
+      <c r="C26" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="E26" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F26" s="12" t="s">
+      <c r="E26" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F26" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="G26" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K26" s="12"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="19" t="s">
+      <c r="G26" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K26" s="13"/>
+    </row>
+    <row r="27" spans="1:11" hidden="1">
+      <c r="A27" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="12" t="s">
+      <c r="C27" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="E27" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F27" s="12" t="s">
+      <c r="E27" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F27" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="G27" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K27" s="12"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="19" t="s">
+      <c r="G27" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K27" s="13"/>
+    </row>
+    <row r="28" spans="1:11" hidden="1">
+      <c r="A28" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C28" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="12" t="s">
+      <c r="C28" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="E28" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F28" s="12" t="s">
+      <c r="E28" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F28" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="G28" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K28" s="12"/>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="17" t="s">
+      <c r="G28" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K28" s="13"/>
+    </row>
+    <row r="29" spans="1:11" hidden="1">
+      <c r="A29" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C29" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="12" t="s">
+      <c r="C29" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="E29" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F29" s="12" t="s">
+      <c r="E29" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F29" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="G29" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H29" s="12" t="s">
+      <c r="G29" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H29" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K29" s="12"/>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="17" t="s">
+      <c r="I29" s="13"/>
+      <c r="J29" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K29" s="13"/>
+    </row>
+    <row r="30" spans="1:11" hidden="1">
+      <c r="A30" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="12" t="s">
+      <c r="C30" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="E30" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F30" s="12" t="s">
+      <c r="E30" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F30" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="G30" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K30" s="12"/>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="21" t="s">
+      <c r="G30" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K30" s="13"/>
+    </row>
+    <row r="31" spans="1:11" hidden="1">
+      <c r="A31" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="12" t="s">
+      <c r="C31" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="E31" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F31" s="12" t="s">
+      <c r="E31" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F31" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="G31" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K31" s="12"/>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="22" t="s">
+      <c r="G31" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K31" s="13"/>
+    </row>
+    <row r="32" spans="1:11" hidden="1">
+      <c r="A32" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="12" t="s">
+      <c r="C32" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="E32" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F32" s="12" t="s">
+      <c r="E32" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F32" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="G32" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K32" s="12"/>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="17" t="s">
+      <c r="G32" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K32" s="13"/>
+    </row>
+    <row r="33" spans="1:11" hidden="1">
+      <c r="A33" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" s="12" t="s">
+      <c r="C33" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="E33" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F33" s="12" t="s">
+      <c r="E33" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F33" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="G33" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H33" s="12" t="s">
+      <c r="G33" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H33" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="I33" s="12" t="s">
+      <c r="I33" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="J33" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="K33" s="12" t="s">
+      <c r="J33" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="K33" s="13" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="17" t="s">
+    <row r="34" spans="1:11" hidden="1">
+      <c r="A34" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C34" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="12" t="s">
+      <c r="C34" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="E34" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F34" s="12" t="s">
+      <c r="E34" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F34" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="G34" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H34" s="12" t="s">
+      <c r="G34" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H34" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="I34" s="12" t="s">
+      <c r="I34" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="J34" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="K34" s="12" t="s">
+      <c r="J34" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="K34" s="13" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="18" t="s">
+    <row r="35" spans="1:11" hidden="1">
+      <c r="A35" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D35" s="12" t="s">
+      <c r="C35" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="E35" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F35" s="12" t="s">
+      <c r="E35" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F35" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="G35" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K35" s="12"/>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="20" t="s">
+      <c r="G35" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K35" s="13"/>
+    </row>
+    <row r="36" spans="1:11" hidden="1">
+      <c r="A36" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36" s="12" t="s">
+      <c r="C36" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="E36" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F36" s="12" t="s">
+      <c r="E36" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F36" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="G36" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K36" s="12"/>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="20" t="s">
+      <c r="G36" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K36" s="13"/>
+    </row>
+    <row r="37" spans="1:11" hidden="1">
+      <c r="A37" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C37" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D37" s="12" t="s">
+      <c r="C37" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="E37" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F37" s="12" t="s">
+      <c r="E37" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F37" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="G37" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K37" s="12"/>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="19" t="s">
+      <c r="G37" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K37" s="13"/>
+    </row>
+    <row r="38" spans="1:11" hidden="1">
+      <c r="A38" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D38" s="12" t="s">
+      <c r="C38" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="E38" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F38" s="12" t="s">
+      <c r="E38" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F38" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="G38" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K38" s="12"/>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="22" t="s">
+      <c r="G38" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K38" s="13"/>
+    </row>
+    <row r="39" spans="1:11" hidden="1">
+      <c r="A39" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" s="12" t="s">
+      <c r="C39" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="E39" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F39" s="12" t="s">
+      <c r="E39" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F39" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="G39" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H39" s="12" t="s">
+      <c r="G39" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H39" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="I39" s="12" t="s">
+      <c r="I39" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="J39" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="K39" s="12" t="s">
+      <c r="J39" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="K39" s="13" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C40" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" s="12" t="s">
+      <c r="C40" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="E40" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F40" s="12" t="s">
+      <c r="E40" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F40" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="G40" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K40" s="12"/>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="17" t="s">
+      <c r="G40" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K40" s="13"/>
+    </row>
+    <row r="41" spans="1:11" hidden="1">
+      <c r="A41" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C41" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D41" s="12" t="s">
+      <c r="C41" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="E41" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F41" s="12" t="s">
+      <c r="E41" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F41" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="G41" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K41" s="12"/>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="22" t="s">
+      <c r="G41" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K41" s="13"/>
+    </row>
+    <row r="42" spans="1:11" hidden="1">
+      <c r="A42" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42" s="12" t="s">
+      <c r="C42" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="E42" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F42" s="12" t="s">
+      <c r="E42" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F42" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="G42" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K42" s="12"/>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="18" t="s">
+      <c r="G42" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K42" s="13"/>
+    </row>
+    <row r="43" spans="1:11" hidden="1">
+      <c r="A43" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D43" s="12" t="s">
+      <c r="C43" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="E43" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F43" s="12" t="s">
+      <c r="E43" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F43" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="G43" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K43" s="12"/>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="22" t="s">
+      <c r="G43" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K43" s="13"/>
+    </row>
+    <row r="44" spans="1:11" hidden="1">
+      <c r="A44" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C44" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D44" s="12" t="s">
+      <c r="C44" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="E44" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F44" s="12" t="s">
+      <c r="E44" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F44" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="G44" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K44" s="12"/>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="19" t="s">
+      <c r="G44" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K44" s="13"/>
+    </row>
+    <row r="45" spans="1:11" hidden="1">
+      <c r="A45" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C45" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D45" s="12" t="s">
+      <c r="C45" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D45" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="E45" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F45" s="12" t="s">
+      <c r="E45" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F45" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="G45" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K45" s="12"/>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="21" t="s">
+      <c r="G45" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K45" s="13"/>
+    </row>
+    <row r="46" spans="1:11" hidden="1">
+      <c r="A46" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D46" s="12" t="s">
+      <c r="C46" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D46" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="E46" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F46" s="12" t="s">
+      <c r="E46" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F46" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="G46" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K46" s="12"/>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="21" t="s">
+      <c r="G46" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K46" s="13"/>
+    </row>
+    <row r="47" spans="1:11" hidden="1">
+      <c r="A47" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C47" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="D47" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="E47" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F47" s="12" t="s">
+      <c r="E47" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F47" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="G47" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K47" s="12"/>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="21" t="s">
+      <c r="G47" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K47" s="13"/>
+    </row>
+    <row r="48" spans="1:11" hidden="1">
+      <c r="A48" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C48" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D48" s="12" t="s">
+      <c r="C48" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D48" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="E48" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F48" s="12" t="s">
+      <c r="E48" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F48" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="G48" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H48" s="12" t="s">
+      <c r="G48" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H48" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="I48" s="12" t="s">
+      <c r="I48" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="J48" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="K48" s="12" t="s">
+      <c r="J48" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="K48" s="13" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="18" t="s">
+    <row r="49" spans="1:11" hidden="1">
+      <c r="A49" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C49" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D49" s="12" t="s">
+      <c r="C49" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D49" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="E49" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F49" s="12" t="s">
+      <c r="E49" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F49" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="G49" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K49" s="12"/>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="22" t="s">
+      <c r="G49" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K49" s="13"/>
+    </row>
+    <row r="50" spans="1:11" hidden="1">
+      <c r="A50" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C50" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D50" s="12" t="s">
+      <c r="C50" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D50" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="E50" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F50" s="12" t="s">
+      <c r="E50" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F50" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="G50" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H50" s="12" t="s">
+      <c r="G50" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H50" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="I50" s="12" t="s">
+      <c r="I50" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="J50" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="K50" s="12" t="s">
+      <c r="J50" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="K50" s="13" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="19" t="s">
+    <row r="51" spans="1:11" hidden="1">
+      <c r="A51" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C51" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D51" s="12" t="s">
+      <c r="C51" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D51" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="E51" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F51" s="12" t="s">
+      <c r="E51" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F51" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="G51" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K51" s="12"/>
+      <c r="G51" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K51" s="13"/>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="16" t="s">
+      <c r="A52" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C52" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D52" s="12" t="s">
+      <c r="C52" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D52" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="E52" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F52" s="12" t="s">
+      <c r="E52" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F52" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="G52" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K52" s="12"/>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="A53" s="19" t="s">
+      <c r="G52" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K52" s="13"/>
+    </row>
+    <row r="53" spans="1:11" hidden="1">
+      <c r="A53" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C53" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D53" s="12" t="s">
+      <c r="C53" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D53" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="E53" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F53" s="12" t="s">
+      <c r="E53" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F53" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="G53" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K53" s="12"/>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="22" t="s">
+      <c r="G53" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K53" s="13"/>
+    </row>
+    <row r="54" spans="1:11" hidden="1">
+      <c r="A54" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C54" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D54" s="12"/>
-      <c r="E54" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F54" s="12" t="s">
+      <c r="C54" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D54" s="13"/>
+      <c r="E54" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F54" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="G54" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K54" s="12"/>
+      <c r="G54" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K54" s="13"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C55" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D55" s="12" t="s">
+      <c r="C55" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D55" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="E55" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F55" s="12" t="s">
+      <c r="E55" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F55" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="G55" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12" t="s">
+      <c r="G55" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="J55" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="K55" s="12" t="s">
+      <c r="J55" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="K55" s="13" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
-      <c r="A56" s="17" t="s">
+    <row r="56" spans="1:11" hidden="1">
+      <c r="A56" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="B56" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C56" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D56" s="12" t="s">
+      <c r="C56" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D56" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="E56" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F56" s="12" t="s">
+      <c r="E56" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F56" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="G56" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K56" s="12"/>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="21" t="s">
+      <c r="G56" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K56" s="13"/>
+    </row>
+    <row r="57" spans="1:11" hidden="1">
+      <c r="A57" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D57" s="12" t="s">
+      <c r="C57" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D57" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="E57" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F57" s="12" t="s">
+      <c r="E57" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F57" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="G57" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K57" s="12"/>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="21" t="s">
+      <c r="G57" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K57" s="13"/>
+    </row>
+    <row r="58" spans="1:11" hidden="1">
+      <c r="A58" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="B58" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C58" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D58" s="12" t="s">
+      <c r="C58" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D58" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="E58" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F58" s="12" t="s">
+      <c r="E58" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F58" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="G58" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H58" s="12" t="s">
+      <c r="G58" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H58" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="I58" s="12" t="s">
+      <c r="I58" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="J58" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="K58" s="12" t="s">
+      <c r="J58" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="K58" s="13" t="s">
         <v>209</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:G58" xr:uid="{00000000-0009-0000-0000-000002000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Paranavaí"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="G2:G58">
     <cfRule type="cellIs" dxfId="29" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
@@ -11296,11 +11301,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H22" sqref="H22"/>
+      <selection pane="topRight" activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11354,1785 +11360,1791 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="12" t="str">
+      <c r="C2" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B2&amp;C2, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B2&amp;C2, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Marcia do Nascimento</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="E2" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="G2" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="H2" s="12" t="s">
+      <c r="G2" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="J2" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="K2" s="12" t="s">
+      <c r="J2" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="K2" s="13" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="12" t="str">
+      <c r="C3" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B3&amp;C3, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B3&amp;C3, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Marcia Regina Willers</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F3" s="12" t="s">
+      <c r="E3" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K3" s="12"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="17" t="s">
+      <c r="G3" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K3" s="13"/>
+    </row>
+    <row r="4" spans="1:11" hidden="1">
+      <c r="A4" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="12" t="str">
+      <c r="C4" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B4&amp;C4, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B4&amp;C4, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Claudete Rodrigues Scarpelini</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F4" s="12" t="s">
+      <c r="E4" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K4" s="12"/>
+      <c r="G4" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K4" s="13"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="12" t="str">
+      <c r="C5" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B5&amp;C5, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B5&amp;C5, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Vagner Perseti Alves</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F5" s="12" t="s">
+      <c r="E5" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="G5" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H5" s="12" t="s">
+      <c r="G5" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H5" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="J5" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="K5" s="12" t="s">
+      <c r="J5" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="K5" s="13" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:11" hidden="1">
+      <c r="A6" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="12" t="str">
+      <c r="C6" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B6&amp;C6, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B6&amp;C6, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Tania Grespan</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F6" s="12" t="s">
+      <c r="E6" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="G6" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K6" s="12"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="17" t="s">
+      <c r="G6" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K6" s="13"/>
+    </row>
+    <row r="7" spans="1:11" hidden="1">
+      <c r="A7" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="12" t="str">
+      <c r="C7" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B7&amp;C7, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B7&amp;C7, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Daniele de Souza Lima Mei</v>
       </c>
-      <c r="E7" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F7" s="12" t="s">
+      <c r="E7" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K7" s="12"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="19" t="s">
+      <c r="G7" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K7" s="13"/>
+    </row>
+    <row r="8" spans="1:11" hidden="1">
+      <c r="A8" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="12" t="str">
+      <c r="C8" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B8&amp;C8, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B8&amp;C8, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v xml:space="preserve">Eunice Fernandes Gonzaga </v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F8" s="12" t="s">
+      <c r="E8" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="G8" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K8" s="12"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="20" t="s">
+      <c r="G8" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="1:11" hidden="1">
+      <c r="A9" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="12" t="str">
+      <c r="C9" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B9&amp;C9, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B9&amp;C9, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Rafaelly Custódio</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F9" s="12" t="s">
+      <c r="E9" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="G9" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K9" s="12"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="21" t="s">
+      <c r="G9" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K9" s="13"/>
+    </row>
+    <row r="10" spans="1:11" hidden="1">
+      <c r="A10" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="12" t="str">
+      <c r="C10" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B10&amp;C10, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B10&amp;C10, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Hayana dos Santos Jaines</v>
       </c>
-      <c r="E10" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F10" s="12" t="s">
+      <c r="E10" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="G10" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K10" s="12"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="21" t="s">
+      <c r="G10" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K10" s="13"/>
+    </row>
+    <row r="11" spans="1:11" hidden="1">
+      <c r="A11" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="12" t="str">
+      <c r="D11" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B11&amp;C11, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B11&amp;C11, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Hayana dos Santos Jaines</v>
       </c>
-      <c r="E11" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F11" s="12" t="s">
+      <c r="E11" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="G11" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K11" s="12"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="21" t="s">
+      <c r="G11" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="1:11" hidden="1">
+      <c r="A12" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="12" t="str">
+      <c r="D12" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B12&amp;C12, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B12&amp;C12, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Hayana dos Santos Jaines</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F12" s="12" t="s">
+      <c r="E12" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K12" s="12"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="21" t="s">
+      <c r="G12" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13" spans="1:11" hidden="1">
+      <c r="A13" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="12" t="str">
+      <c r="D13" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B13&amp;C13, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B13&amp;C13, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Hayana dos Santos Jaines</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F13" s="12" t="s">
+      <c r="E13" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="G13" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K13" s="12"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="21" t="s">
+      <c r="G13" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K13" s="13"/>
+    </row>
+    <row r="14" spans="1:11" hidden="1">
+      <c r="A14" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="12" t="str">
+      <c r="D14" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B14&amp;C14, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B14&amp;C14, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Hayana dos Santos Jaines</v>
       </c>
-      <c r="E14" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F14" s="12" t="s">
+      <c r="E14" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="G14" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K14" s="12"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="21" t="s">
+      <c r="G14" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K14" s="13"/>
+    </row>
+    <row r="15" spans="1:11" hidden="1">
+      <c r="A15" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="12" t="str">
+      <c r="C15" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B15&amp;C15, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B15&amp;C15, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Evellyn Renata Bereza Bueno</v>
       </c>
-      <c r="E15" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F15" s="12" t="s">
+      <c r="E15" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="G15" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K15" s="12"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="18" t="s">
+      <c r="G15" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K15" s="13"/>
+    </row>
+    <row r="16" spans="1:11" hidden="1">
+      <c r="A16" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="12" t="str">
+      <c r="C16" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B16&amp;C16, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B16&amp;C16, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Anandra da Silva</v>
       </c>
-      <c r="E16" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F16" s="12" t="s">
+      <c r="E16" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="G16" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K16" s="12"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="21" t="s">
+      <c r="G16" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K16" s="13"/>
+    </row>
+    <row r="17" spans="1:11" hidden="1">
+      <c r="A17" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="12" t="str">
+      <c r="C17" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B17&amp;C17, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B17&amp;C17, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Carlos Jorge de Oliveira Fernandes Moreira </v>
       </c>
-      <c r="E17" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F17" s="12" t="s">
+      <c r="E17" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="G17" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K17" s="12"/>
+      <c r="G17" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17" s="13"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="12" t="str">
+      <c r="C18" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B18&amp;C18, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B18&amp;C18, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Jéssica da Silva Bortolozzo</v>
       </c>
-      <c r="E18" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F18" s="12" t="s">
+      <c r="E18" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="G18" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H18" s="12" t="s">
+      <c r="G18" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H18" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K18" s="12"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="22" t="s">
+      <c r="I18" s="13"/>
+      <c r="J18" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K18" s="13"/>
+    </row>
+    <row r="19" spans="1:11" hidden="1">
+      <c r="A19" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="12" t="str">
+      <c r="C19" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B19&amp;C19, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B19&amp;C19, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Tássia Castelli</v>
       </c>
       <c r="E19" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K19" s="12"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K19" s="13"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="12" t="str">
+      <c r="C20" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B20&amp;C20, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B20&amp;C20, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Bianca Monteiro</v>
       </c>
-      <c r="E20" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F20" s="12" t="s">
+      <c r="E20" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="G20" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K20" s="12"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="18" t="s">
+      <c r="G20" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" s="13"/>
+    </row>
+    <row r="21" spans="1:11" hidden="1">
+      <c r="A21" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="12" t="str">
+      <c r="C21" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B21&amp;C21, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B21&amp;C21, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Augusto Cesar Nunes</v>
       </c>
       <c r="E21" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="G21" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="H21" s="12" t="s">
+      <c r="G21" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="H21" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K21" s="12"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="18" t="s">
+      <c r="I21" s="13"/>
+      <c r="J21" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K21" s="13"/>
+    </row>
+    <row r="22" spans="1:11" hidden="1">
+      <c r="A22" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="12" t="str">
+      <c r="C22" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B22&amp;C22, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B22&amp;C22, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Amanda Cristina Beal Acosta</v>
       </c>
       <c r="E22" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="G22" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K22" s="12"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="18" t="s">
+      <c r="G22" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K22" s="13"/>
+    </row>
+    <row r="23" spans="1:11" hidden="1">
+      <c r="A23" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="12" t="str">
+      <c r="D23" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B23&amp;C23, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B23&amp;C23, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Amanda Cristina Beal Acosta</v>
       </c>
-      <c r="E23" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F23" s="12" t="s">
+      <c r="E23" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="G23" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K23" s="12"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="18" t="s">
+      <c r="G23" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K23" s="13"/>
+    </row>
+    <row r="24" spans="1:11" hidden="1">
+      <c r="A24" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="12" t="str">
+      <c r="D24" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B24&amp;C24, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B24&amp;C24, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Amanda Cristina Beal Acosta</v>
       </c>
-      <c r="E24" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F24" s="12" t="s">
+      <c r="E24" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F24" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="G24" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K24" s="12"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="22" t="s">
+      <c r="G24" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K24" s="13"/>
+    </row>
+    <row r="25" spans="1:11" hidden="1">
+      <c r="A25" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="12" t="str">
+      <c r="C25" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B25&amp;C25, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B25&amp;C25, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Marcos Alexandre Cordeiro Esmocoviski</v>
       </c>
-      <c r="E25" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F25" s="12" t="s">
+      <c r="E25" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F25" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="G25" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H25" s="12" t="s">
+      <c r="G25" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H25" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="I25" s="12" t="s">
+      <c r="I25" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="J25" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="K25" s="12" t="s">
+      <c r="J25" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="K25" s="13" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="19" t="s">
+    <row r="26" spans="1:11" hidden="1">
+      <c r="A26" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="12" t="str">
+      <c r="C26" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B26&amp;C26, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B26&amp;C26, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Rodrigo Lima</v>
       </c>
-      <c r="E26" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F26" s="12" t="s">
+      <c r="E26" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F26" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="G26" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K26" s="12"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="19" t="s">
+      <c r="G26" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K26" s="13"/>
+    </row>
+    <row r="27" spans="1:11" hidden="1">
+      <c r="A27" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="12" t="str">
+      <c r="C27" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B27&amp;C27, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B27&amp;C27, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Savana Lemes Rodrigues</v>
       </c>
-      <c r="E27" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F27" s="12" t="s">
+      <c r="E27" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F27" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="G27" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K27" s="12"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="19" t="s">
+      <c r="G27" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K27" s="13"/>
+    </row>
+    <row r="28" spans="1:11" hidden="1">
+      <c r="A28" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C28" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="12" t="str">
+      <c r="C28" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B28&amp;C28, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B28&amp;C28, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Letícia Diniz</v>
       </c>
-      <c r="E28" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F28" s="12" t="s">
+      <c r="E28" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F28" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="G28" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H28" s="12" t="s">
+      <c r="G28" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H28" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="I28" s="12" t="s">
+      <c r="I28" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="J28" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="K28" s="12" t="s">
+      <c r="J28" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="K28" s="13" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="17" t="s">
+    <row r="29" spans="1:11" hidden="1">
+      <c r="A29" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C29" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="12" t="str">
+      <c r="C29" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B29&amp;C29, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B29&amp;C29, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Tais Muller</v>
       </c>
-      <c r="E29" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F29" s="12" t="s">
+      <c r="E29" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F29" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="G29" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K29" s="12"/>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="17" t="s">
+      <c r="G29" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K29" s="13"/>
+    </row>
+    <row r="30" spans="1:11" hidden="1">
+      <c r="A30" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="12" t="str">
+      <c r="C30" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B30&amp;C30, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B30&amp;C30, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Fernando Henrique Ferreira</v>
       </c>
-      <c r="E30" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F30" s="12" t="s">
+      <c r="E30" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F30" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="G30" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K30" s="12"/>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="21" t="s">
+      <c r="G30" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K30" s="13"/>
+    </row>
+    <row r="31" spans="1:11" hidden="1">
+      <c r="A31" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="12" t="str">
+      <c r="C31" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B31&amp;C31, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B31&amp;C31, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Isadora Bussmann Barsotti</v>
       </c>
-      <c r="E31" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F31" s="12" t="s">
+      <c r="E31" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F31" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="G31" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K31" s="12"/>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="22" t="s">
+      <c r="G31" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K31" s="13"/>
+    </row>
+    <row r="32" spans="1:11" hidden="1">
+      <c r="A32" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="12" t="str">
+      <c r="C32" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B32&amp;C32, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B32&amp;C32, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Osair Wrublak</v>
       </c>
-      <c r="E32" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F32" s="12" t="s">
+      <c r="E32" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F32" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="G32" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K32" s="12"/>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="17" t="s">
+      <c r="G32" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K32" s="13"/>
+    </row>
+    <row r="33" spans="1:11" hidden="1">
+      <c r="A33" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" s="12" t="str">
+      <c r="C33" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B33&amp;C33, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B33&amp;C33, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Gislaine Souza Rosa</v>
       </c>
-      <c r="E33" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F33" s="12" t="s">
+      <c r="E33" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F33" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="G33" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K33" s="12"/>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="17" t="s">
+      <c r="G33" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K33" s="13"/>
+    </row>
+    <row r="34" spans="1:11" hidden="1">
+      <c r="A34" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C34" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="12" t="str">
+      <c r="C34" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B34&amp;C34, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B34&amp;C34, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Leticia Framesche</v>
       </c>
-      <c r="E34" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F34" s="12" t="s">
+      <c r="E34" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F34" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="G34" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H34" s="12" t="s">
+      <c r="G34" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H34" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="I34" s="12" t="s">
+      <c r="I34" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="J34" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="K34" s="12" t="s">
+      <c r="J34" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="K34" s="13" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="18" t="s">
+    <row r="35" spans="1:11" hidden="1">
+      <c r="A35" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D35" s="12" t="str">
+      <c r="C35" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B35&amp;C35, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B35&amp;C35, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Suzana Gotardo de Meira</v>
       </c>
-      <c r="E35" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F35" s="12" t="s">
+      <c r="E35" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F35" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="G35" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K35" s="12"/>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="20" t="s">
+      <c r="G35" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K35" s="13"/>
+    </row>
+    <row r="36" spans="1:11" hidden="1">
+      <c r="A36" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36" s="12" t="str">
+      <c r="C36" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B36&amp;C36, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B36&amp;C36, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Vinicius Patriota dos Santos</v>
       </c>
-      <c r="E36" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F36" s="12" t="s">
+      <c r="E36" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F36" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="G36" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H36" s="12" t="s">
+      <c r="G36" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H36" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="I36" s="12" t="s">
+      <c r="I36" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="J36" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="K36" s="12" t="s">
+      <c r="J36" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="K36" s="13" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="20" t="s">
+    <row r="37" spans="1:11" hidden="1">
+      <c r="A37" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C37" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D37" s="12" t="str">
+      <c r="C37" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B37&amp;C37, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B37&amp;C37, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Patricia Teixeira dos Santos</v>
       </c>
-      <c r="E37" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F37" s="12" t="s">
+      <c r="E37" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F37" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="G37" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K37" s="12"/>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="19" t="s">
+      <c r="G37" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K37" s="13"/>
+    </row>
+    <row r="38" spans="1:11" hidden="1">
+      <c r="A38" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D38" s="12" t="str">
+      <c r="C38" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B38&amp;C38, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B38&amp;C38, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Anderson Batista Siqueira</v>
       </c>
-      <c r="E38" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F38" s="12" t="s">
+      <c r="E38" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F38" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="G38" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K38" s="12"/>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="22" t="s">
+      <c r="G38" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K38" s="13"/>
+    </row>
+    <row r="39" spans="1:11" hidden="1">
+      <c r="A39" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" s="12" t="str">
+      <c r="C39" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B39&amp;C39, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B39&amp;C39, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Aramis Vinicius de Paula Oliveira</v>
       </c>
       <c r="E39" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F39" s="12" t="s">
+      <c r="F39" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="G39" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K39" s="12"/>
+      <c r="G39" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K39" s="13"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C40" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" s="12" t="str">
+      <c r="C40" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B40&amp;C40, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B40&amp;C40, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Juliane Gonçalves</v>
       </c>
-      <c r="E40" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F40" s="12" t="s">
+      <c r="E40" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F40" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="G40" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H40" s="12" t="s">
+      <c r="G40" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H40" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K40" s="12"/>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="17" t="s">
+      <c r="I40" s="13"/>
+      <c r="J40" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K40" s="13"/>
+    </row>
+    <row r="41" spans="1:11" hidden="1">
+      <c r="A41" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C41" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D41" s="12" t="str">
+      <c r="C41" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B41&amp;C41, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B41&amp;C41, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Gustavo Henrique de Andrade</v>
       </c>
-      <c r="E41" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F41" s="12" t="s">
+      <c r="E41" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F41" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="G41" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H41" s="12" t="s">
+      <c r="G41" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H41" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="I41" s="12" t="s">
+      <c r="I41" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="J41" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="K41" s="12" t="s">
+      <c r="J41" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="K41" s="13" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="22" t="s">
+    <row r="42" spans="1:11" hidden="1">
+      <c r="A42" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42" s="12" t="str">
+      <c r="C42" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B42&amp;C42, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B42&amp;C42, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Ricardo Pyc</v>
       </c>
-      <c r="E42" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F42" s="12" t="s">
+      <c r="E42" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F42" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="G42" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K42" s="12"/>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="18" t="s">
+      <c r="G42" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K42" s="13"/>
+    </row>
+    <row r="43" spans="1:11" hidden="1">
+      <c r="A43" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D43" s="12" t="str">
+      <c r="C43" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B43&amp;C43, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B43&amp;C43, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Camila Maytana Flores da Silva</v>
       </c>
-      <c r="E43" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F43" s="12" t="s">
+      <c r="E43" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F43" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="G43" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K43" s="12"/>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="22" t="s">
+      <c r="G43" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K43" s="13"/>
+    </row>
+    <row r="44" spans="1:11" hidden="1">
+      <c r="A44" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C44" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D44" s="12" t="str">
+      <c r="C44" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B44&amp;C44, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B44&amp;C44, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Claudiana Andria</v>
       </c>
-      <c r="E44" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F44" s="12" t="s">
+      <c r="E44" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F44" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="G44" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K44" s="12"/>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="19" t="s">
+      <c r="G44" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K44" s="13"/>
+    </row>
+    <row r="45" spans="1:11" hidden="1">
+      <c r="A45" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C45" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D45" s="12" t="str">
+      <c r="C45" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D45" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B45&amp;C45, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B45&amp;C45, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Daiana Aparecida Dias</v>
       </c>
-      <c r="E45" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F45" s="12" t="s">
+      <c r="E45" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F45" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="G45" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K45" s="12"/>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="21" t="s">
+      <c r="G45" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K45" s="13"/>
+    </row>
+    <row r="46" spans="1:11" hidden="1">
+      <c r="A46" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D46" s="12" t="str">
+      <c r="C46" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D46" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B46&amp;C46, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B46&amp;C46, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Maysa Fernanda Back</v>
       </c>
-      <c r="E46" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F46" s="12" t="s">
+      <c r="E46" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F46" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="G46" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K46" s="12"/>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="21" t="s">
+      <c r="G46" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K46" s="13"/>
+    </row>
+    <row r="47" spans="1:11" hidden="1">
+      <c r="A47" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C47" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D47" s="12" t="str">
+      <c r="D47" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B47&amp;C47, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B47&amp;C47, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Maysa Fernanda Back</v>
       </c>
-      <c r="E47" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F47" s="12" t="s">
+      <c r="E47" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F47" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="G47" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K47" s="12"/>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="21" t="s">
+      <c r="G47" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K47" s="13"/>
+    </row>
+    <row r="48" spans="1:11" hidden="1">
+      <c r="A48" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C48" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D48" s="12" t="str">
+      <c r="C48" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D48" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B48&amp;C48, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B48&amp;C48, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Jean Eriksen de Miranda</v>
       </c>
-      <c r="E48" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F48" s="12" t="s">
+      <c r="E48" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F48" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="G48" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K48" s="12"/>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="18" t="s">
+      <c r="G48" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K48" s="13"/>
+    </row>
+    <row r="49" spans="1:11" hidden="1">
+      <c r="A49" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C49" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D49" s="12" t="str">
+      <c r="C49" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D49" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B49&amp;C49, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B49&amp;C49, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Ana Paula Cigolini</v>
       </c>
-      <c r="E49" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F49" s="12" t="s">
+      <c r="E49" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F49" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="G49" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K49" s="12"/>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="22" t="s">
+      <c r="G49" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K49" s="13"/>
+    </row>
+    <row r="50" spans="1:11" hidden="1">
+      <c r="A50" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C50" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D50" s="12" t="str">
+      <c r="C50" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D50" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B50&amp;C50, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B50&amp;C50, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Vilmar Ribeiro</v>
       </c>
-      <c r="E50" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F50" s="12" t="s">
+      <c r="E50" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F50" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="G50" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H50" s="12" t="s">
+      <c r="G50" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H50" s="13" t="s">
         <v>245</v>
       </c>
       <c r="I50" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="J50" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="K50" s="12" t="s">
+      <c r="J50" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="K50" s="13" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="19" t="s">
+    <row r="51" spans="1:11" hidden="1">
+      <c r="A51" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C51" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D51" s="12" t="str">
+      <c r="C51" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D51" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B51&amp;C51, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B51&amp;C51, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Ana Carolina Bertolaccini</v>
       </c>
-      <c r="E51" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F51" s="12" t="s">
+      <c r="E51" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F51" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="G51" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K51" s="12"/>
+      <c r="G51" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K51" s="13"/>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="16" t="s">
+      <c r="A52" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C52" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D52" s="12" t="str">
+      <c r="C52" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D52" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B52&amp;C52, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B52&amp;C52, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Maristela da Silva de Oliveira Melo</v>
       </c>
-      <c r="E52" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F52" s="12" t="s">
+      <c r="E52" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F52" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="G52" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="H52" s="12" t="s">
+      <c r="G52" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="H52" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="I52" s="12"/>
-      <c r="J52" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K52" s="12"/>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="A53" s="19" t="s">
+      <c r="I52" s="13"/>
+      <c r="J52" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K52" s="13"/>
+    </row>
+    <row r="53" spans="1:11" hidden="1">
+      <c r="A53" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C53" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D53" s="12" t="str">
+      <c r="C53" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D53" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B53&amp;C53, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B53&amp;C53, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Yuri Luiz de Oliveira</v>
       </c>
-      <c r="E53" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F53" s="12" t="s">
+      <c r="E53" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F53" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="G53" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K53" s="12"/>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="22" t="s">
+      <c r="G53" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K53" s="13"/>
+    </row>
+    <row r="54" spans="1:11" hidden="1">
+      <c r="A54" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C54" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D54" s="12" t="str">
+      <c r="C54" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D54" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B54&amp;C54, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B54&amp;C54, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
       <c r="E54" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F54" s="12"/>
-      <c r="G54" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K54" s="12"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K54" s="13"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C55" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D55" s="12" t="str">
+      <c r="C55" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D55" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B55&amp;C55, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B55&amp;C55, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Eliane Stefani Dantas Dias</v>
       </c>
-      <c r="E55" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F55" s="12" t="s">
+      <c r="E55" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F55" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="G55" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12" t="s">
+      <c r="G55" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="J55" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="K55" s="12" t="s">
+      <c r="J55" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="K55" s="13" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
-      <c r="A56" s="17" t="s">
+    <row r="56" spans="1:11" hidden="1">
+      <c r="A56" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="B56" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C56" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D56" s="12" t="str">
+      <c r="C56" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D56" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B56&amp;C56, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B56&amp;C56, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Diego Batista</v>
       </c>
-      <c r="E56" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F56" s="12" t="s">
+      <c r="E56" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F56" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="G56" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H56" s="12" t="s">
+      <c r="G56" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H56" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="I56" s="12" t="s">
+      <c r="I56" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="J56" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="K56" s="12" t="s">
+      <c r="J56" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="K56" s="13" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="21" t="s">
+    <row r="57" spans="1:11" hidden="1">
+      <c r="A57" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D57" s="12" t="str">
+      <c r="C57" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D57" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B57&amp;C57, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B57&amp;C57, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Fernanda Naiara Voinarski</v>
       </c>
       <c r="E57" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F57" s="12" t="s">
+      <c r="F57" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="G57" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K57" s="12"/>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="21" t="s">
+      <c r="G57" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K57" s="13"/>
+    </row>
+    <row r="58" spans="1:11" hidden="1">
+      <c r="A58" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="B58" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C58" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D58" s="12" t="str">
+      <c r="C58" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D58" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B58&amp;C58, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B58&amp;C58, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Pablo Bruno Rosa Oliveira</v>
       </c>
-      <c r="E58" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F58" s="12" t="s">
+      <c r="E58" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F58" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="G58" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H58" s="12" t="s">
+      <c r="G58" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H58" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="I58" s="12" t="s">
+      <c r="I58" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="J58" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="K58" s="12" t="s">
+      <c r="J58" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="K58" s="13" t="s">
         <v>257</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:G58" xr:uid="{00000000-0009-0000-0000-000003000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Paranavaí"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="G2:G58">
     <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
@@ -13186,11 +13198,12 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H21" sqref="H21"/>
+      <selection pane="topRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13243,1759 +13256,1765 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="12" t="str">
+      <c r="C2" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B2&amp;C2, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B2&amp;C2, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Marcia do Nascimento</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="E2" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="G2" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H2" s="12" t="s">
+      <c r="G2" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="J2" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="K2" s="12" t="s">
+      <c r="J2" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="K2" s="13" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="12" t="str">
+      <c r="C3" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B3&amp;C3, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B3&amp;C3, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Marcia Regina Willers</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F3" s="12" t="s">
+      <c r="E3" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H3" s="12" t="s">
+      <c r="G3" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K3" s="12"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="17" t="s">
+      <c r="I3" s="13"/>
+      <c r="J3" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K3" s="13"/>
+    </row>
+    <row r="4" spans="1:11" hidden="1">
+      <c r="A4" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="12" t="str">
+      <c r="C4" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B4&amp;C4, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B4&amp;C4, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Claudete Rodrigues Scarpelini</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F4" s="12" t="s">
+      <c r="E4" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K4" s="12"/>
+      <c r="G4" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K4" s="13"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="12" t="str">
+      <c r="C5" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B5&amp;C5, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B5&amp;C5, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Vagner Perseti Alves</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F5" s="12" t="s">
+      <c r="E5" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="G5" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K5" s="12"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="18" t="s">
+      <c r="G5" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K5" s="13"/>
+    </row>
+    <row r="6" spans="1:11" hidden="1">
+      <c r="A6" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="12" t="str">
+      <c r="C6" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B6&amp;C6, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B6&amp;C6, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Tania Grespan</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F6" s="12" t="s">
+      <c r="E6" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="G6" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K6" s="12"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="17" t="s">
+      <c r="G6" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K6" s="13"/>
+    </row>
+    <row r="7" spans="1:11" hidden="1">
+      <c r="A7" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="12" t="str">
+      <c r="C7" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B7&amp;C7, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B7&amp;C7, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Daniele de Souza Lima Mei</v>
       </c>
-      <c r="E7" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F7" s="12" t="s">
+      <c r="E7" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K7" s="12"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="19" t="s">
+      <c r="G7" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K7" s="13"/>
+    </row>
+    <row r="8" spans="1:11" hidden="1">
+      <c r="A8" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="12" t="str">
+      <c r="C8" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B8&amp;C8, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B8&amp;C8, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v xml:space="preserve">Eunice Fernandes Gonzaga </v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F8" s="12" t="s">
+      <c r="E8" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="G8" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K8" s="12"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="20" t="s">
+      <c r="G8" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="1:11" hidden="1">
+      <c r="A9" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="12" t="str">
+      <c r="C9" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B9&amp;C9, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B9&amp;C9, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Rafaelly Custódio</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F9" s="12" t="s">
+      <c r="E9" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="G9" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K9" s="12"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="21" t="s">
+      <c r="G9" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K9" s="13"/>
+    </row>
+    <row r="10" spans="1:11" hidden="1">
+      <c r="A10" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="12" t="str">
+      <c r="C10" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B10&amp;C10, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B10&amp;C10, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Hayana dos Santos Jaines</v>
       </c>
-      <c r="E10" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F10" s="12" t="s">
+      <c r="E10" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="G10" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K10" s="12"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="21" t="s">
+      <c r="G10" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K10" s="13"/>
+    </row>
+    <row r="11" spans="1:11" hidden="1">
+      <c r="A11" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="12" t="str">
+      <c r="D11" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B11&amp;C11, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B11&amp;C11, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Hayana dos Santos Jaines</v>
       </c>
-      <c r="E11" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F11" s="12" t="s">
+      <c r="E11" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="G11" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K11" s="12"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="21" t="s">
+      <c r="G11" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="1:11" hidden="1">
+      <c r="A12" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="12" t="str">
+      <c r="D12" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B12&amp;C12, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B12&amp;C12, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Hayana dos Santos Jaines</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F12" s="12" t="s">
+      <c r="E12" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K12" s="12"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="21" t="s">
+      <c r="G12" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13" spans="1:11" hidden="1">
+      <c r="A13" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="12" t="str">
+      <c r="D13" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B13&amp;C13, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B13&amp;C13, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Hayana dos Santos Jaines</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F13" s="12" t="s">
+      <c r="E13" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="G13" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K13" s="12"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="21" t="s">
+      <c r="G13" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K13" s="13"/>
+    </row>
+    <row r="14" spans="1:11" hidden="1">
+      <c r="A14" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="12" t="str">
+      <c r="D14" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B14&amp;C14, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B14&amp;C14, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Hayana dos Santos Jaines</v>
       </c>
-      <c r="E14" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F14" s="12" t="s">
+      <c r="E14" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="G14" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K14" s="12"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="21" t="s">
+      <c r="G14" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K14" s="13"/>
+    </row>
+    <row r="15" spans="1:11" hidden="1">
+      <c r="A15" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="12" t="str">
+      <c r="C15" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B15&amp;C15, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B15&amp;C15, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Evellyn Renata Bereza Bueno</v>
       </c>
-      <c r="E15" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F15" s="12" t="s">
+      <c r="E15" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="G15" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K15" s="12"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="18" t="s">
+      <c r="G15" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K15" s="13"/>
+    </row>
+    <row r="16" spans="1:11" hidden="1">
+      <c r="A16" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="12" t="str">
+      <c r="C16" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B16&amp;C16, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B16&amp;C16, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Anandra da Silva</v>
       </c>
-      <c r="E16" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F16" s="12" t="s">
+      <c r="E16" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="G16" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K16" s="12"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="21" t="s">
+      <c r="G16" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K16" s="13"/>
+    </row>
+    <row r="17" spans="1:11" hidden="1">
+      <c r="A17" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="12" t="str">
+      <c r="C17" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B17&amp;C17, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B17&amp;C17, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Carlos Jorge de Oliveira Fernandes Moreira </v>
       </c>
-      <c r="E17" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F17" s="12" t="s">
+      <c r="E17" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="G17" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H17" s="12" t="s">
+      <c r="G17" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H17" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="I17" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="J17" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="K17" s="12" t="s">
+      <c r="J17" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="K17" s="13" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="12" t="str">
+      <c r="C18" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B18&amp;C18, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B18&amp;C18, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Jéssica da Silva Bortolozzo</v>
       </c>
-      <c r="E18" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F18" s="12" t="s">
+      <c r="E18" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="G18" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K18" s="12"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="22" t="s">
+      <c r="G18" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K18" s="13"/>
+    </row>
+    <row r="19" spans="1:11" hidden="1">
+      <c r="A19" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="12" t="str">
+      <c r="C19" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B19&amp;C19, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B19&amp;C19, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Tássia Castelli</v>
       </c>
-      <c r="E19" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="12" t="s">
+      <c r="E19" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="G19" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K19" s="12"/>
+      <c r="G19" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K19" s="13"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="12" t="str">
+      <c r="C20" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B20&amp;C20, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B20&amp;C20, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Bianca Monteiro</v>
       </c>
-      <c r="E20" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F20" s="12" t="s">
+      <c r="E20" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="G20" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K20" s="12"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="18" t="s">
+      <c r="G20" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" s="13"/>
+    </row>
+    <row r="21" spans="1:11" hidden="1">
+      <c r="A21" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="12" t="str">
+      <c r="C21" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B21&amp;C21, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B21&amp;C21, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Augusto Cesar Nunes</v>
       </c>
       <c r="E21" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="G21" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="H21" s="12" t="s">
+      <c r="G21" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="H21" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K21" s="12"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="18" t="s">
+      <c r="I21" s="13"/>
+      <c r="J21" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K21" s="13"/>
+    </row>
+    <row r="22" spans="1:11" hidden="1">
+      <c r="A22" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="12" t="str">
+      <c r="C22" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B22&amp;C22, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B22&amp;C22, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Amanda Cristina Beal Acosta</v>
       </c>
-      <c r="E22" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F22" s="12" t="s">
+      <c r="E22" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F22" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="G22" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K22" s="12"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="18" t="s">
+      <c r="G22" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K22" s="13"/>
+    </row>
+    <row r="23" spans="1:11" hidden="1">
+      <c r="A23" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="12" t="str">
+      <c r="D23" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B23&amp;C23, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B23&amp;C23, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Amanda Cristina Beal Acosta</v>
       </c>
-      <c r="E23" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F23" s="12" t="s">
+      <c r="E23" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="G23" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K23" s="12"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="18" t="s">
+      <c r="G23" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K23" s="13"/>
+    </row>
+    <row r="24" spans="1:11" hidden="1">
+      <c r="A24" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="12" t="str">
+      <c r="D24" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B24&amp;C24, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B24&amp;C24, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Amanda Cristina Beal Acosta</v>
       </c>
-      <c r="E24" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F24" s="12" t="s">
+      <c r="E24" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F24" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="G24" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K24" s="12"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="22" t="s">
+      <c r="G24" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K24" s="13"/>
+    </row>
+    <row r="25" spans="1:11" hidden="1">
+      <c r="A25" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="12" t="str">
+      <c r="C25" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B25&amp;C25, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B25&amp;C25, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Marcos Alexandre Cordeiro Esmocoviski</v>
       </c>
-      <c r="E25" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F25" s="12" t="s">
+      <c r="E25" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F25" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="G25" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K25" s="12"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="19" t="s">
+      <c r="G25" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K25" s="13"/>
+    </row>
+    <row r="26" spans="1:11" hidden="1">
+      <c r="A26" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="12" t="str">
+      <c r="C26" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B26&amp;C26, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B26&amp;C26, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Rodrigo Lima</v>
       </c>
-      <c r="E26" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F26" s="12" t="s">
+      <c r="E26" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F26" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="G26" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K26" s="12"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="19" t="s">
+      <c r="G26" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K26" s="13"/>
+    </row>
+    <row r="27" spans="1:11" hidden="1">
+      <c r="A27" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="12" t="str">
+      <c r="C27" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B27&amp;C27, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B27&amp;C27, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Savana Lemes Rodrigues</v>
       </c>
-      <c r="E27" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F27" s="12" t="s">
+      <c r="E27" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F27" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="G27" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K27" s="12"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="19" t="s">
+      <c r="G27" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K27" s="13"/>
+    </row>
+    <row r="28" spans="1:11" hidden="1">
+      <c r="A28" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C28" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="12" t="str">
+      <c r="C28" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B28&amp;C28, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B28&amp;C28, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Letícia Diniz</v>
       </c>
-      <c r="E28" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F28" s="12" t="s">
+      <c r="E28" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F28" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="G28" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K28" s="12"/>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="17" t="s">
+      <c r="G28" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K28" s="13"/>
+    </row>
+    <row r="29" spans="1:11" hidden="1">
+      <c r="A29" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C29" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="12" t="str">
+      <c r="C29" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B29&amp;C29, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B29&amp;C29, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Tais Muller</v>
       </c>
-      <c r="E29" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F29" s="12" t="s">
+      <c r="E29" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F29" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="G29" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K29" s="12"/>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="17" t="s">
+      <c r="G29" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K29" s="13"/>
+    </row>
+    <row r="30" spans="1:11" hidden="1">
+      <c r="A30" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="12" t="str">
+      <c r="C30" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B30&amp;C30, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B30&amp;C30, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Fernando Henrique Ferreira</v>
       </c>
-      <c r="E30" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F30" s="12" t="s">
+      <c r="E30" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F30" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="G30" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K30" s="12"/>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="21" t="s">
+      <c r="G30" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K30" s="13"/>
+    </row>
+    <row r="31" spans="1:11" hidden="1">
+      <c r="A31" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="12" t="str">
+      <c r="C31" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B31&amp;C31, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B31&amp;C31, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Isadora Bussmann Barsotti</v>
       </c>
-      <c r="E31" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F31" s="12" t="s">
+      <c r="E31" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F31" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="G31" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K31" s="12"/>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="22" t="s">
+      <c r="G31" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K31" s="13"/>
+    </row>
+    <row r="32" spans="1:11" hidden="1">
+      <c r="A32" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="12" t="str">
+      <c r="C32" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B32&amp;C32, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B32&amp;C32, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Osair Wrublak</v>
       </c>
-      <c r="E32" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F32" s="12" t="s">
+      <c r="E32" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F32" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="G32" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K32" s="12"/>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="17" t="s">
+      <c r="G32" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K32" s="13"/>
+    </row>
+    <row r="33" spans="1:11" hidden="1">
+      <c r="A33" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" s="12" t="str">
+      <c r="C33" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B33&amp;C33, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B33&amp;C33, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Gislaine Souza Rosa</v>
       </c>
-      <c r="E33" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F33" s="12" t="s">
+      <c r="E33" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F33" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="G33" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K33" s="12"/>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="17" t="s">
+      <c r="G33" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K33" s="13"/>
+    </row>
+    <row r="34" spans="1:11" hidden="1">
+      <c r="A34" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C34" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="12" t="str">
+      <c r="C34" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B34&amp;C34, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B34&amp;C34, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Leticia Framesche</v>
       </c>
-      <c r="E34" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F34" s="12" t="s">
+      <c r="E34" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F34" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="G34" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H34" s="12" t="s">
+      <c r="G34" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H34" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="I34" s="12" t="s">
+      <c r="I34" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="J34" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="K34" s="12" t="s">
+      <c r="J34" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="K34" s="13" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="18" t="s">
+    <row r="35" spans="1:11" hidden="1">
+      <c r="A35" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D35" s="12" t="str">
+      <c r="C35" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B35&amp;C35, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B35&amp;C35, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Suzana Gotardo de Meira</v>
       </c>
-      <c r="E35" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F35" s="12" t="s">
+      <c r="E35" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F35" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="G35" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12" t="s">
+      <c r="G35" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="J35" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="K35" s="12" t="s">
+      <c r="J35" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="K35" s="13" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="20" t="s">
+    <row r="36" spans="1:11" hidden="1">
+      <c r="A36" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36" s="12" t="str">
+      <c r="C36" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B36&amp;C36, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B36&amp;C36, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Vinicius Patriota dos Santos</v>
       </c>
-      <c r="E36" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F36" s="12" t="s">
+      <c r="E36" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F36" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="G36" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K36" s="12"/>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="20" t="s">
+      <c r="G36" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K36" s="13"/>
+    </row>
+    <row r="37" spans="1:11" hidden="1">
+      <c r="A37" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C37" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D37" s="12" t="str">
+      <c r="C37" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B37&amp;C37, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B37&amp;C37, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Patricia Teixeira dos Santos</v>
       </c>
-      <c r="E37" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F37" s="12" t="s">
+      <c r="E37" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F37" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="G37" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12" t="s">
+      <c r="G37" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="J37" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="K37" s="12" t="s">
+      <c r="J37" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="K37" s="13" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="19" t="s">
+    <row r="38" spans="1:11" hidden="1">
+      <c r="A38" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D38" s="12" t="str">
+      <c r="C38" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B38&amp;C38, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B38&amp;C38, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Anderson Batista Siqueira</v>
       </c>
-      <c r="E38" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F38" s="12" t="s">
+      <c r="E38" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F38" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="G38" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K38" s="12"/>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="22" t="s">
+      <c r="G38" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K38" s="13"/>
+    </row>
+    <row r="39" spans="1:11" hidden="1">
+      <c r="A39" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" s="12" t="str">
+      <c r="C39" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B39&amp;C39, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B39&amp;C39, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Aramis Vinicius de Paula Oliveira</v>
       </c>
-      <c r="E39" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F39" s="12" t="s">
+      <c r="E39" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F39" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="G39" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K39" s="12"/>
+      <c r="G39" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K39" s="13"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C40" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" s="12" t="str">
+      <c r="C40" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B40&amp;C40, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B40&amp;C40, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Juliane Gonçalves</v>
       </c>
-      <c r="E40" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F40" s="12" t="s">
+      <c r="E40" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F40" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="G40" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K40" s="12"/>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="17" t="s">
+      <c r="G40" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K40" s="13"/>
+    </row>
+    <row r="41" spans="1:11" hidden="1">
+      <c r="A41" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C41" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D41" s="12" t="str">
+      <c r="C41" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B41&amp;C41, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B41&amp;C41, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Gustavo Henrique de Andrade</v>
       </c>
-      <c r="E41" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F41" s="12" t="s">
+      <c r="E41" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F41" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="G41" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K41" s="12"/>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="22" t="s">
+      <c r="G41" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K41" s="13"/>
+    </row>
+    <row r="42" spans="1:11" hidden="1">
+      <c r="A42" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42" s="12" t="str">
+      <c r="C42" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B42&amp;C42, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B42&amp;C42, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Ricardo Pyc</v>
       </c>
-      <c r="E42" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F42" s="12" t="s">
+      <c r="E42" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F42" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="G42" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K42" s="12"/>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="18" t="s">
+      <c r="G42" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K42" s="13"/>
+    </row>
+    <row r="43" spans="1:11" hidden="1">
+      <c r="A43" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D43" s="12" t="str">
+      <c r="C43" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B43&amp;C43, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B43&amp;C43, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Camila Maytana Flores da Silva</v>
       </c>
-      <c r="E43" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F43" s="12" t="s">
+      <c r="E43" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F43" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="G43" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K43" s="12"/>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="22" t="s">
+      <c r="G43" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K43" s="13"/>
+    </row>
+    <row r="44" spans="1:11" hidden="1">
+      <c r="A44" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C44" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D44" s="12" t="str">
+      <c r="C44" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B44&amp;C44, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B44&amp;C44, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Claudiana Andria</v>
       </c>
-      <c r="E44" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F44" s="12" t="s">
+      <c r="E44" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F44" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="G44" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K44" s="12"/>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="19" t="s">
+      <c r="G44" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K44" s="13"/>
+    </row>
+    <row r="45" spans="1:11" hidden="1">
+      <c r="A45" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C45" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D45" s="12" t="str">
+      <c r="C45" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D45" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B45&amp;C45, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B45&amp;C45, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Daiana Aparecida Dias</v>
       </c>
-      <c r="E45" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F45" s="12" t="s">
+      <c r="E45" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F45" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="G45" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K45" s="12"/>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="21" t="s">
+      <c r="G45" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K45" s="13"/>
+    </row>
+    <row r="46" spans="1:11" hidden="1">
+      <c r="A46" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D46" s="12" t="str">
+      <c r="C46" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D46" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B46&amp;C46, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B46&amp;C46, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Maysa Fernanda Back</v>
       </c>
-      <c r="E46" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F46" s="12" t="s">
+      <c r="E46" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F46" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="G46" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K46" s="12"/>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="21" t="s">
+      <c r="G46" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K46" s="13"/>
+    </row>
+    <row r="47" spans="1:11" hidden="1">
+      <c r="A47" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C47" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D47" s="12" t="str">
+      <c r="D47" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B47&amp;C47, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B47&amp;C47, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Maysa Fernanda Back</v>
       </c>
-      <c r="E47" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F47" s="12" t="s">
+      <c r="E47" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F47" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="G47" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H47" s="12" t="s">
+      <c r="G47" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H47" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K47" s="12"/>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="21" t="s">
+      <c r="I47" s="13"/>
+      <c r="J47" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K47" s="13"/>
+    </row>
+    <row r="48" spans="1:11" hidden="1">
+      <c r="A48" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C48" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D48" s="12" t="str">
+      <c r="C48" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D48" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B48&amp;C48, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B48&amp;C48, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Jean Eriksen de Miranda</v>
       </c>
       <c r="E48" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F48" s="12" t="s">
+      <c r="F48" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="G48" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K48" s="12"/>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="18" t="s">
+      <c r="G48" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K48" s="13"/>
+    </row>
+    <row r="49" spans="1:11" hidden="1">
+      <c r="A49" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C49" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D49" s="12" t="str">
+      <c r="C49" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D49" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B49&amp;C49, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B49&amp;C49, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Ana Paula Cigolini</v>
       </c>
-      <c r="E49" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F49" s="12" t="s">
+      <c r="E49" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F49" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="G49" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K49" s="12"/>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="22" t="s">
+      <c r="G49" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K49" s="13"/>
+    </row>
+    <row r="50" spans="1:11" hidden="1">
+      <c r="A50" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C50" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D50" s="12" t="str">
+      <c r="C50" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D50" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B50&amp;C50, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B50&amp;C50, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Vilmar Ribeiro</v>
       </c>
-      <c r="E50" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F50" s="12" t="s">
+      <c r="E50" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F50" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="G50" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K50" s="12"/>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="19" t="s">
+      <c r="G50" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K50" s="13"/>
+    </row>
+    <row r="51" spans="1:11" hidden="1">
+      <c r="A51" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C51" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D51" s="12" t="str">
+      <c r="C51" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D51" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B51&amp;C51, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B51&amp;C51, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Ana Carolina Bertolaccini</v>
       </c>
-      <c r="E51" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F51" s="12" t="s">
+      <c r="E51" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F51" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="G51" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K51" s="12"/>
+      <c r="G51" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K51" s="13"/>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="16" t="s">
+      <c r="A52" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C52" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D52" s="12" t="str">
+      <c r="C52" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D52" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B52&amp;C52, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B52&amp;C52, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Maristela da Silva de Oliveira Melo</v>
       </c>
-      <c r="E52" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F52" s="12" t="s">
+      <c r="E52" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F52" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="G52" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K52" s="12"/>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="A53" s="19" t="s">
+      <c r="G52" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K52" s="13"/>
+    </row>
+    <row r="53" spans="1:11" hidden="1">
+      <c r="A53" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C53" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D53" s="12" t="str">
+      <c r="C53" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D53" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B53&amp;C53, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B53&amp;C53, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Yuri Luiz de Oliveira</v>
       </c>
-      <c r="E53" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F53" s="12" t="s">
+      <c r="E53" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F53" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="G53" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K53" s="12"/>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="22" t="s">
+      <c r="G53" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K53" s="13"/>
+    </row>
+    <row r="54" spans="1:11" hidden="1">
+      <c r="A54" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C54" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D54" s="12" t="str">
+      <c r="C54" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D54" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B54&amp;C54, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B54&amp;C54, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E54" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F54" s="12" t="s">
+      <c r="E54" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F54" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="G54" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K54" s="12"/>
+      <c r="G54" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K54" s="13"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C55" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D55" s="12" t="str">
+      <c r="C55" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D55" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B55&amp;C55, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B55&amp;C55, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Eliane Stefani Dantas Dias</v>
       </c>
-      <c r="E55" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F55" s="12" t="s">
+      <c r="E55" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F55" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="G55" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12" t="s">
+      <c r="G55" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="J55" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="K55" s="12" t="s">
+      <c r="J55" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="K55" s="13" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
-      <c r="A56" s="17" t="s">
+    <row r="56" spans="1:11" hidden="1">
+      <c r="A56" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="B56" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C56" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D56" s="12" t="str">
+      <c r="C56" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D56" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B56&amp;C56, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B56&amp;C56, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Diego Batista</v>
       </c>
-      <c r="E56" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F56" s="12" t="s">
+      <c r="E56" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F56" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="G56" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K56" s="12"/>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="21" t="s">
+      <c r="G56" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K56" s="13"/>
+    </row>
+    <row r="57" spans="1:11" hidden="1">
+      <c r="A57" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D57" s="12" t="str">
+      <c r="C57" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D57" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B57&amp;C57, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B57&amp;C57, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Fernanda Naiara Voinarski</v>
       </c>
       <c r="E57" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F57" s="12" t="s">
+      <c r="F57" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="G57" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="H57" s="12" t="s">
+      <c r="G57" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="H57" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="I57" s="12" t="s">
+      <c r="I57" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="J57" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="K57" s="12" t="s">
+      <c r="J57" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="K57" s="13" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="21" t="s">
+    <row r="58" spans="1:11" hidden="1">
+      <c r="A58" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="B58" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C58" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D58" s="12" t="str">
+      <c r="C58" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D58" s="13" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B58&amp;C58, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B58&amp;C58, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Pablo Bruno Rosa Oliveira</v>
       </c>
-      <c r="E58" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F58" s="12" t="s">
+      <c r="E58" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F58" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="G58" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K58" s="12"/>
+      <c r="G58" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K58" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <autoFilter ref="A1:G58" xr:uid="{00000000-0009-0000-0000-000004000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Paranavaí"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="G2:G58">
     <cfRule type="cellIs" dxfId="9" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
